--- a/lab2/xlsx2.xlsx
+++ b/lab2/xlsx2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\agh\Optymalizacja\lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13181FF9-FAD0-49CC-B783-E44505CF219C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0015F68-4F28-4E20-9D1A-589C3B06C357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2730" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela 1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,20 @@
     <sheet name="Tabela 3" sheetId="4" r:id="rId4"/>
     <sheet name="Symulacja" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -701,7 +714,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -767,6 +780,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
@@ -774,8 +795,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -784,12 +803,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -808,6 +821,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1114,8 +1130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A258" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L290" sqref="L290"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1126,38 +1142,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="46" t="s">
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="48"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="52"/>
     </row>
     <row r="2" spans="1:14" ht="45" customHeight="1" thickBot="1">
-      <c r="A2" s="51"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="53"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="55"/>
       <c r="E2" s="32" t="s">
         <v>6</v>
       </c>
@@ -1190,7 +1206,7 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="49">
+      <c r="A3" s="53">
         <v>0.1</v>
       </c>
       <c r="B3" s="5">
@@ -1234,7 +1250,7 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="50"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -1276,7 +1292,7 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="50"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -1318,7 +1334,7 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="50"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -1360,7 +1376,7 @@
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="50"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -1402,7 +1418,7 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="50"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -1444,7 +1460,7 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="50"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -1486,7 +1502,7 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="50"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -1528,7 +1544,7 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="50"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -1570,7 +1586,7 @@
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="50"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -1612,7 +1628,7 @@
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="50"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="1">
         <v>11</v>
       </c>
@@ -1654,7 +1670,7 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="50"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="1">
         <v>12</v>
       </c>
@@ -1696,7 +1712,7 @@
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="50"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="1">
         <v>13</v>
       </c>
@@ -1738,7 +1754,7 @@
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="50"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="1">
         <v>14</v>
       </c>
@@ -1780,7 +1796,7 @@
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="50"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="1">
         <v>15</v>
       </c>
@@ -1822,7 +1838,7 @@
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="50"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="1">
         <v>16</v>
       </c>
@@ -1864,7 +1880,7 @@
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="50"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="1">
         <v>17</v>
       </c>
@@ -1906,7 +1922,7 @@
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="50"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="1">
         <v>18</v>
       </c>
@@ -1948,7 +1964,7 @@
       </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="50"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="1">
         <v>19</v>
       </c>
@@ -1990,7 +2006,7 @@
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="50"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="1">
         <v>20</v>
       </c>
@@ -2032,7 +2048,7 @@
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="50"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="1">
         <v>21</v>
       </c>
@@ -2074,7 +2090,7 @@
       </c>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="50"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="1">
         <v>22</v>
       </c>
@@ -2116,7 +2132,7 @@
       </c>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="50"/>
+      <c r="A25" s="47"/>
       <c r="B25" s="1">
         <v>23</v>
       </c>
@@ -2158,7 +2174,7 @@
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="50"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="1">
         <v>24</v>
       </c>
@@ -2200,7 +2216,7 @@
       </c>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="50"/>
+      <c r="A27" s="47"/>
       <c r="B27" s="1">
         <v>25</v>
       </c>
@@ -2242,7 +2258,7 @@
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="50"/>
+      <c r="A28" s="47"/>
       <c r="B28" s="1">
         <v>26</v>
       </c>
@@ -2284,7 +2300,7 @@
       </c>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="50"/>
+      <c r="A29" s="47"/>
       <c r="B29" s="1">
         <v>27</v>
       </c>
@@ -2326,7 +2342,7 @@
       </c>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="50"/>
+      <c r="A30" s="47"/>
       <c r="B30" s="1">
         <v>28</v>
       </c>
@@ -2368,7 +2384,7 @@
       </c>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="50"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="1">
         <v>29</v>
       </c>
@@ -2410,7 +2426,7 @@
       </c>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="50"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="1">
         <v>30</v>
       </c>
@@ -2452,7 +2468,7 @@
       </c>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="50"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="1">
         <v>31</v>
       </c>
@@ -2494,7 +2510,7 @@
       </c>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="50"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="1">
         <v>32</v>
       </c>
@@ -2536,7 +2552,7 @@
       </c>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="50"/>
+      <c r="A35" s="47"/>
       <c r="B35" s="1">
         <v>33</v>
       </c>
@@ -2578,7 +2594,7 @@
       </c>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="50"/>
+      <c r="A36" s="47"/>
       <c r="B36" s="1">
         <v>34</v>
       </c>
@@ -2620,7 +2636,7 @@
       </c>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="50"/>
+      <c r="A37" s="47"/>
       <c r="B37" s="1">
         <v>35</v>
       </c>
@@ -2662,7 +2678,7 @@
       </c>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="50"/>
+      <c r="A38" s="47"/>
       <c r="B38" s="1">
         <v>36</v>
       </c>
@@ -2704,7 +2720,7 @@
       </c>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="50"/>
+      <c r="A39" s="47"/>
       <c r="B39" s="1">
         <v>37</v>
       </c>
@@ -2746,7 +2762,7 @@
       </c>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="50"/>
+      <c r="A40" s="47"/>
       <c r="B40" s="1">
         <v>38</v>
       </c>
@@ -2788,7 +2804,7 @@
       </c>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="50"/>
+      <c r="A41" s="47"/>
       <c r="B41" s="1">
         <v>39</v>
       </c>
@@ -2830,7 +2846,7 @@
       </c>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="50"/>
+      <c r="A42" s="47"/>
       <c r="B42" s="1">
         <v>40</v>
       </c>
@@ -2872,7 +2888,7 @@
       </c>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="50"/>
+      <c r="A43" s="47"/>
       <c r="B43" s="1">
         <v>41</v>
       </c>
@@ -2914,7 +2930,7 @@
       </c>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="50"/>
+      <c r="A44" s="47"/>
       <c r="B44" s="1">
         <v>42</v>
       </c>
@@ -2956,7 +2972,7 @@
       </c>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="50"/>
+      <c r="A45" s="47"/>
       <c r="B45" s="1">
         <v>43</v>
       </c>
@@ -2998,7 +3014,7 @@
       </c>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="50"/>
+      <c r="A46" s="47"/>
       <c r="B46" s="1">
         <v>44</v>
       </c>
@@ -3040,7 +3056,7 @@
       </c>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="50"/>
+      <c r="A47" s="47"/>
       <c r="B47" s="1">
         <v>45</v>
       </c>
@@ -3082,7 +3098,7 @@
       </c>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="50"/>
+      <c r="A48" s="47"/>
       <c r="B48" s="1">
         <v>46</v>
       </c>
@@ -3124,7 +3140,7 @@
       </c>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="50"/>
+      <c r="A49" s="47"/>
       <c r="B49" s="1">
         <v>47</v>
       </c>
@@ -3166,7 +3182,7 @@
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="50"/>
+      <c r="A50" s="47"/>
       <c r="B50" s="1">
         <v>48</v>
       </c>
@@ -3208,7 +3224,7 @@
       </c>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="50"/>
+      <c r="A51" s="47"/>
       <c r="B51" s="1">
         <v>49</v>
       </c>
@@ -3250,7 +3266,7 @@
       </c>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="50"/>
+      <c r="A52" s="47"/>
       <c r="B52" s="1">
         <v>50</v>
       </c>
@@ -3292,7 +3308,7 @@
       </c>
     </row>
     <row r="53" spans="1:14">
-      <c r="A53" s="50"/>
+      <c r="A53" s="47"/>
       <c r="B53" s="1">
         <v>51</v>
       </c>
@@ -3334,7 +3350,7 @@
       </c>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="50"/>
+      <c r="A54" s="47"/>
       <c r="B54" s="1">
         <v>52</v>
       </c>
@@ -3376,7 +3392,7 @@
       </c>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="50"/>
+      <c r="A55" s="47"/>
       <c r="B55" s="1">
         <v>53</v>
       </c>
@@ -3418,7 +3434,7 @@
       </c>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="50"/>
+      <c r="A56" s="47"/>
       <c r="B56" s="1">
         <v>54</v>
       </c>
@@ -3460,7 +3476,7 @@
       </c>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="50"/>
+      <c r="A57" s="47"/>
       <c r="B57" s="1">
         <v>55</v>
       </c>
@@ -3502,7 +3518,7 @@
       </c>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="50"/>
+      <c r="A58" s="47"/>
       <c r="B58" s="1">
         <v>56</v>
       </c>
@@ -3544,7 +3560,7 @@
       </c>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="50"/>
+      <c r="A59" s="47"/>
       <c r="B59" s="1">
         <v>57</v>
       </c>
@@ -3586,7 +3602,7 @@
       </c>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="50"/>
+      <c r="A60" s="47"/>
       <c r="B60" s="1">
         <v>58</v>
       </c>
@@ -3628,7 +3644,7 @@
       </c>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="50"/>
+      <c r="A61" s="47"/>
       <c r="B61" s="1">
         <v>59</v>
       </c>
@@ -3670,7 +3686,7 @@
       </c>
     </row>
     <row r="62" spans="1:14">
-      <c r="A62" s="50"/>
+      <c r="A62" s="47"/>
       <c r="B62" s="1">
         <v>60</v>
       </c>
@@ -3712,7 +3728,7 @@
       </c>
     </row>
     <row r="63" spans="1:14">
-      <c r="A63" s="50"/>
+      <c r="A63" s="47"/>
       <c r="B63" s="1">
         <v>61</v>
       </c>
@@ -3754,7 +3770,7 @@
       </c>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="50"/>
+      <c r="A64" s="47"/>
       <c r="B64" s="1">
         <v>62</v>
       </c>
@@ -3796,7 +3812,7 @@
       </c>
     </row>
     <row r="65" spans="1:14">
-      <c r="A65" s="50"/>
+      <c r="A65" s="47"/>
       <c r="B65" s="1">
         <v>63</v>
       </c>
@@ -3838,7 +3854,7 @@
       </c>
     </row>
     <row r="66" spans="1:14">
-      <c r="A66" s="50"/>
+      <c r="A66" s="47"/>
       <c r="B66" s="1">
         <v>64</v>
       </c>
@@ -3880,7 +3896,7 @@
       </c>
     </row>
     <row r="67" spans="1:14">
-      <c r="A67" s="50"/>
+      <c r="A67" s="47"/>
       <c r="B67" s="1">
         <v>65</v>
       </c>
@@ -3922,7 +3938,7 @@
       </c>
     </row>
     <row r="68" spans="1:14">
-      <c r="A68" s="50"/>
+      <c r="A68" s="47"/>
       <c r="B68" s="1">
         <v>66</v>
       </c>
@@ -3964,7 +3980,7 @@
       </c>
     </row>
     <row r="69" spans="1:14">
-      <c r="A69" s="50"/>
+      <c r="A69" s="47"/>
       <c r="B69" s="1">
         <v>67</v>
       </c>
@@ -4006,7 +4022,7 @@
       </c>
     </row>
     <row r="70" spans="1:14">
-      <c r="A70" s="50"/>
+      <c r="A70" s="47"/>
       <c r="B70" s="1">
         <v>68</v>
       </c>
@@ -4048,7 +4064,7 @@
       </c>
     </row>
     <row r="71" spans="1:14">
-      <c r="A71" s="50"/>
+      <c r="A71" s="47"/>
       <c r="B71" s="1">
         <v>69</v>
       </c>
@@ -4090,7 +4106,7 @@
       </c>
     </row>
     <row r="72" spans="1:14">
-      <c r="A72" s="50"/>
+      <c r="A72" s="47"/>
       <c r="B72" s="1">
         <v>70</v>
       </c>
@@ -4132,7 +4148,7 @@
       </c>
     </row>
     <row r="73" spans="1:14">
-      <c r="A73" s="50"/>
+      <c r="A73" s="47"/>
       <c r="B73" s="1">
         <v>71</v>
       </c>
@@ -4174,7 +4190,7 @@
       </c>
     </row>
     <row r="74" spans="1:14">
-      <c r="A74" s="50"/>
+      <c r="A74" s="47"/>
       <c r="B74" s="1">
         <v>72</v>
       </c>
@@ -4216,7 +4232,7 @@
       </c>
     </row>
     <row r="75" spans="1:14">
-      <c r="A75" s="50"/>
+      <c r="A75" s="47"/>
       <c r="B75" s="1">
         <v>73</v>
       </c>
@@ -4258,7 +4274,7 @@
       </c>
     </row>
     <row r="76" spans="1:14">
-      <c r="A76" s="50"/>
+      <c r="A76" s="47"/>
       <c r="B76" s="1">
         <v>74</v>
       </c>
@@ -4300,7 +4316,7 @@
       </c>
     </row>
     <row r="77" spans="1:14">
-      <c r="A77" s="50"/>
+      <c r="A77" s="47"/>
       <c r="B77" s="1">
         <v>75</v>
       </c>
@@ -4342,7 +4358,7 @@
       </c>
     </row>
     <row r="78" spans="1:14">
-      <c r="A78" s="50"/>
+      <c r="A78" s="47"/>
       <c r="B78" s="1">
         <v>76</v>
       </c>
@@ -4384,7 +4400,7 @@
       </c>
     </row>
     <row r="79" spans="1:14">
-      <c r="A79" s="50"/>
+      <c r="A79" s="47"/>
       <c r="B79" s="1">
         <v>77</v>
       </c>
@@ -4426,7 +4442,7 @@
       </c>
     </row>
     <row r="80" spans="1:14">
-      <c r="A80" s="50"/>
+      <c r="A80" s="47"/>
       <c r="B80" s="1">
         <v>78</v>
       </c>
@@ -4468,7 +4484,7 @@
       </c>
     </row>
     <row r="81" spans="1:14">
-      <c r="A81" s="50"/>
+      <c r="A81" s="47"/>
       <c r="B81" s="1">
         <v>79</v>
       </c>
@@ -4510,7 +4526,7 @@
       </c>
     </row>
     <row r="82" spans="1:14">
-      <c r="A82" s="50"/>
+      <c r="A82" s="47"/>
       <c r="B82" s="1">
         <v>80</v>
       </c>
@@ -4552,7 +4568,7 @@
       </c>
     </row>
     <row r="83" spans="1:14">
-      <c r="A83" s="50"/>
+      <c r="A83" s="47"/>
       <c r="B83" s="1">
         <v>81</v>
       </c>
@@ -4594,7 +4610,7 @@
       </c>
     </row>
     <row r="84" spans="1:14">
-      <c r="A84" s="50"/>
+      <c r="A84" s="47"/>
       <c r="B84" s="1">
         <v>82</v>
       </c>
@@ -4636,7 +4652,7 @@
       </c>
     </row>
     <row r="85" spans="1:14">
-      <c r="A85" s="50"/>
+      <c r="A85" s="47"/>
       <c r="B85" s="1">
         <v>83</v>
       </c>
@@ -4678,7 +4694,7 @@
       </c>
     </row>
     <row r="86" spans="1:14">
-      <c r="A86" s="50"/>
+      <c r="A86" s="47"/>
       <c r="B86" s="1">
         <v>84</v>
       </c>
@@ -4720,7 +4736,7 @@
       </c>
     </row>
     <row r="87" spans="1:14">
-      <c r="A87" s="50"/>
+      <c r="A87" s="47"/>
       <c r="B87" s="1">
         <v>85</v>
       </c>
@@ -4762,7 +4778,7 @@
       </c>
     </row>
     <row r="88" spans="1:14">
-      <c r="A88" s="50"/>
+      <c r="A88" s="47"/>
       <c r="B88" s="1">
         <v>86</v>
       </c>
@@ -4804,7 +4820,7 @@
       </c>
     </row>
     <row r="89" spans="1:14">
-      <c r="A89" s="50"/>
+      <c r="A89" s="47"/>
       <c r="B89" s="1">
         <v>87</v>
       </c>
@@ -4846,7 +4862,7 @@
       </c>
     </row>
     <row r="90" spans="1:14">
-      <c r="A90" s="50"/>
+      <c r="A90" s="47"/>
       <c r="B90" s="1">
         <v>88</v>
       </c>
@@ -4888,7 +4904,7 @@
       </c>
     </row>
     <row r="91" spans="1:14">
-      <c r="A91" s="50"/>
+      <c r="A91" s="47"/>
       <c r="B91" s="1">
         <v>89</v>
       </c>
@@ -4930,7 +4946,7 @@
       </c>
     </row>
     <row r="92" spans="1:14">
-      <c r="A92" s="50"/>
+      <c r="A92" s="47"/>
       <c r="B92" s="1">
         <v>90</v>
       </c>
@@ -4972,7 +4988,7 @@
       </c>
     </row>
     <row r="93" spans="1:14">
-      <c r="A93" s="50"/>
+      <c r="A93" s="47"/>
       <c r="B93" s="1">
         <v>91</v>
       </c>
@@ -5014,7 +5030,7 @@
       </c>
     </row>
     <row r="94" spans="1:14">
-      <c r="A94" s="50"/>
+      <c r="A94" s="47"/>
       <c r="B94" s="1">
         <v>92</v>
       </c>
@@ -5056,7 +5072,7 @@
       </c>
     </row>
     <row r="95" spans="1:14">
-      <c r="A95" s="50"/>
+      <c r="A95" s="47"/>
       <c r="B95" s="1">
         <v>93</v>
       </c>
@@ -5098,7 +5114,7 @@
       </c>
     </row>
     <row r="96" spans="1:14">
-      <c r="A96" s="50"/>
+      <c r="A96" s="47"/>
       <c r="B96" s="1">
         <v>94</v>
       </c>
@@ -5140,7 +5156,7 @@
       </c>
     </row>
     <row r="97" spans="1:14">
-      <c r="A97" s="50"/>
+      <c r="A97" s="47"/>
       <c r="B97" s="1">
         <v>95</v>
       </c>
@@ -5182,7 +5198,7 @@
       </c>
     </row>
     <row r="98" spans="1:14">
-      <c r="A98" s="50"/>
+      <c r="A98" s="47"/>
       <c r="B98" s="1">
         <v>96</v>
       </c>
@@ -5224,7 +5240,7 @@
       </c>
     </row>
     <row r="99" spans="1:14">
-      <c r="A99" s="50"/>
+      <c r="A99" s="47"/>
       <c r="B99" s="1">
         <v>97</v>
       </c>
@@ -5266,7 +5282,7 @@
       </c>
     </row>
     <row r="100" spans="1:14">
-      <c r="A100" s="50"/>
+      <c r="A100" s="47"/>
       <c r="B100" s="1">
         <v>98</v>
       </c>
@@ -5308,7 +5324,7 @@
       </c>
     </row>
     <row r="101" spans="1:14">
-      <c r="A101" s="50"/>
+      <c r="A101" s="47"/>
       <c r="B101" s="1">
         <v>99</v>
       </c>
@@ -5350,7 +5366,7 @@
       </c>
     </row>
     <row r="102" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A102" s="51"/>
+      <c r="A102" s="48"/>
       <c r="B102" s="3">
         <v>100</v>
       </c>
@@ -5392,7 +5408,7 @@
       </c>
     </row>
     <row r="103" spans="1:14">
-      <c r="A103" s="49">
+      <c r="A103" s="53">
         <v>0.3</v>
       </c>
       <c r="B103" s="5">
@@ -5436,7 +5452,7 @@
       </c>
     </row>
     <row r="104" spans="1:14">
-      <c r="A104" s="50"/>
+      <c r="A104" s="47"/>
       <c r="B104" s="1">
         <v>2</v>
       </c>
@@ -5478,7 +5494,7 @@
       </c>
     </row>
     <row r="105" spans="1:14">
-      <c r="A105" s="50"/>
+      <c r="A105" s="47"/>
       <c r="B105" s="1">
         <v>3</v>
       </c>
@@ -5520,7 +5536,7 @@
       </c>
     </row>
     <row r="106" spans="1:14">
-      <c r="A106" s="50"/>
+      <c r="A106" s="47"/>
       <c r="B106" s="1">
         <v>4</v>
       </c>
@@ -5562,7 +5578,7 @@
       </c>
     </row>
     <row r="107" spans="1:14">
-      <c r="A107" s="50"/>
+      <c r="A107" s="47"/>
       <c r="B107" s="1">
         <v>5</v>
       </c>
@@ -5604,7 +5620,7 @@
       </c>
     </row>
     <row r="108" spans="1:14">
-      <c r="A108" s="50"/>
+      <c r="A108" s="47"/>
       <c r="B108" s="1">
         <v>6</v>
       </c>
@@ -5646,7 +5662,7 @@
       </c>
     </row>
     <row r="109" spans="1:14">
-      <c r="A109" s="50"/>
+      <c r="A109" s="47"/>
       <c r="B109" s="1">
         <v>7</v>
       </c>
@@ -5688,7 +5704,7 @@
       </c>
     </row>
     <row r="110" spans="1:14">
-      <c r="A110" s="50"/>
+      <c r="A110" s="47"/>
       <c r="B110" s="1">
         <v>8</v>
       </c>
@@ -5730,7 +5746,7 @@
       </c>
     </row>
     <row r="111" spans="1:14">
-      <c r="A111" s="50"/>
+      <c r="A111" s="47"/>
       <c r="B111" s="1">
         <v>9</v>
       </c>
@@ -5772,7 +5788,7 @@
       </c>
     </row>
     <row r="112" spans="1:14">
-      <c r="A112" s="50"/>
+      <c r="A112" s="47"/>
       <c r="B112" s="1">
         <v>10</v>
       </c>
@@ -5814,7 +5830,7 @@
       </c>
     </row>
     <row r="113" spans="1:14">
-      <c r="A113" s="50"/>
+      <c r="A113" s="47"/>
       <c r="B113" s="1">
         <v>11</v>
       </c>
@@ -5856,7 +5872,7 @@
       </c>
     </row>
     <row r="114" spans="1:14">
-      <c r="A114" s="50"/>
+      <c r="A114" s="47"/>
       <c r="B114" s="1">
         <v>12</v>
       </c>
@@ -5898,7 +5914,7 @@
       </c>
     </row>
     <row r="115" spans="1:14">
-      <c r="A115" s="50"/>
+      <c r="A115" s="47"/>
       <c r="B115" s="1">
         <v>13</v>
       </c>
@@ -5940,7 +5956,7 @@
       </c>
     </row>
     <row r="116" spans="1:14">
-      <c r="A116" s="50"/>
+      <c r="A116" s="47"/>
       <c r="B116" s="1">
         <v>14</v>
       </c>
@@ -5982,7 +5998,7 @@
       </c>
     </row>
     <row r="117" spans="1:14">
-      <c r="A117" s="50"/>
+      <c r="A117" s="47"/>
       <c r="B117" s="1">
         <v>15</v>
       </c>
@@ -6024,7 +6040,7 @@
       </c>
     </row>
     <row r="118" spans="1:14">
-      <c r="A118" s="50"/>
+      <c r="A118" s="47"/>
       <c r="B118" s="1">
         <v>16</v>
       </c>
@@ -6066,7 +6082,7 @@
       </c>
     </row>
     <row r="119" spans="1:14">
-      <c r="A119" s="50"/>
+      <c r="A119" s="47"/>
       <c r="B119" s="1">
         <v>17</v>
       </c>
@@ -6108,7 +6124,7 @@
       </c>
     </row>
     <row r="120" spans="1:14">
-      <c r="A120" s="50"/>
+      <c r="A120" s="47"/>
       <c r="B120" s="1">
         <v>18</v>
       </c>
@@ -6150,7 +6166,7 @@
       </c>
     </row>
     <row r="121" spans="1:14">
-      <c r="A121" s="50"/>
+      <c r="A121" s="47"/>
       <c r="B121" s="1">
         <v>19</v>
       </c>
@@ -6192,7 +6208,7 @@
       </c>
     </row>
     <row r="122" spans="1:14">
-      <c r="A122" s="50"/>
+      <c r="A122" s="47"/>
       <c r="B122" s="1">
         <v>20</v>
       </c>
@@ -6234,7 +6250,7 @@
       </c>
     </row>
     <row r="123" spans="1:14">
-      <c r="A123" s="50"/>
+      <c r="A123" s="47"/>
       <c r="B123" s="1">
         <v>21</v>
       </c>
@@ -6276,7 +6292,7 @@
       </c>
     </row>
     <row r="124" spans="1:14">
-      <c r="A124" s="50"/>
+      <c r="A124" s="47"/>
       <c r="B124" s="1">
         <v>22</v>
       </c>
@@ -6318,7 +6334,7 @@
       </c>
     </row>
     <row r="125" spans="1:14">
-      <c r="A125" s="50"/>
+      <c r="A125" s="47"/>
       <c r="B125" s="1">
         <v>23</v>
       </c>
@@ -6360,7 +6376,7 @@
       </c>
     </row>
     <row r="126" spans="1:14">
-      <c r="A126" s="50"/>
+      <c r="A126" s="47"/>
       <c r="B126" s="1">
         <v>24</v>
       </c>
@@ -6402,7 +6418,7 @@
       </c>
     </row>
     <row r="127" spans="1:14">
-      <c r="A127" s="50"/>
+      <c r="A127" s="47"/>
       <c r="B127" s="1">
         <v>25</v>
       </c>
@@ -6444,7 +6460,7 @@
       </c>
     </row>
     <row r="128" spans="1:14">
-      <c r="A128" s="50"/>
+      <c r="A128" s="47"/>
       <c r="B128" s="1">
         <v>26</v>
       </c>
@@ -6486,7 +6502,7 @@
       </c>
     </row>
     <row r="129" spans="1:14">
-      <c r="A129" s="50"/>
+      <c r="A129" s="47"/>
       <c r="B129" s="1">
         <v>27</v>
       </c>
@@ -6528,7 +6544,7 @@
       </c>
     </row>
     <row r="130" spans="1:14">
-      <c r="A130" s="50"/>
+      <c r="A130" s="47"/>
       <c r="B130" s="1">
         <v>28</v>
       </c>
@@ -6570,7 +6586,7 @@
       </c>
     </row>
     <row r="131" spans="1:14">
-      <c r="A131" s="50"/>
+      <c r="A131" s="47"/>
       <c r="B131" s="1">
         <v>29</v>
       </c>
@@ -6612,7 +6628,7 @@
       </c>
     </row>
     <row r="132" spans="1:14">
-      <c r="A132" s="50"/>
+      <c r="A132" s="47"/>
       <c r="B132" s="1">
         <v>30</v>
       </c>
@@ -6654,7 +6670,7 @@
       </c>
     </row>
     <row r="133" spans="1:14">
-      <c r="A133" s="50"/>
+      <c r="A133" s="47"/>
       <c r="B133" s="1">
         <v>31</v>
       </c>
@@ -6696,7 +6712,7 @@
       </c>
     </row>
     <row r="134" spans="1:14">
-      <c r="A134" s="50"/>
+      <c r="A134" s="47"/>
       <c r="B134" s="1">
         <v>32</v>
       </c>
@@ -6738,7 +6754,7 @@
       </c>
     </row>
     <row r="135" spans="1:14">
-      <c r="A135" s="50"/>
+      <c r="A135" s="47"/>
       <c r="B135" s="1">
         <v>33</v>
       </c>
@@ -6780,7 +6796,7 @@
       </c>
     </row>
     <row r="136" spans="1:14">
-      <c r="A136" s="50"/>
+      <c r="A136" s="47"/>
       <c r="B136" s="1">
         <v>34</v>
       </c>
@@ -6822,7 +6838,7 @@
       </c>
     </row>
     <row r="137" spans="1:14">
-      <c r="A137" s="50"/>
+      <c r="A137" s="47"/>
       <c r="B137" s="1">
         <v>35</v>
       </c>
@@ -6864,7 +6880,7 @@
       </c>
     </row>
     <row r="138" spans="1:14">
-      <c r="A138" s="50"/>
+      <c r="A138" s="47"/>
       <c r="B138" s="1">
         <v>36</v>
       </c>
@@ -6906,7 +6922,7 @@
       </c>
     </row>
     <row r="139" spans="1:14">
-      <c r="A139" s="50"/>
+      <c r="A139" s="47"/>
       <c r="B139" s="1">
         <v>37</v>
       </c>
@@ -6948,7 +6964,7 @@
       </c>
     </row>
     <row r="140" spans="1:14">
-      <c r="A140" s="50"/>
+      <c r="A140" s="47"/>
       <c r="B140" s="1">
         <v>38</v>
       </c>
@@ -6990,7 +7006,7 @@
       </c>
     </row>
     <row r="141" spans="1:14">
-      <c r="A141" s="50"/>
+      <c r="A141" s="47"/>
       <c r="B141" s="1">
         <v>39</v>
       </c>
@@ -7032,7 +7048,7 @@
       </c>
     </row>
     <row r="142" spans="1:14">
-      <c r="A142" s="50"/>
+      <c r="A142" s="47"/>
       <c r="B142" s="1">
         <v>40</v>
       </c>
@@ -7074,7 +7090,7 @@
       </c>
     </row>
     <row r="143" spans="1:14">
-      <c r="A143" s="50"/>
+      <c r="A143" s="47"/>
       <c r="B143" s="1">
         <v>41</v>
       </c>
@@ -7116,7 +7132,7 @@
       </c>
     </row>
     <row r="144" spans="1:14">
-      <c r="A144" s="50"/>
+      <c r="A144" s="47"/>
       <c r="B144" s="1">
         <v>42</v>
       </c>
@@ -7158,7 +7174,7 @@
       </c>
     </row>
     <row r="145" spans="1:14">
-      <c r="A145" s="50"/>
+      <c r="A145" s="47"/>
       <c r="B145" s="1">
         <v>43</v>
       </c>
@@ -7200,7 +7216,7 @@
       </c>
     </row>
     <row r="146" spans="1:14">
-      <c r="A146" s="50"/>
+      <c r="A146" s="47"/>
       <c r="B146" s="1">
         <v>44</v>
       </c>
@@ -7242,7 +7258,7 @@
       </c>
     </row>
     <row r="147" spans="1:14">
-      <c r="A147" s="50"/>
+      <c r="A147" s="47"/>
       <c r="B147" s="1">
         <v>45</v>
       </c>
@@ -7284,7 +7300,7 @@
       </c>
     </row>
     <row r="148" spans="1:14">
-      <c r="A148" s="50"/>
+      <c r="A148" s="47"/>
       <c r="B148" s="1">
         <v>46</v>
       </c>
@@ -7326,7 +7342,7 @@
       </c>
     </row>
     <row r="149" spans="1:14">
-      <c r="A149" s="50"/>
+      <c r="A149" s="47"/>
       <c r="B149" s="1">
         <v>47</v>
       </c>
@@ -7368,7 +7384,7 @@
       </c>
     </row>
     <row r="150" spans="1:14">
-      <c r="A150" s="50"/>
+      <c r="A150" s="47"/>
       <c r="B150" s="1">
         <v>48</v>
       </c>
@@ -7410,7 +7426,7 @@
       </c>
     </row>
     <row r="151" spans="1:14">
-      <c r="A151" s="50"/>
+      <c r="A151" s="47"/>
       <c r="B151" s="1">
         <v>49</v>
       </c>
@@ -7452,7 +7468,7 @@
       </c>
     </row>
     <row r="152" spans="1:14">
-      <c r="A152" s="50"/>
+      <c r="A152" s="47"/>
       <c r="B152" s="1">
         <v>50</v>
       </c>
@@ -7494,7 +7510,7 @@
       </c>
     </row>
     <row r="153" spans="1:14">
-      <c r="A153" s="50"/>
+      <c r="A153" s="47"/>
       <c r="B153" s="1">
         <v>51</v>
       </c>
@@ -7536,7 +7552,7 @@
       </c>
     </row>
     <row r="154" spans="1:14">
-      <c r="A154" s="50"/>
+      <c r="A154" s="47"/>
       <c r="B154" s="1">
         <v>52</v>
       </c>
@@ -7578,7 +7594,7 @@
       </c>
     </row>
     <row r="155" spans="1:14">
-      <c r="A155" s="50"/>
+      <c r="A155" s="47"/>
       <c r="B155" s="1">
         <v>53</v>
       </c>
@@ -7620,7 +7636,7 @@
       </c>
     </row>
     <row r="156" spans="1:14">
-      <c r="A156" s="50"/>
+      <c r="A156" s="47"/>
       <c r="B156" s="1">
         <v>54</v>
       </c>
@@ -7662,7 +7678,7 @@
       </c>
     </row>
     <row r="157" spans="1:14">
-      <c r="A157" s="50"/>
+      <c r="A157" s="47"/>
       <c r="B157" s="1">
         <v>55</v>
       </c>
@@ -7704,7 +7720,7 @@
       </c>
     </row>
     <row r="158" spans="1:14">
-      <c r="A158" s="50"/>
+      <c r="A158" s="47"/>
       <c r="B158" s="1">
         <v>56</v>
       </c>
@@ -7746,7 +7762,7 @@
       </c>
     </row>
     <row r="159" spans="1:14">
-      <c r="A159" s="50"/>
+      <c r="A159" s="47"/>
       <c r="B159" s="1">
         <v>57</v>
       </c>
@@ -7788,7 +7804,7 @@
       </c>
     </row>
     <row r="160" spans="1:14">
-      <c r="A160" s="50"/>
+      <c r="A160" s="47"/>
       <c r="B160" s="1">
         <v>58</v>
       </c>
@@ -7830,7 +7846,7 @@
       </c>
     </row>
     <row r="161" spans="1:14">
-      <c r="A161" s="50"/>
+      <c r="A161" s="47"/>
       <c r="B161" s="1">
         <v>59</v>
       </c>
@@ -7872,7 +7888,7 @@
       </c>
     </row>
     <row r="162" spans="1:14">
-      <c r="A162" s="50"/>
+      <c r="A162" s="47"/>
       <c r="B162" s="1">
         <v>60</v>
       </c>
@@ -7914,7 +7930,7 @@
       </c>
     </row>
     <row r="163" spans="1:14">
-      <c r="A163" s="50"/>
+      <c r="A163" s="47"/>
       <c r="B163" s="1">
         <v>61</v>
       </c>
@@ -7956,7 +7972,7 @@
       </c>
     </row>
     <row r="164" spans="1:14">
-      <c r="A164" s="50"/>
+      <c r="A164" s="47"/>
       <c r="B164" s="1">
         <v>62</v>
       </c>
@@ -7998,7 +8014,7 @@
       </c>
     </row>
     <row r="165" spans="1:14">
-      <c r="A165" s="50"/>
+      <c r="A165" s="47"/>
       <c r="B165" s="1">
         <v>63</v>
       </c>
@@ -8040,7 +8056,7 @@
       </c>
     </row>
     <row r="166" spans="1:14">
-      <c r="A166" s="50"/>
+      <c r="A166" s="47"/>
       <c r="B166" s="1">
         <v>64</v>
       </c>
@@ -8082,7 +8098,7 @@
       </c>
     </row>
     <row r="167" spans="1:14">
-      <c r="A167" s="50"/>
+      <c r="A167" s="47"/>
       <c r="B167" s="1">
         <v>65</v>
       </c>
@@ -8124,7 +8140,7 @@
       </c>
     </row>
     <row r="168" spans="1:14">
-      <c r="A168" s="50"/>
+      <c r="A168" s="47"/>
       <c r="B168" s="1">
         <v>66</v>
       </c>
@@ -8166,7 +8182,7 @@
       </c>
     </row>
     <row r="169" spans="1:14">
-      <c r="A169" s="50"/>
+      <c r="A169" s="47"/>
       <c r="B169" s="1">
         <v>67</v>
       </c>
@@ -8208,7 +8224,7 @@
       </c>
     </row>
     <row r="170" spans="1:14">
-      <c r="A170" s="50"/>
+      <c r="A170" s="47"/>
       <c r="B170" s="1">
         <v>68</v>
       </c>
@@ -8250,7 +8266,7 @@
       </c>
     </row>
     <row r="171" spans="1:14">
-      <c r="A171" s="50"/>
+      <c r="A171" s="47"/>
       <c r="B171" s="1">
         <v>69</v>
       </c>
@@ -8292,7 +8308,7 @@
       </c>
     </row>
     <row r="172" spans="1:14">
-      <c r="A172" s="50"/>
+      <c r="A172" s="47"/>
       <c r="B172" s="1">
         <v>70</v>
       </c>
@@ -8334,7 +8350,7 @@
       </c>
     </row>
     <row r="173" spans="1:14">
-      <c r="A173" s="50"/>
+      <c r="A173" s="47"/>
       <c r="B173" s="1">
         <v>71</v>
       </c>
@@ -8376,7 +8392,7 @@
       </c>
     </row>
     <row r="174" spans="1:14">
-      <c r="A174" s="50"/>
+      <c r="A174" s="47"/>
       <c r="B174" s="1">
         <v>72</v>
       </c>
@@ -8418,7 +8434,7 @@
       </c>
     </row>
     <row r="175" spans="1:14">
-      <c r="A175" s="50"/>
+      <c r="A175" s="47"/>
       <c r="B175" s="1">
         <v>73</v>
       </c>
@@ -8460,7 +8476,7 @@
       </c>
     </row>
     <row r="176" spans="1:14">
-      <c r="A176" s="50"/>
+      <c r="A176" s="47"/>
       <c r="B176" s="1">
         <v>74</v>
       </c>
@@ -8502,7 +8518,7 @@
       </c>
     </row>
     <row r="177" spans="1:14">
-      <c r="A177" s="50"/>
+      <c r="A177" s="47"/>
       <c r="B177" s="1">
         <v>75</v>
       </c>
@@ -8544,7 +8560,7 @@
       </c>
     </row>
     <row r="178" spans="1:14">
-      <c r="A178" s="50"/>
+      <c r="A178" s="47"/>
       <c r="B178" s="1">
         <v>76</v>
       </c>
@@ -8586,7 +8602,7 @@
       </c>
     </row>
     <row r="179" spans="1:14">
-      <c r="A179" s="50"/>
+      <c r="A179" s="47"/>
       <c r="B179" s="1">
         <v>77</v>
       </c>
@@ -8628,7 +8644,7 @@
       </c>
     </row>
     <row r="180" spans="1:14">
-      <c r="A180" s="50"/>
+      <c r="A180" s="47"/>
       <c r="B180" s="1">
         <v>78</v>
       </c>
@@ -8670,7 +8686,7 @@
       </c>
     </row>
     <row r="181" spans="1:14">
-      <c r="A181" s="50"/>
+      <c r="A181" s="47"/>
       <c r="B181" s="1">
         <v>79</v>
       </c>
@@ -8712,7 +8728,7 @@
       </c>
     </row>
     <row r="182" spans="1:14">
-      <c r="A182" s="50"/>
+      <c r="A182" s="47"/>
       <c r="B182" s="1">
         <v>80</v>
       </c>
@@ -8754,7 +8770,7 @@
       </c>
     </row>
     <row r="183" spans="1:14">
-      <c r="A183" s="50"/>
+      <c r="A183" s="47"/>
       <c r="B183" s="1">
         <v>81</v>
       </c>
@@ -8796,7 +8812,7 @@
       </c>
     </row>
     <row r="184" spans="1:14">
-      <c r="A184" s="50"/>
+      <c r="A184" s="47"/>
       <c r="B184" s="1">
         <v>82</v>
       </c>
@@ -8838,7 +8854,7 @@
       </c>
     </row>
     <row r="185" spans="1:14">
-      <c r="A185" s="50"/>
+      <c r="A185" s="47"/>
       <c r="B185" s="1">
         <v>83</v>
       </c>
@@ -8880,7 +8896,7 @@
       </c>
     </row>
     <row r="186" spans="1:14">
-      <c r="A186" s="50"/>
+      <c r="A186" s="47"/>
       <c r="B186" s="1">
         <v>84</v>
       </c>
@@ -8922,7 +8938,7 @@
       </c>
     </row>
     <row r="187" spans="1:14">
-      <c r="A187" s="50"/>
+      <c r="A187" s="47"/>
       <c r="B187" s="1">
         <v>85</v>
       </c>
@@ -8964,7 +8980,7 @@
       </c>
     </row>
     <row r="188" spans="1:14">
-      <c r="A188" s="50"/>
+      <c r="A188" s="47"/>
       <c r="B188" s="1">
         <v>86</v>
       </c>
@@ -9006,7 +9022,7 @@
       </c>
     </row>
     <row r="189" spans="1:14">
-      <c r="A189" s="50"/>
+      <c r="A189" s="47"/>
       <c r="B189" s="1">
         <v>87</v>
       </c>
@@ -9048,7 +9064,7 @@
       </c>
     </row>
     <row r="190" spans="1:14">
-      <c r="A190" s="50"/>
+      <c r="A190" s="47"/>
       <c r="B190" s="1">
         <v>88</v>
       </c>
@@ -9090,7 +9106,7 @@
       </c>
     </row>
     <row r="191" spans="1:14">
-      <c r="A191" s="50"/>
+      <c r="A191" s="47"/>
       <c r="B191" s="1">
         <v>89</v>
       </c>
@@ -9132,7 +9148,7 @@
       </c>
     </row>
     <row r="192" spans="1:14">
-      <c r="A192" s="50"/>
+      <c r="A192" s="47"/>
       <c r="B192" s="1">
         <v>90</v>
       </c>
@@ -9174,7 +9190,7 @@
       </c>
     </row>
     <row r="193" spans="1:14">
-      <c r="A193" s="50"/>
+      <c r="A193" s="47"/>
       <c r="B193" s="1">
         <v>91</v>
       </c>
@@ -9216,7 +9232,7 @@
       </c>
     </row>
     <row r="194" spans="1:14">
-      <c r="A194" s="50"/>
+      <c r="A194" s="47"/>
       <c r="B194" s="1">
         <v>92</v>
       </c>
@@ -9258,7 +9274,7 @@
       </c>
     </row>
     <row r="195" spans="1:14">
-      <c r="A195" s="50"/>
+      <c r="A195" s="47"/>
       <c r="B195" s="1">
         <v>93</v>
       </c>
@@ -9300,7 +9316,7 @@
       </c>
     </row>
     <row r="196" spans="1:14">
-      <c r="A196" s="50"/>
+      <c r="A196" s="47"/>
       <c r="B196" s="1">
         <v>94</v>
       </c>
@@ -9342,7 +9358,7 @@
       </c>
     </row>
     <row r="197" spans="1:14">
-      <c r="A197" s="50"/>
+      <c r="A197" s="47"/>
       <c r="B197" s="1">
         <v>95</v>
       </c>
@@ -9384,7 +9400,7 @@
       </c>
     </row>
     <row r="198" spans="1:14">
-      <c r="A198" s="50"/>
+      <c r="A198" s="47"/>
       <c r="B198" s="1">
         <v>96</v>
       </c>
@@ -9426,7 +9442,7 @@
       </c>
     </row>
     <row r="199" spans="1:14">
-      <c r="A199" s="50"/>
+      <c r="A199" s="47"/>
       <c r="B199" s="1">
         <v>97</v>
       </c>
@@ -9468,7 +9484,7 @@
       </c>
     </row>
     <row r="200" spans="1:14">
-      <c r="A200" s="50"/>
+      <c r="A200" s="47"/>
       <c r="B200" s="1">
         <v>98</v>
       </c>
@@ -9510,7 +9526,7 @@
       </c>
     </row>
     <row r="201" spans="1:14">
-      <c r="A201" s="50"/>
+      <c r="A201" s="47"/>
       <c r="B201" s="1">
         <v>99</v>
       </c>
@@ -9552,7 +9568,7 @@
       </c>
     </row>
     <row r="202" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A202" s="51"/>
+      <c r="A202" s="48"/>
       <c r="B202" s="24">
         <v>100</v>
       </c>
@@ -9594,7 +9610,7 @@
       </c>
     </row>
     <row r="203" spans="1:14">
-      <c r="A203" s="56">
+      <c r="A203" s="46">
         <v>0.5</v>
       </c>
       <c r="B203" s="19">
@@ -9638,7 +9654,7 @@
       </c>
     </row>
     <row r="204" spans="1:14">
-      <c r="A204" s="50"/>
+      <c r="A204" s="47"/>
       <c r="B204" s="1">
         <v>2</v>
       </c>
@@ -9680,7 +9696,7 @@
       </c>
     </row>
     <row r="205" spans="1:14">
-      <c r="A205" s="50"/>
+      <c r="A205" s="47"/>
       <c r="B205" s="1">
         <v>3</v>
       </c>
@@ -9722,7 +9738,7 @@
       </c>
     </row>
     <row r="206" spans="1:14">
-      <c r="A206" s="50"/>
+      <c r="A206" s="47"/>
       <c r="B206" s="1">
         <v>4</v>
       </c>
@@ -9764,7 +9780,7 @@
       </c>
     </row>
     <row r="207" spans="1:14">
-      <c r="A207" s="50"/>
+      <c r="A207" s="47"/>
       <c r="B207" s="1">
         <v>5</v>
       </c>
@@ -9806,7 +9822,7 @@
       </c>
     </row>
     <row r="208" spans="1:14">
-      <c r="A208" s="50"/>
+      <c r="A208" s="47"/>
       <c r="B208" s="1">
         <v>6</v>
       </c>
@@ -9848,7 +9864,7 @@
       </c>
     </row>
     <row r="209" spans="1:14">
-      <c r="A209" s="50"/>
+      <c r="A209" s="47"/>
       <c r="B209" s="1">
         <v>7</v>
       </c>
@@ -9890,7 +9906,7 @@
       </c>
     </row>
     <row r="210" spans="1:14">
-      <c r="A210" s="50"/>
+      <c r="A210" s="47"/>
       <c r="B210" s="1">
         <v>8</v>
       </c>
@@ -9932,7 +9948,7 @@
       </c>
     </row>
     <row r="211" spans="1:14">
-      <c r="A211" s="50"/>
+      <c r="A211" s="47"/>
       <c r="B211" s="1">
         <v>9</v>
       </c>
@@ -9974,7 +9990,7 @@
       </c>
     </row>
     <row r="212" spans="1:14">
-      <c r="A212" s="50"/>
+      <c r="A212" s="47"/>
       <c r="B212" s="1">
         <v>10</v>
       </c>
@@ -10016,7 +10032,7 @@
       </c>
     </row>
     <row r="213" spans="1:14">
-      <c r="A213" s="50"/>
+      <c r="A213" s="47"/>
       <c r="B213" s="1">
         <v>11</v>
       </c>
@@ -10058,7 +10074,7 @@
       </c>
     </row>
     <row r="214" spans="1:14">
-      <c r="A214" s="50"/>
+      <c r="A214" s="47"/>
       <c r="B214" s="1">
         <v>12</v>
       </c>
@@ -10100,7 +10116,7 @@
       </c>
     </row>
     <row r="215" spans="1:14">
-      <c r="A215" s="50"/>
+      <c r="A215" s="47"/>
       <c r="B215" s="1">
         <v>13</v>
       </c>
@@ -10142,7 +10158,7 @@
       </c>
     </row>
     <row r="216" spans="1:14">
-      <c r="A216" s="50"/>
+      <c r="A216" s="47"/>
       <c r="B216" s="1">
         <v>14</v>
       </c>
@@ -10184,7 +10200,7 @@
       </c>
     </row>
     <row r="217" spans="1:14">
-      <c r="A217" s="50"/>
+      <c r="A217" s="47"/>
       <c r="B217" s="1">
         <v>15</v>
       </c>
@@ -10226,7 +10242,7 @@
       </c>
     </row>
     <row r="218" spans="1:14">
-      <c r="A218" s="50"/>
+      <c r="A218" s="47"/>
       <c r="B218" s="1">
         <v>16</v>
       </c>
@@ -10268,7 +10284,7 @@
       </c>
     </row>
     <row r="219" spans="1:14">
-      <c r="A219" s="50"/>
+      <c r="A219" s="47"/>
       <c r="B219" s="1">
         <v>17</v>
       </c>
@@ -10310,7 +10326,7 @@
       </c>
     </row>
     <row r="220" spans="1:14">
-      <c r="A220" s="50"/>
+      <c r="A220" s="47"/>
       <c r="B220" s="1">
         <v>18</v>
       </c>
@@ -10352,7 +10368,7 @@
       </c>
     </row>
     <row r="221" spans="1:14">
-      <c r="A221" s="50"/>
+      <c r="A221" s="47"/>
       <c r="B221" s="1">
         <v>19</v>
       </c>
@@ -10394,7 +10410,7 @@
       </c>
     </row>
     <row r="222" spans="1:14">
-      <c r="A222" s="50"/>
+      <c r="A222" s="47"/>
       <c r="B222" s="1">
         <v>20</v>
       </c>
@@ -10436,7 +10452,7 @@
       </c>
     </row>
     <row r="223" spans="1:14">
-      <c r="A223" s="50"/>
+      <c r="A223" s="47"/>
       <c r="B223" s="1">
         <v>21</v>
       </c>
@@ -10478,7 +10494,7 @@
       </c>
     </row>
     <row r="224" spans="1:14">
-      <c r="A224" s="50"/>
+      <c r="A224" s="47"/>
       <c r="B224" s="1">
         <v>22</v>
       </c>
@@ -10520,7 +10536,7 @@
       </c>
     </row>
     <row r="225" spans="1:14">
-      <c r="A225" s="50"/>
+      <c r="A225" s="47"/>
       <c r="B225" s="1">
         <v>23</v>
       </c>
@@ -10562,7 +10578,7 @@
       </c>
     </row>
     <row r="226" spans="1:14">
-      <c r="A226" s="50"/>
+      <c r="A226" s="47"/>
       <c r="B226" s="1">
         <v>24</v>
       </c>
@@ -10604,7 +10620,7 @@
       </c>
     </row>
     <row r="227" spans="1:14">
-      <c r="A227" s="50"/>
+      <c r="A227" s="47"/>
       <c r="B227" s="1">
         <v>25</v>
       </c>
@@ -10646,7 +10662,7 @@
       </c>
     </row>
     <row r="228" spans="1:14">
-      <c r="A228" s="50"/>
+      <c r="A228" s="47"/>
       <c r="B228" s="1">
         <v>26</v>
       </c>
@@ -10688,7 +10704,7 @@
       </c>
     </row>
     <row r="229" spans="1:14">
-      <c r="A229" s="50"/>
+      <c r="A229" s="47"/>
       <c r="B229" s="1">
         <v>27</v>
       </c>
@@ -10730,7 +10746,7 @@
       </c>
     </row>
     <row r="230" spans="1:14">
-      <c r="A230" s="50"/>
+      <c r="A230" s="47"/>
       <c r="B230" s="1">
         <v>28</v>
       </c>
@@ -10772,7 +10788,7 @@
       </c>
     </row>
     <row r="231" spans="1:14">
-      <c r="A231" s="50"/>
+      <c r="A231" s="47"/>
       <c r="B231" s="1">
         <v>29</v>
       </c>
@@ -10814,7 +10830,7 @@
       </c>
     </row>
     <row r="232" spans="1:14">
-      <c r="A232" s="50"/>
+      <c r="A232" s="47"/>
       <c r="B232" s="1">
         <v>30</v>
       </c>
@@ -10856,7 +10872,7 @@
       </c>
     </row>
     <row r="233" spans="1:14">
-      <c r="A233" s="50"/>
+      <c r="A233" s="47"/>
       <c r="B233" s="1">
         <v>31</v>
       </c>
@@ -10898,7 +10914,7 @@
       </c>
     </row>
     <row r="234" spans="1:14">
-      <c r="A234" s="50"/>
+      <c r="A234" s="47"/>
       <c r="B234" s="1">
         <v>32</v>
       </c>
@@ -10940,7 +10956,7 @@
       </c>
     </row>
     <row r="235" spans="1:14">
-      <c r="A235" s="50"/>
+      <c r="A235" s="47"/>
       <c r="B235" s="1">
         <v>33</v>
       </c>
@@ -10982,7 +10998,7 @@
       </c>
     </row>
     <row r="236" spans="1:14">
-      <c r="A236" s="50"/>
+      <c r="A236" s="47"/>
       <c r="B236" s="1">
         <v>34</v>
       </c>
@@ -11024,7 +11040,7 @@
       </c>
     </row>
     <row r="237" spans="1:14">
-      <c r="A237" s="50"/>
+      <c r="A237" s="47"/>
       <c r="B237" s="1">
         <v>35</v>
       </c>
@@ -11066,7 +11082,7 @@
       </c>
     </row>
     <row r="238" spans="1:14">
-      <c r="A238" s="50"/>
+      <c r="A238" s="47"/>
       <c r="B238" s="1">
         <v>36</v>
       </c>
@@ -11108,7 +11124,7 @@
       </c>
     </row>
     <row r="239" spans="1:14">
-      <c r="A239" s="50"/>
+      <c r="A239" s="47"/>
       <c r="B239" s="1">
         <v>37</v>
       </c>
@@ -11150,7 +11166,7 @@
       </c>
     </row>
     <row r="240" spans="1:14">
-      <c r="A240" s="50"/>
+      <c r="A240" s="47"/>
       <c r="B240" s="1">
         <v>38</v>
       </c>
@@ -11192,7 +11208,7 @@
       </c>
     </row>
     <row r="241" spans="1:14">
-      <c r="A241" s="50"/>
+      <c r="A241" s="47"/>
       <c r="B241" s="1">
         <v>39</v>
       </c>
@@ -11234,7 +11250,7 @@
       </c>
     </row>
     <row r="242" spans="1:14">
-      <c r="A242" s="50"/>
+      <c r="A242" s="47"/>
       <c r="B242" s="1">
         <v>40</v>
       </c>
@@ -11276,7 +11292,7 @@
       </c>
     </row>
     <row r="243" spans="1:14">
-      <c r="A243" s="50"/>
+      <c r="A243" s="47"/>
       <c r="B243" s="1">
         <v>41</v>
       </c>
@@ -11318,7 +11334,7 @@
       </c>
     </row>
     <row r="244" spans="1:14">
-      <c r="A244" s="50"/>
+      <c r="A244" s="47"/>
       <c r="B244" s="1">
         <v>42</v>
       </c>
@@ -11360,7 +11376,7 @@
       </c>
     </row>
     <row r="245" spans="1:14">
-      <c r="A245" s="50"/>
+      <c r="A245" s="47"/>
       <c r="B245" s="1">
         <v>43</v>
       </c>
@@ -11402,7 +11418,7 @@
       </c>
     </row>
     <row r="246" spans="1:14">
-      <c r="A246" s="50"/>
+      <c r="A246" s="47"/>
       <c r="B246" s="1">
         <v>44</v>
       </c>
@@ -11444,7 +11460,7 @@
       </c>
     </row>
     <row r="247" spans="1:14">
-      <c r="A247" s="50"/>
+      <c r="A247" s="47"/>
       <c r="B247" s="1">
         <v>45</v>
       </c>
@@ -11486,7 +11502,7 @@
       </c>
     </row>
     <row r="248" spans="1:14">
-      <c r="A248" s="50"/>
+      <c r="A248" s="47"/>
       <c r="B248" s="1">
         <v>46</v>
       </c>
@@ -11528,7 +11544,7 @@
       </c>
     </row>
     <row r="249" spans="1:14">
-      <c r="A249" s="50"/>
+      <c r="A249" s="47"/>
       <c r="B249" s="1">
         <v>47</v>
       </c>
@@ -11570,7 +11586,7 @@
       </c>
     </row>
     <row r="250" spans="1:14">
-      <c r="A250" s="50"/>
+      <c r="A250" s="47"/>
       <c r="B250" s="1">
         <v>48</v>
       </c>
@@ -11612,7 +11628,7 @@
       </c>
     </row>
     <row r="251" spans="1:14">
-      <c r="A251" s="50"/>
+      <c r="A251" s="47"/>
       <c r="B251" s="1">
         <v>49</v>
       </c>
@@ -11654,7 +11670,7 @@
       </c>
     </row>
     <row r="252" spans="1:14">
-      <c r="A252" s="50"/>
+      <c r="A252" s="47"/>
       <c r="B252" s="1">
         <v>50</v>
       </c>
@@ -11696,7 +11712,7 @@
       </c>
     </row>
     <row r="253" spans="1:14">
-      <c r="A253" s="50"/>
+      <c r="A253" s="47"/>
       <c r="B253" s="1">
         <v>51</v>
       </c>
@@ -11738,7 +11754,7 @@
       </c>
     </row>
     <row r="254" spans="1:14">
-      <c r="A254" s="50"/>
+      <c r="A254" s="47"/>
       <c r="B254" s="1">
         <v>52</v>
       </c>
@@ -11780,7 +11796,7 @@
       </c>
     </row>
     <row r="255" spans="1:14">
-      <c r="A255" s="50"/>
+      <c r="A255" s="47"/>
       <c r="B255" s="1">
         <v>53</v>
       </c>
@@ -11822,7 +11838,7 @@
       </c>
     </row>
     <row r="256" spans="1:14">
-      <c r="A256" s="50"/>
+      <c r="A256" s="47"/>
       <c r="B256" s="1">
         <v>54</v>
       </c>
@@ -11864,7 +11880,7 @@
       </c>
     </row>
     <row r="257" spans="1:14">
-      <c r="A257" s="50"/>
+      <c r="A257" s="47"/>
       <c r="B257" s="1">
         <v>55</v>
       </c>
@@ -11906,7 +11922,7 @@
       </c>
     </row>
     <row r="258" spans="1:14">
-      <c r="A258" s="50"/>
+      <c r="A258" s="47"/>
       <c r="B258" s="1">
         <v>56</v>
       </c>
@@ -11948,7 +11964,7 @@
       </c>
     </row>
     <row r="259" spans="1:14">
-      <c r="A259" s="50"/>
+      <c r="A259" s="47"/>
       <c r="B259" s="1">
         <v>57</v>
       </c>
@@ -11990,7 +12006,7 @@
       </c>
     </row>
     <row r="260" spans="1:14">
-      <c r="A260" s="50"/>
+      <c r="A260" s="47"/>
       <c r="B260" s="1">
         <v>58</v>
       </c>
@@ -12032,7 +12048,7 @@
       </c>
     </row>
     <row r="261" spans="1:14">
-      <c r="A261" s="50"/>
+      <c r="A261" s="47"/>
       <c r="B261" s="1">
         <v>59</v>
       </c>
@@ -12074,7 +12090,7 @@
       </c>
     </row>
     <row r="262" spans="1:14">
-      <c r="A262" s="50"/>
+      <c r="A262" s="47"/>
       <c r="B262" s="1">
         <v>60</v>
       </c>
@@ -12116,7 +12132,7 @@
       </c>
     </row>
     <row r="263" spans="1:14">
-      <c r="A263" s="50"/>
+      <c r="A263" s="47"/>
       <c r="B263" s="1">
         <v>61</v>
       </c>
@@ -12158,7 +12174,7 @@
       </c>
     </row>
     <row r="264" spans="1:14">
-      <c r="A264" s="50"/>
+      <c r="A264" s="47"/>
       <c r="B264" s="1">
         <v>62</v>
       </c>
@@ -12200,7 +12216,7 @@
       </c>
     </row>
     <row r="265" spans="1:14">
-      <c r="A265" s="50"/>
+      <c r="A265" s="47"/>
       <c r="B265" s="1">
         <v>63</v>
       </c>
@@ -12242,7 +12258,7 @@
       </c>
     </row>
     <row r="266" spans="1:14">
-      <c r="A266" s="50"/>
+      <c r="A266" s="47"/>
       <c r="B266" s="1">
         <v>64</v>
       </c>
@@ -12284,7 +12300,7 @@
       </c>
     </row>
     <row r="267" spans="1:14">
-      <c r="A267" s="50"/>
+      <c r="A267" s="47"/>
       <c r="B267" s="1">
         <v>65</v>
       </c>
@@ -12326,7 +12342,7 @@
       </c>
     </row>
     <row r="268" spans="1:14">
-      <c r="A268" s="50"/>
+      <c r="A268" s="47"/>
       <c r="B268" s="1">
         <v>66</v>
       </c>
@@ -12368,7 +12384,7 @@
       </c>
     </row>
     <row r="269" spans="1:14">
-      <c r="A269" s="50"/>
+      <c r="A269" s="47"/>
       <c r="B269" s="1">
         <v>67</v>
       </c>
@@ -12410,7 +12426,7 @@
       </c>
     </row>
     <row r="270" spans="1:14">
-      <c r="A270" s="50"/>
+      <c r="A270" s="47"/>
       <c r="B270" s="1">
         <v>68</v>
       </c>
@@ -12452,7 +12468,7 @@
       </c>
     </row>
     <row r="271" spans="1:14">
-      <c r="A271" s="50"/>
+      <c r="A271" s="47"/>
       <c r="B271" s="1">
         <v>69</v>
       </c>
@@ -12494,7 +12510,7 @@
       </c>
     </row>
     <row r="272" spans="1:14">
-      <c r="A272" s="50"/>
+      <c r="A272" s="47"/>
       <c r="B272" s="1">
         <v>70</v>
       </c>
@@ -12536,7 +12552,7 @@
       </c>
     </row>
     <row r="273" spans="1:14">
-      <c r="A273" s="50"/>
+      <c r="A273" s="47"/>
       <c r="B273" s="1">
         <v>71</v>
       </c>
@@ -12578,7 +12594,7 @@
       </c>
     </row>
     <row r="274" spans="1:14">
-      <c r="A274" s="50"/>
+      <c r="A274" s="47"/>
       <c r="B274" s="1">
         <v>72</v>
       </c>
@@ -12620,7 +12636,7 @@
       </c>
     </row>
     <row r="275" spans="1:14">
-      <c r="A275" s="50"/>
+      <c r="A275" s="47"/>
       <c r="B275" s="1">
         <v>73</v>
       </c>
@@ -12662,7 +12678,7 @@
       </c>
     </row>
     <row r="276" spans="1:14">
-      <c r="A276" s="50"/>
+      <c r="A276" s="47"/>
       <c r="B276" s="1">
         <v>74</v>
       </c>
@@ -12704,7 +12720,7 @@
       </c>
     </row>
     <row r="277" spans="1:14">
-      <c r="A277" s="50"/>
+      <c r="A277" s="47"/>
       <c r="B277" s="1">
         <v>75</v>
       </c>
@@ -12746,7 +12762,7 @@
       </c>
     </row>
     <row r="278" spans="1:14">
-      <c r="A278" s="50"/>
+      <c r="A278" s="47"/>
       <c r="B278" s="1">
         <v>76</v>
       </c>
@@ -12788,7 +12804,7 @@
       </c>
     </row>
     <row r="279" spans="1:14">
-      <c r="A279" s="50"/>
+      <c r="A279" s="47"/>
       <c r="B279" s="1">
         <v>77</v>
       </c>
@@ -12830,7 +12846,7 @@
       </c>
     </row>
     <row r="280" spans="1:14">
-      <c r="A280" s="50"/>
+      <c r="A280" s="47"/>
       <c r="B280" s="1">
         <v>78</v>
       </c>
@@ -12872,7 +12888,7 @@
       </c>
     </row>
     <row r="281" spans="1:14">
-      <c r="A281" s="50"/>
+      <c r="A281" s="47"/>
       <c r="B281" s="1">
         <v>79</v>
       </c>
@@ -12914,7 +12930,7 @@
       </c>
     </row>
     <row r="282" spans="1:14">
-      <c r="A282" s="50"/>
+      <c r="A282" s="47"/>
       <c r="B282" s="1">
         <v>80</v>
       </c>
@@ -12956,7 +12972,7 @@
       </c>
     </row>
     <row r="283" spans="1:14">
-      <c r="A283" s="50"/>
+      <c r="A283" s="47"/>
       <c r="B283" s="1">
         <v>81</v>
       </c>
@@ -12998,7 +13014,7 @@
       </c>
     </row>
     <row r="284" spans="1:14">
-      <c r="A284" s="50"/>
+      <c r="A284" s="47"/>
       <c r="B284" s="1">
         <v>82</v>
       </c>
@@ -13040,7 +13056,7 @@
       </c>
     </row>
     <row r="285" spans="1:14">
-      <c r="A285" s="50"/>
+      <c r="A285" s="47"/>
       <c r="B285" s="1">
         <v>83</v>
       </c>
@@ -13082,7 +13098,7 @@
       </c>
     </row>
     <row r="286" spans="1:14">
-      <c r="A286" s="50"/>
+      <c r="A286" s="47"/>
       <c r="B286" s="1">
         <v>84</v>
       </c>
@@ -13124,7 +13140,7 @@
       </c>
     </row>
     <row r="287" spans="1:14">
-      <c r="A287" s="50"/>
+      <c r="A287" s="47"/>
       <c r="B287" s="1">
         <v>85</v>
       </c>
@@ -13166,7 +13182,7 @@
       </c>
     </row>
     <row r="288" spans="1:14">
-      <c r="A288" s="50"/>
+      <c r="A288" s="47"/>
       <c r="B288" s="1">
         <v>86</v>
       </c>
@@ -13208,7 +13224,7 @@
       </c>
     </row>
     <row r="289" spans="1:14">
-      <c r="A289" s="50"/>
+      <c r="A289" s="47"/>
       <c r="B289" s="1">
         <v>87</v>
       </c>
@@ -13250,7 +13266,7 @@
       </c>
     </row>
     <row r="290" spans="1:14">
-      <c r="A290" s="50"/>
+      <c r="A290" s="47"/>
       <c r="B290" s="1">
         <v>88</v>
       </c>
@@ -13292,7 +13308,7 @@
       </c>
     </row>
     <row r="291" spans="1:14">
-      <c r="A291" s="50"/>
+      <c r="A291" s="47"/>
       <c r="B291" s="1">
         <v>89</v>
       </c>
@@ -13334,7 +13350,7 @@
       </c>
     </row>
     <row r="292" spans="1:14">
-      <c r="A292" s="50"/>
+      <c r="A292" s="47"/>
       <c r="B292" s="1">
         <v>90</v>
       </c>
@@ -13376,7 +13392,7 @@
       </c>
     </row>
     <row r="293" spans="1:14">
-      <c r="A293" s="50"/>
+      <c r="A293" s="47"/>
       <c r="B293" s="1">
         <v>91</v>
       </c>
@@ -13418,7 +13434,7 @@
       </c>
     </row>
     <row r="294" spans="1:14">
-      <c r="A294" s="50"/>
+      <c r="A294" s="47"/>
       <c r="B294" s="1">
         <v>92</v>
       </c>
@@ -13460,7 +13476,7 @@
       </c>
     </row>
     <row r="295" spans="1:14">
-      <c r="A295" s="50"/>
+      <c r="A295" s="47"/>
       <c r="B295" s="1">
         <v>93</v>
       </c>
@@ -13502,7 +13518,7 @@
       </c>
     </row>
     <row r="296" spans="1:14">
-      <c r="A296" s="50"/>
+      <c r="A296" s="47"/>
       <c r="B296" s="1">
         <v>94</v>
       </c>
@@ -13544,7 +13560,7 @@
       </c>
     </row>
     <row r="297" spans="1:14">
-      <c r="A297" s="50"/>
+      <c r="A297" s="47"/>
       <c r="B297" s="1">
         <v>95</v>
       </c>
@@ -13586,7 +13602,7 @@
       </c>
     </row>
     <row r="298" spans="1:14">
-      <c r="A298" s="50"/>
+      <c r="A298" s="47"/>
       <c r="B298" s="1">
         <v>96</v>
       </c>
@@ -13628,7 +13644,7 @@
       </c>
     </row>
     <row r="299" spans="1:14">
-      <c r="A299" s="50"/>
+      <c r="A299" s="47"/>
       <c r="B299" s="1">
         <v>97</v>
       </c>
@@ -13670,7 +13686,7 @@
       </c>
     </row>
     <row r="300" spans="1:14">
-      <c r="A300" s="50"/>
+      <c r="A300" s="47"/>
       <c r="B300" s="1">
         <v>98</v>
       </c>
@@ -13712,7 +13728,7 @@
       </c>
     </row>
     <row r="301" spans="1:14">
-      <c r="A301" s="50"/>
+      <c r="A301" s="47"/>
       <c r="B301" s="1">
         <v>99</v>
       </c>
@@ -13754,7 +13770,7 @@
       </c>
     </row>
     <row r="302" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A302" s="51"/>
+      <c r="A302" s="48"/>
       <c r="B302" s="3">
         <v>100</v>
       </c>
@@ -13797,15 +13813,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
     <mergeCell ref="A203:A302"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="A103:A202"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="A3:A102"/>
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -13816,8 +13832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13829,20 +13845,20 @@
       <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="46" t="s">
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="48"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="52"/>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A2" s="59"/>
@@ -13878,43 +13894,139 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="31"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="6"/>
+      <c r="A3" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="B3" s="13">
+        <f>AVERAGEIFS('Tabela 1'!E3:E102,'Tabela 1'!$I$3:$I$102, "Globalne")</f>
+        <v>6.3593859809689394E-8</v>
+      </c>
+      <c r="C3" s="13">
+        <f>AVERAGEIFS('Tabela 1'!F3:F102,'Tabela 1'!$I$3:$I$102, "Globalne")</f>
+        <v>8.7616905497071831E-8</v>
+      </c>
+      <c r="D3" s="13">
+        <f>AVERAGEIFS('Tabela 1'!G3:G102,'Tabela 1'!$I$3:$I$102, "Globalne")</f>
+        <v>1.2085021872110246E-11</v>
+      </c>
+      <c r="E3" s="66">
+        <f>AVERAGEIFS('Tabela 1'!H3:H102,'Tabela 1'!I3:I102, "Globalne")</f>
+        <v>30.6</v>
+      </c>
+      <c r="F3" s="6">
+        <f>COUNTIF('Tabela 1'!I3:I102, "Globalne")</f>
+        <v>20</v>
+      </c>
+      <c r="G3" s="13">
+        <f>AVERAGEIFS('Tabela 1'!J3:J102,'Tabela 1'!$N$3:$N$102, "Globalne")</f>
+        <v>4.5712466393281688E-8</v>
+      </c>
+      <c r="H3" s="13">
+        <f>AVERAGEIFS('Tabela 1'!K3:K102,'Tabela 1'!$N$3:$N$102, "Globalne")</f>
+        <v>-1.2338353700160219E-7</v>
+      </c>
+      <c r="I3" s="13">
+        <f>AVERAGEIFS('Tabela 1'!L3:L102,'Tabela 1'!$N$3:$N$102, "Globalne")</f>
+        <v>1.6500933952556808E-11</v>
+      </c>
+      <c r="J3" s="66">
+        <f>AVERAGEIFS('Tabela 1'!M3:M102,'Tabela 1'!$N$3:$N$102, "Globalne")</f>
+        <v>218.8</v>
+      </c>
+      <c r="K3" s="6">
+        <f>COUNTIF('Tabela 1'!N3:N102, "Globalne")</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="29"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="2"/>
+      <c r="A4" s="29">
+        <v>0.3</v>
+      </c>
+      <c r="B4" s="14">
+        <f>AVERAGEIFS('Tabela 1'!E103:E202,'Tabela 1'!$I$103:$I$202, "Globalne")</f>
+        <v>4.483964696441786E-8</v>
+      </c>
+      <c r="C4" s="14">
+        <f>AVERAGEIFS('Tabela 1'!F103:F202,'Tabela 1'!$I$103:$I$202, "Globalne")</f>
+        <v>-1.662134832174325E-8</v>
+      </c>
+      <c r="D4" s="14">
+        <f>AVERAGEIFS('Tabela 1'!G103:G202,'Tabela 1'!$I$103:$I$202, "Globalne")</f>
+        <v>8.6994048328651009E-12</v>
+      </c>
+      <c r="E4" s="67">
+        <f>AVERAGEIFS('Tabela 1'!H103:H202,'Tabela 1'!I103:I202, "Globalne")</f>
+        <v>32.954545454545453</v>
+      </c>
+      <c r="F4" s="2">
+        <f>COUNTIF('Tabela 1'!I103:I202, "Globalne")</f>
+        <v>22</v>
+      </c>
+      <c r="G4" s="14">
+        <f>AVERAGEIFS('Tabela 1'!J103:J202,'Tabela 1'!$N$103:$N$202, "Globalne")</f>
+        <v>1.7419236966184133E-7</v>
+      </c>
+      <c r="H4" s="14">
+        <f>AVERAGEIFS('Tabela 1'!K103:K202,'Tabela 1'!$N$103:$N$202, "Globalne")</f>
+        <v>1.1359287792591025E-7</v>
+      </c>
+      <c r="I4" s="14">
+        <f>AVERAGEIFS('Tabela 1'!L103:L202,'Tabela 1'!$N$103:$N$202, "Globalne")</f>
+        <v>1.7149948128292181E-11</v>
+      </c>
+      <c r="J4" s="67">
+        <f>AVERAGEIFS('Tabela 1'!M103:M202,'Tabela 1'!$N$103:$N$202, "Globalne")</f>
+        <v>233.11111111111111</v>
+      </c>
+      <c r="K4" s="2">
+        <f>COUNTIF('Tabela 1'!N103:N202, "Globalne")</f>
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="30"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="4"/>
+      <c r="A5" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="B5" s="15">
+        <f>AVERAGEIFS('Tabela 1'!E203:E302,'Tabela 1'!$I$203:$I$302, "Globalne")</f>
+        <v>-2.6097777785581939E-8</v>
+      </c>
+      <c r="C5" s="15">
+        <f>AVERAGEIFS('Tabela 1'!F203:F302,'Tabela 1'!$I$203:$I$302, "Globalne")</f>
+        <v>-6.4280976664160358E-8</v>
+      </c>
+      <c r="D5" s="15">
+        <f>AVERAGEIFS('Tabela 1'!G203:G302,'Tabela 1'!$I$203:$I$302, "Globalne")</f>
+        <v>1.7919045557713115E-11</v>
+      </c>
+      <c r="E5" s="68">
+        <f>AVERAGEIFS('Tabela 1'!H203:H302,'Tabela 1'!I203:I302, "Globalne")</f>
+        <v>33.620689655172413</v>
+      </c>
+      <c r="F5" s="4">
+        <f>COUNTIF('Tabela 1'!I203:I302, "Globalne")</f>
+        <v>29</v>
+      </c>
+      <c r="G5" s="15">
+        <f>AVERAGEIFS('Tabela 1'!J203:J302,'Tabela 1'!$N$203:$N$302, "Globalne")</f>
+        <v>-1.4755961521490373E-7</v>
+      </c>
+      <c r="H5" s="15">
+        <f>AVERAGEIFS('Tabela 1'!K203:K302,'Tabela 1'!$N$203:$N$302, "Globalne")</f>
+        <v>1.0335276488401379E-7</v>
+      </c>
+      <c r="I5" s="15">
+        <f>AVERAGEIFS('Tabela 1'!L203:L302,'Tabela 1'!$N$203:$N$302, "Globalne")</f>
+        <v>2.6865341492650932E-11</v>
+      </c>
+      <c r="J5" s="68">
+        <f>AVERAGEIFS('Tabela 1'!M203:M302,'Tabela 1'!$N$203:$N$302, "Globalne")</f>
+        <v>247.09677419354838</v>
+      </c>
+      <c r="K5" s="4">
+        <f>COUNTIF('Tabela 1'!N203:N302, "Globalne")</f>
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -13923,7 +14035,7 @@
     <mergeCell ref="G1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14086,18 +14198,18 @@
       <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="46" t="s">
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:9" ht="30.75" customHeight="1" thickBot="1">
       <c r="A2" s="59"/>
@@ -14164,14 +14276,14 @@
       <c r="A1" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="56" t="s">
+      <c r="C1" s="52"/>
+      <c r="D1" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="48"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A2" s="59"/>

--- a/lab2/xlsx2.xlsx
+++ b/lab2/xlsx2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\agh\Optymalizacja\lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0015F68-4F28-4E20-9D1A-589C3B06C357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63000080-2932-475C-A955-28AD72FCD7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="2730" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela 1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="23">
   <si>
     <t>Długość kroku</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>Nr iteracji</t>
-  </si>
-  <si>
-    <t>…</t>
   </si>
   <si>
     <t>k1*</t>
@@ -714,7 +711,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -761,9 +758,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
@@ -779,14 +773,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -795,14 +785,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -821,9 +819,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1142,38 +1138,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="50" t="s">
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="52"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="51"/>
     </row>
     <row r="2" spans="1:14" ht="45" customHeight="1" thickBot="1">
-      <c r="A2" s="48"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="55"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="32" t="s">
         <v>6</v>
       </c>
@@ -1206,7 +1202,7 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="53">
+      <c r="A3" s="52">
         <v>0.1</v>
       </c>
       <c r="B3" s="5">
@@ -1250,7 +1246,7 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="47"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -1292,7 +1288,7 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="47"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -1334,7 +1330,7 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="47"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -1376,7 +1372,7 @@
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="47"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -1418,7 +1414,7 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="47"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -1460,7 +1456,7 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="47"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -1502,7 +1498,7 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="47"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -1544,7 +1540,7 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="47"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -1586,7 +1582,7 @@
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="47"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -1628,7 +1624,7 @@
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="47"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="1">
         <v>11</v>
       </c>
@@ -1670,7 +1666,7 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="47"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="1">
         <v>12</v>
       </c>
@@ -1712,7 +1708,7 @@
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="47"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="1">
         <v>13</v>
       </c>
@@ -1754,7 +1750,7 @@
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="47"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="1">
         <v>14</v>
       </c>
@@ -1796,7 +1792,7 @@
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="47"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="1">
         <v>15</v>
       </c>
@@ -1838,7 +1834,7 @@
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="47"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="1">
         <v>16</v>
       </c>
@@ -1880,7 +1876,7 @@
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="47"/>
+      <c r="A19" s="53"/>
       <c r="B19" s="1">
         <v>17</v>
       </c>
@@ -1922,7 +1918,7 @@
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="47"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="1">
         <v>18</v>
       </c>
@@ -1964,7 +1960,7 @@
       </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="47"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="1">
         <v>19</v>
       </c>
@@ -2006,7 +2002,7 @@
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="47"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="1">
         <v>20</v>
       </c>
@@ -2048,7 +2044,7 @@
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="47"/>
+      <c r="A23" s="53"/>
       <c r="B23" s="1">
         <v>21</v>
       </c>
@@ -2090,7 +2086,7 @@
       </c>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="47"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="1">
         <v>22</v>
       </c>
@@ -2132,7 +2128,7 @@
       </c>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="47"/>
+      <c r="A25" s="53"/>
       <c r="B25" s="1">
         <v>23</v>
       </c>
@@ -2174,7 +2170,7 @@
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="47"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="1">
         <v>24</v>
       </c>
@@ -2216,7 +2212,7 @@
       </c>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="47"/>
+      <c r="A27" s="53"/>
       <c r="B27" s="1">
         <v>25</v>
       </c>
@@ -2258,7 +2254,7 @@
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="47"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="1">
         <v>26</v>
       </c>
@@ -2300,7 +2296,7 @@
       </c>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="47"/>
+      <c r="A29" s="53"/>
       <c r="B29" s="1">
         <v>27</v>
       </c>
@@ -2342,7 +2338,7 @@
       </c>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="47"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="1">
         <v>28</v>
       </c>
@@ -2384,7 +2380,7 @@
       </c>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="47"/>
+      <c r="A31" s="53"/>
       <c r="B31" s="1">
         <v>29</v>
       </c>
@@ -2426,7 +2422,7 @@
       </c>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="47"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="1">
         <v>30</v>
       </c>
@@ -2468,7 +2464,7 @@
       </c>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="47"/>
+      <c r="A33" s="53"/>
       <c r="B33" s="1">
         <v>31</v>
       </c>
@@ -2510,7 +2506,7 @@
       </c>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="47"/>
+      <c r="A34" s="53"/>
       <c r="B34" s="1">
         <v>32</v>
       </c>
@@ -2552,7 +2548,7 @@
       </c>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="47"/>
+      <c r="A35" s="53"/>
       <c r="B35" s="1">
         <v>33</v>
       </c>
@@ -2594,7 +2590,7 @@
       </c>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="47"/>
+      <c r="A36" s="53"/>
       <c r="B36" s="1">
         <v>34</v>
       </c>
@@ -2636,7 +2632,7 @@
       </c>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="47"/>
+      <c r="A37" s="53"/>
       <c r="B37" s="1">
         <v>35</v>
       </c>
@@ -2678,7 +2674,7 @@
       </c>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="47"/>
+      <c r="A38" s="53"/>
       <c r="B38" s="1">
         <v>36</v>
       </c>
@@ -2720,7 +2716,7 @@
       </c>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="47"/>
+      <c r="A39" s="53"/>
       <c r="B39" s="1">
         <v>37</v>
       </c>
@@ -2762,7 +2758,7 @@
       </c>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="47"/>
+      <c r="A40" s="53"/>
       <c r="B40" s="1">
         <v>38</v>
       </c>
@@ -2804,7 +2800,7 @@
       </c>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="47"/>
+      <c r="A41" s="53"/>
       <c r="B41" s="1">
         <v>39</v>
       </c>
@@ -2846,7 +2842,7 @@
       </c>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="47"/>
+      <c r="A42" s="53"/>
       <c r="B42" s="1">
         <v>40</v>
       </c>
@@ -2888,7 +2884,7 @@
       </c>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="47"/>
+      <c r="A43" s="53"/>
       <c r="B43" s="1">
         <v>41</v>
       </c>
@@ -2930,7 +2926,7 @@
       </c>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="47"/>
+      <c r="A44" s="53"/>
       <c r="B44" s="1">
         <v>42</v>
       </c>
@@ -2972,7 +2968,7 @@
       </c>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="47"/>
+      <c r="A45" s="53"/>
       <c r="B45" s="1">
         <v>43</v>
       </c>
@@ -3014,7 +3010,7 @@
       </c>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="47"/>
+      <c r="A46" s="53"/>
       <c r="B46" s="1">
         <v>44</v>
       </c>
@@ -3056,7 +3052,7 @@
       </c>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="47"/>
+      <c r="A47" s="53"/>
       <c r="B47" s="1">
         <v>45</v>
       </c>
@@ -3098,7 +3094,7 @@
       </c>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="47"/>
+      <c r="A48" s="53"/>
       <c r="B48" s="1">
         <v>46</v>
       </c>
@@ -3140,7 +3136,7 @@
       </c>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="47"/>
+      <c r="A49" s="53"/>
       <c r="B49" s="1">
         <v>47</v>
       </c>
@@ -3182,7 +3178,7 @@
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="47"/>
+      <c r="A50" s="53"/>
       <c r="B50" s="1">
         <v>48</v>
       </c>
@@ -3224,7 +3220,7 @@
       </c>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="47"/>
+      <c r="A51" s="53"/>
       <c r="B51" s="1">
         <v>49</v>
       </c>
@@ -3266,7 +3262,7 @@
       </c>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="47"/>
+      <c r="A52" s="53"/>
       <c r="B52" s="1">
         <v>50</v>
       </c>
@@ -3308,7 +3304,7 @@
       </c>
     </row>
     <row r="53" spans="1:14">
-      <c r="A53" s="47"/>
+      <c r="A53" s="53"/>
       <c r="B53" s="1">
         <v>51</v>
       </c>
@@ -3350,7 +3346,7 @@
       </c>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="47"/>
+      <c r="A54" s="53"/>
       <c r="B54" s="1">
         <v>52</v>
       </c>
@@ -3392,7 +3388,7 @@
       </c>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="47"/>
+      <c r="A55" s="53"/>
       <c r="B55" s="1">
         <v>53</v>
       </c>
@@ -3434,7 +3430,7 @@
       </c>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="47"/>
+      <c r="A56" s="53"/>
       <c r="B56" s="1">
         <v>54</v>
       </c>
@@ -3476,7 +3472,7 @@
       </c>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="47"/>
+      <c r="A57" s="53"/>
       <c r="B57" s="1">
         <v>55</v>
       </c>
@@ -3518,7 +3514,7 @@
       </c>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="47"/>
+      <c r="A58" s="53"/>
       <c r="B58" s="1">
         <v>56</v>
       </c>
@@ -3560,7 +3556,7 @@
       </c>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="47"/>
+      <c r="A59" s="53"/>
       <c r="B59" s="1">
         <v>57</v>
       </c>
@@ -3602,7 +3598,7 @@
       </c>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="47"/>
+      <c r="A60" s="53"/>
       <c r="B60" s="1">
         <v>58</v>
       </c>
@@ -3644,7 +3640,7 @@
       </c>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="47"/>
+      <c r="A61" s="53"/>
       <c r="B61" s="1">
         <v>59</v>
       </c>
@@ -3686,7 +3682,7 @@
       </c>
     </row>
     <row r="62" spans="1:14">
-      <c r="A62" s="47"/>
+      <c r="A62" s="53"/>
       <c r="B62" s="1">
         <v>60</v>
       </c>
@@ -3728,7 +3724,7 @@
       </c>
     </row>
     <row r="63" spans="1:14">
-      <c r="A63" s="47"/>
+      <c r="A63" s="53"/>
       <c r="B63" s="1">
         <v>61</v>
       </c>
@@ -3770,7 +3766,7 @@
       </c>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="47"/>
+      <c r="A64" s="53"/>
       <c r="B64" s="1">
         <v>62</v>
       </c>
@@ -3812,7 +3808,7 @@
       </c>
     </row>
     <row r="65" spans="1:14">
-      <c r="A65" s="47"/>
+      <c r="A65" s="53"/>
       <c r="B65" s="1">
         <v>63</v>
       </c>
@@ -3854,7 +3850,7 @@
       </c>
     </row>
     <row r="66" spans="1:14">
-      <c r="A66" s="47"/>
+      <c r="A66" s="53"/>
       <c r="B66" s="1">
         <v>64</v>
       </c>
@@ -3896,7 +3892,7 @@
       </c>
     </row>
     <row r="67" spans="1:14">
-      <c r="A67" s="47"/>
+      <c r="A67" s="53"/>
       <c r="B67" s="1">
         <v>65</v>
       </c>
@@ -3938,7 +3934,7 @@
       </c>
     </row>
     <row r="68" spans="1:14">
-      <c r="A68" s="47"/>
+      <c r="A68" s="53"/>
       <c r="B68" s="1">
         <v>66</v>
       </c>
@@ -3980,7 +3976,7 @@
       </c>
     </row>
     <row r="69" spans="1:14">
-      <c r="A69" s="47"/>
+      <c r="A69" s="53"/>
       <c r="B69" s="1">
         <v>67</v>
       </c>
@@ -4022,7 +4018,7 @@
       </c>
     </row>
     <row r="70" spans="1:14">
-      <c r="A70" s="47"/>
+      <c r="A70" s="53"/>
       <c r="B70" s="1">
         <v>68</v>
       </c>
@@ -4064,7 +4060,7 @@
       </c>
     </row>
     <row r="71" spans="1:14">
-      <c r="A71" s="47"/>
+      <c r="A71" s="53"/>
       <c r="B71" s="1">
         <v>69</v>
       </c>
@@ -4106,7 +4102,7 @@
       </c>
     </row>
     <row r="72" spans="1:14">
-      <c r="A72" s="47"/>
+      <c r="A72" s="53"/>
       <c r="B72" s="1">
         <v>70</v>
       </c>
@@ -4148,7 +4144,7 @@
       </c>
     </row>
     <row r="73" spans="1:14">
-      <c r="A73" s="47"/>
+      <c r="A73" s="53"/>
       <c r="B73" s="1">
         <v>71</v>
       </c>
@@ -4190,7 +4186,7 @@
       </c>
     </row>
     <row r="74" spans="1:14">
-      <c r="A74" s="47"/>
+      <c r="A74" s="53"/>
       <c r="B74" s="1">
         <v>72</v>
       </c>
@@ -4232,7 +4228,7 @@
       </c>
     </row>
     <row r="75" spans="1:14">
-      <c r="A75" s="47"/>
+      <c r="A75" s="53"/>
       <c r="B75" s="1">
         <v>73</v>
       </c>
@@ -4274,7 +4270,7 @@
       </c>
     </row>
     <row r="76" spans="1:14">
-      <c r="A76" s="47"/>
+      <c r="A76" s="53"/>
       <c r="B76" s="1">
         <v>74</v>
       </c>
@@ -4316,7 +4312,7 @@
       </c>
     </row>
     <row r="77" spans="1:14">
-      <c r="A77" s="47"/>
+      <c r="A77" s="53"/>
       <c r="B77" s="1">
         <v>75</v>
       </c>
@@ -4358,7 +4354,7 @@
       </c>
     </row>
     <row r="78" spans="1:14">
-      <c r="A78" s="47"/>
+      <c r="A78" s="53"/>
       <c r="B78" s="1">
         <v>76</v>
       </c>
@@ -4400,7 +4396,7 @@
       </c>
     </row>
     <row r="79" spans="1:14">
-      <c r="A79" s="47"/>
+      <c r="A79" s="53"/>
       <c r="B79" s="1">
         <v>77</v>
       </c>
@@ -4442,7 +4438,7 @@
       </c>
     </row>
     <row r="80" spans="1:14">
-      <c r="A80" s="47"/>
+      <c r="A80" s="53"/>
       <c r="B80" s="1">
         <v>78</v>
       </c>
@@ -4484,7 +4480,7 @@
       </c>
     </row>
     <row r="81" spans="1:14">
-      <c r="A81" s="47"/>
+      <c r="A81" s="53"/>
       <c r="B81" s="1">
         <v>79</v>
       </c>
@@ -4526,7 +4522,7 @@
       </c>
     </row>
     <row r="82" spans="1:14">
-      <c r="A82" s="47"/>
+      <c r="A82" s="53"/>
       <c r="B82" s="1">
         <v>80</v>
       </c>
@@ -4568,7 +4564,7 @@
       </c>
     </row>
     <row r="83" spans="1:14">
-      <c r="A83" s="47"/>
+      <c r="A83" s="53"/>
       <c r="B83" s="1">
         <v>81</v>
       </c>
@@ -4610,7 +4606,7 @@
       </c>
     </row>
     <row r="84" spans="1:14">
-      <c r="A84" s="47"/>
+      <c r="A84" s="53"/>
       <c r="B84" s="1">
         <v>82</v>
       </c>
@@ -4652,7 +4648,7 @@
       </c>
     </row>
     <row r="85" spans="1:14">
-      <c r="A85" s="47"/>
+      <c r="A85" s="53"/>
       <c r="B85" s="1">
         <v>83</v>
       </c>
@@ -4694,7 +4690,7 @@
       </c>
     </row>
     <row r="86" spans="1:14">
-      <c r="A86" s="47"/>
+      <c r="A86" s="53"/>
       <c r="B86" s="1">
         <v>84</v>
       </c>
@@ -4736,7 +4732,7 @@
       </c>
     </row>
     <row r="87" spans="1:14">
-      <c r="A87" s="47"/>
+      <c r="A87" s="53"/>
       <c r="B87" s="1">
         <v>85</v>
       </c>
@@ -4778,7 +4774,7 @@
       </c>
     </row>
     <row r="88" spans="1:14">
-      <c r="A88" s="47"/>
+      <c r="A88" s="53"/>
       <c r="B88" s="1">
         <v>86</v>
       </c>
@@ -4820,7 +4816,7 @@
       </c>
     </row>
     <row r="89" spans="1:14">
-      <c r="A89" s="47"/>
+      <c r="A89" s="53"/>
       <c r="B89" s="1">
         <v>87</v>
       </c>
@@ -4862,7 +4858,7 @@
       </c>
     </row>
     <row r="90" spans="1:14">
-      <c r="A90" s="47"/>
+      <c r="A90" s="53"/>
       <c r="B90" s="1">
         <v>88</v>
       </c>
@@ -4904,7 +4900,7 @@
       </c>
     </row>
     <row r="91" spans="1:14">
-      <c r="A91" s="47"/>
+      <c r="A91" s="53"/>
       <c r="B91" s="1">
         <v>89</v>
       </c>
@@ -4946,7 +4942,7 @@
       </c>
     </row>
     <row r="92" spans="1:14">
-      <c r="A92" s="47"/>
+      <c r="A92" s="53"/>
       <c r="B92" s="1">
         <v>90</v>
       </c>
@@ -4988,7 +4984,7 @@
       </c>
     </row>
     <row r="93" spans="1:14">
-      <c r="A93" s="47"/>
+      <c r="A93" s="53"/>
       <c r="B93" s="1">
         <v>91</v>
       </c>
@@ -5030,7 +5026,7 @@
       </c>
     </row>
     <row r="94" spans="1:14">
-      <c r="A94" s="47"/>
+      <c r="A94" s="53"/>
       <c r="B94" s="1">
         <v>92</v>
       </c>
@@ -5072,7 +5068,7 @@
       </c>
     </row>
     <row r="95" spans="1:14">
-      <c r="A95" s="47"/>
+      <c r="A95" s="53"/>
       <c r="B95" s="1">
         <v>93</v>
       </c>
@@ -5114,7 +5110,7 @@
       </c>
     </row>
     <row r="96" spans="1:14">
-      <c r="A96" s="47"/>
+      <c r="A96" s="53"/>
       <c r="B96" s="1">
         <v>94</v>
       </c>
@@ -5156,7 +5152,7 @@
       </c>
     </row>
     <row r="97" spans="1:14">
-      <c r="A97" s="47"/>
+      <c r="A97" s="53"/>
       <c r="B97" s="1">
         <v>95</v>
       </c>
@@ -5198,7 +5194,7 @@
       </c>
     </row>
     <row r="98" spans="1:14">
-      <c r="A98" s="47"/>
+      <c r="A98" s="53"/>
       <c r="B98" s="1">
         <v>96</v>
       </c>
@@ -5240,7 +5236,7 @@
       </c>
     </row>
     <row r="99" spans="1:14">
-      <c r="A99" s="47"/>
+      <c r="A99" s="53"/>
       <c r="B99" s="1">
         <v>97</v>
       </c>
@@ -5282,7 +5278,7 @@
       </c>
     </row>
     <row r="100" spans="1:14">
-      <c r="A100" s="47"/>
+      <c r="A100" s="53"/>
       <c r="B100" s="1">
         <v>98</v>
       </c>
@@ -5324,7 +5320,7 @@
       </c>
     </row>
     <row r="101" spans="1:14">
-      <c r="A101" s="47"/>
+      <c r="A101" s="53"/>
       <c r="B101" s="1">
         <v>99</v>
       </c>
@@ -5366,7 +5362,7 @@
       </c>
     </row>
     <row r="102" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A102" s="48"/>
+      <c r="A102" s="54"/>
       <c r="B102" s="3">
         <v>100</v>
       </c>
@@ -5408,7 +5404,7 @@
       </c>
     </row>
     <row r="103" spans="1:14">
-      <c r="A103" s="53">
+      <c r="A103" s="52">
         <v>0.3</v>
       </c>
       <c r="B103" s="5">
@@ -5452,7 +5448,7 @@
       </c>
     </row>
     <row r="104" spans="1:14">
-      <c r="A104" s="47"/>
+      <c r="A104" s="53"/>
       <c r="B104" s="1">
         <v>2</v>
       </c>
@@ -5494,7 +5490,7 @@
       </c>
     </row>
     <row r="105" spans="1:14">
-      <c r="A105" s="47"/>
+      <c r="A105" s="53"/>
       <c r="B105" s="1">
         <v>3</v>
       </c>
@@ -5536,7 +5532,7 @@
       </c>
     </row>
     <row r="106" spans="1:14">
-      <c r="A106" s="47"/>
+      <c r="A106" s="53"/>
       <c r="B106" s="1">
         <v>4</v>
       </c>
@@ -5578,7 +5574,7 @@
       </c>
     </row>
     <row r="107" spans="1:14">
-      <c r="A107" s="47"/>
+      <c r="A107" s="53"/>
       <c r="B107" s="1">
         <v>5</v>
       </c>
@@ -5620,7 +5616,7 @@
       </c>
     </row>
     <row r="108" spans="1:14">
-      <c r="A108" s="47"/>
+      <c r="A108" s="53"/>
       <c r="B108" s="1">
         <v>6</v>
       </c>
@@ -5662,7 +5658,7 @@
       </c>
     </row>
     <row r="109" spans="1:14">
-      <c r="A109" s="47"/>
+      <c r="A109" s="53"/>
       <c r="B109" s="1">
         <v>7</v>
       </c>
@@ -5704,7 +5700,7 @@
       </c>
     </row>
     <row r="110" spans="1:14">
-      <c r="A110" s="47"/>
+      <c r="A110" s="53"/>
       <c r="B110" s="1">
         <v>8</v>
       </c>
@@ -5746,7 +5742,7 @@
       </c>
     </row>
     <row r="111" spans="1:14">
-      <c r="A111" s="47"/>
+      <c r="A111" s="53"/>
       <c r="B111" s="1">
         <v>9</v>
       </c>
@@ -5788,7 +5784,7 @@
       </c>
     </row>
     <row r="112" spans="1:14">
-      <c r="A112" s="47"/>
+      <c r="A112" s="53"/>
       <c r="B112" s="1">
         <v>10</v>
       </c>
@@ -5830,7 +5826,7 @@
       </c>
     </row>
     <row r="113" spans="1:14">
-      <c r="A113" s="47"/>
+      <c r="A113" s="53"/>
       <c r="B113" s="1">
         <v>11</v>
       </c>
@@ -5872,7 +5868,7 @@
       </c>
     </row>
     <row r="114" spans="1:14">
-      <c r="A114" s="47"/>
+      <c r="A114" s="53"/>
       <c r="B114" s="1">
         <v>12</v>
       </c>
@@ -5914,7 +5910,7 @@
       </c>
     </row>
     <row r="115" spans="1:14">
-      <c r="A115" s="47"/>
+      <c r="A115" s="53"/>
       <c r="B115" s="1">
         <v>13</v>
       </c>
@@ -5956,7 +5952,7 @@
       </c>
     </row>
     <row r="116" spans="1:14">
-      <c r="A116" s="47"/>
+      <c r="A116" s="53"/>
       <c r="B116" s="1">
         <v>14</v>
       </c>
@@ -5998,7 +5994,7 @@
       </c>
     </row>
     <row r="117" spans="1:14">
-      <c r="A117" s="47"/>
+      <c r="A117" s="53"/>
       <c r="B117" s="1">
         <v>15</v>
       </c>
@@ -6040,7 +6036,7 @@
       </c>
     </row>
     <row r="118" spans="1:14">
-      <c r="A118" s="47"/>
+      <c r="A118" s="53"/>
       <c r="B118" s="1">
         <v>16</v>
       </c>
@@ -6082,7 +6078,7 @@
       </c>
     </row>
     <row r="119" spans="1:14">
-      <c r="A119" s="47"/>
+      <c r="A119" s="53"/>
       <c r="B119" s="1">
         <v>17</v>
       </c>
@@ -6124,7 +6120,7 @@
       </c>
     </row>
     <row r="120" spans="1:14">
-      <c r="A120" s="47"/>
+      <c r="A120" s="53"/>
       <c r="B120" s="1">
         <v>18</v>
       </c>
@@ -6166,7 +6162,7 @@
       </c>
     </row>
     <row r="121" spans="1:14">
-      <c r="A121" s="47"/>
+      <c r="A121" s="53"/>
       <c r="B121" s="1">
         <v>19</v>
       </c>
@@ -6208,7 +6204,7 @@
       </c>
     </row>
     <row r="122" spans="1:14">
-      <c r="A122" s="47"/>
+      <c r="A122" s="53"/>
       <c r="B122" s="1">
         <v>20</v>
       </c>
@@ -6250,7 +6246,7 @@
       </c>
     </row>
     <row r="123" spans="1:14">
-      <c r="A123" s="47"/>
+      <c r="A123" s="53"/>
       <c r="B123" s="1">
         <v>21</v>
       </c>
@@ -6292,7 +6288,7 @@
       </c>
     </row>
     <row r="124" spans="1:14">
-      <c r="A124" s="47"/>
+      <c r="A124" s="53"/>
       <c r="B124" s="1">
         <v>22</v>
       </c>
@@ -6334,7 +6330,7 @@
       </c>
     </row>
     <row r="125" spans="1:14">
-      <c r="A125" s="47"/>
+      <c r="A125" s="53"/>
       <c r="B125" s="1">
         <v>23</v>
       </c>
@@ -6376,7 +6372,7 @@
       </c>
     </row>
     <row r="126" spans="1:14">
-      <c r="A126" s="47"/>
+      <c r="A126" s="53"/>
       <c r="B126" s="1">
         <v>24</v>
       </c>
@@ -6418,7 +6414,7 @@
       </c>
     </row>
     <row r="127" spans="1:14">
-      <c r="A127" s="47"/>
+      <c r="A127" s="53"/>
       <c r="B127" s="1">
         <v>25</v>
       </c>
@@ -6460,7 +6456,7 @@
       </c>
     </row>
     <row r="128" spans="1:14">
-      <c r="A128" s="47"/>
+      <c r="A128" s="53"/>
       <c r="B128" s="1">
         <v>26</v>
       </c>
@@ -6502,7 +6498,7 @@
       </c>
     </row>
     <row r="129" spans="1:14">
-      <c r="A129" s="47"/>
+      <c r="A129" s="53"/>
       <c r="B129" s="1">
         <v>27</v>
       </c>
@@ -6544,7 +6540,7 @@
       </c>
     </row>
     <row r="130" spans="1:14">
-      <c r="A130" s="47"/>
+      <c r="A130" s="53"/>
       <c r="B130" s="1">
         <v>28</v>
       </c>
@@ -6586,7 +6582,7 @@
       </c>
     </row>
     <row r="131" spans="1:14">
-      <c r="A131" s="47"/>
+      <c r="A131" s="53"/>
       <c r="B131" s="1">
         <v>29</v>
       </c>
@@ -6628,7 +6624,7 @@
       </c>
     </row>
     <row r="132" spans="1:14">
-      <c r="A132" s="47"/>
+      <c r="A132" s="53"/>
       <c r="B132" s="1">
         <v>30</v>
       </c>
@@ -6670,7 +6666,7 @@
       </c>
     </row>
     <row r="133" spans="1:14">
-      <c r="A133" s="47"/>
+      <c r="A133" s="53"/>
       <c r="B133" s="1">
         <v>31</v>
       </c>
@@ -6712,7 +6708,7 @@
       </c>
     </row>
     <row r="134" spans="1:14">
-      <c r="A134" s="47"/>
+      <c r="A134" s="53"/>
       <c r="B134" s="1">
         <v>32</v>
       </c>
@@ -6754,7 +6750,7 @@
       </c>
     </row>
     <row r="135" spans="1:14">
-      <c r="A135" s="47"/>
+      <c r="A135" s="53"/>
       <c r="B135" s="1">
         <v>33</v>
       </c>
@@ -6796,7 +6792,7 @@
       </c>
     </row>
     <row r="136" spans="1:14">
-      <c r="A136" s="47"/>
+      <c r="A136" s="53"/>
       <c r="B136" s="1">
         <v>34</v>
       </c>
@@ -6838,7 +6834,7 @@
       </c>
     </row>
     <row r="137" spans="1:14">
-      <c r="A137" s="47"/>
+      <c r="A137" s="53"/>
       <c r="B137" s="1">
         <v>35</v>
       </c>
@@ -6880,7 +6876,7 @@
       </c>
     </row>
     <row r="138" spans="1:14">
-      <c r="A138" s="47"/>
+      <c r="A138" s="53"/>
       <c r="B138" s="1">
         <v>36</v>
       </c>
@@ -6922,7 +6918,7 @@
       </c>
     </row>
     <row r="139" spans="1:14">
-      <c r="A139" s="47"/>
+      <c r="A139" s="53"/>
       <c r="B139" s="1">
         <v>37</v>
       </c>
@@ -6964,7 +6960,7 @@
       </c>
     </row>
     <row r="140" spans="1:14">
-      <c r="A140" s="47"/>
+      <c r="A140" s="53"/>
       <c r="B140" s="1">
         <v>38</v>
       </c>
@@ -7006,7 +7002,7 @@
       </c>
     </row>
     <row r="141" spans="1:14">
-      <c r="A141" s="47"/>
+      <c r="A141" s="53"/>
       <c r="B141" s="1">
         <v>39</v>
       </c>
@@ -7048,7 +7044,7 @@
       </c>
     </row>
     <row r="142" spans="1:14">
-      <c r="A142" s="47"/>
+      <c r="A142" s="53"/>
       <c r="B142" s="1">
         <v>40</v>
       </c>
@@ -7090,7 +7086,7 @@
       </c>
     </row>
     <row r="143" spans="1:14">
-      <c r="A143" s="47"/>
+      <c r="A143" s="53"/>
       <c r="B143" s="1">
         <v>41</v>
       </c>
@@ -7132,7 +7128,7 @@
       </c>
     </row>
     <row r="144" spans="1:14">
-      <c r="A144" s="47"/>
+      <c r="A144" s="53"/>
       <c r="B144" s="1">
         <v>42</v>
       </c>
@@ -7174,7 +7170,7 @@
       </c>
     </row>
     <row r="145" spans="1:14">
-      <c r="A145" s="47"/>
+      <c r="A145" s="53"/>
       <c r="B145" s="1">
         <v>43</v>
       </c>
@@ -7216,7 +7212,7 @@
       </c>
     </row>
     <row r="146" spans="1:14">
-      <c r="A146" s="47"/>
+      <c r="A146" s="53"/>
       <c r="B146" s="1">
         <v>44</v>
       </c>
@@ -7258,7 +7254,7 @@
       </c>
     </row>
     <row r="147" spans="1:14">
-      <c r="A147" s="47"/>
+      <c r="A147" s="53"/>
       <c r="B147" s="1">
         <v>45</v>
       </c>
@@ -7300,7 +7296,7 @@
       </c>
     </row>
     <row r="148" spans="1:14">
-      <c r="A148" s="47"/>
+      <c r="A148" s="53"/>
       <c r="B148" s="1">
         <v>46</v>
       </c>
@@ -7342,7 +7338,7 @@
       </c>
     </row>
     <row r="149" spans="1:14">
-      <c r="A149" s="47"/>
+      <c r="A149" s="53"/>
       <c r="B149" s="1">
         <v>47</v>
       </c>
@@ -7384,7 +7380,7 @@
       </c>
     </row>
     <row r="150" spans="1:14">
-      <c r="A150" s="47"/>
+      <c r="A150" s="53"/>
       <c r="B150" s="1">
         <v>48</v>
       </c>
@@ -7426,7 +7422,7 @@
       </c>
     </row>
     <row r="151" spans="1:14">
-      <c r="A151" s="47"/>
+      <c r="A151" s="53"/>
       <c r="B151" s="1">
         <v>49</v>
       </c>
@@ -7468,7 +7464,7 @@
       </c>
     </row>
     <row r="152" spans="1:14">
-      <c r="A152" s="47"/>
+      <c r="A152" s="53"/>
       <c r="B152" s="1">
         <v>50</v>
       </c>
@@ -7510,7 +7506,7 @@
       </c>
     </row>
     <row r="153" spans="1:14">
-      <c r="A153" s="47"/>
+      <c r="A153" s="53"/>
       <c r="B153" s="1">
         <v>51</v>
       </c>
@@ -7552,7 +7548,7 @@
       </c>
     </row>
     <row r="154" spans="1:14">
-      <c r="A154" s="47"/>
+      <c r="A154" s="53"/>
       <c r="B154" s="1">
         <v>52</v>
       </c>
@@ -7594,7 +7590,7 @@
       </c>
     </row>
     <row r="155" spans="1:14">
-      <c r="A155" s="47"/>
+      <c r="A155" s="53"/>
       <c r="B155" s="1">
         <v>53</v>
       </c>
@@ -7636,7 +7632,7 @@
       </c>
     </row>
     <row r="156" spans="1:14">
-      <c r="A156" s="47"/>
+      <c r="A156" s="53"/>
       <c r="B156" s="1">
         <v>54</v>
       </c>
@@ -7678,7 +7674,7 @@
       </c>
     </row>
     <row r="157" spans="1:14">
-      <c r="A157" s="47"/>
+      <c r="A157" s="53"/>
       <c r="B157" s="1">
         <v>55</v>
       </c>
@@ -7720,7 +7716,7 @@
       </c>
     </row>
     <row r="158" spans="1:14">
-      <c r="A158" s="47"/>
+      <c r="A158" s="53"/>
       <c r="B158" s="1">
         <v>56</v>
       </c>
@@ -7762,7 +7758,7 @@
       </c>
     </row>
     <row r="159" spans="1:14">
-      <c r="A159" s="47"/>
+      <c r="A159" s="53"/>
       <c r="B159" s="1">
         <v>57</v>
       </c>
@@ -7804,7 +7800,7 @@
       </c>
     </row>
     <row r="160" spans="1:14">
-      <c r="A160" s="47"/>
+      <c r="A160" s="53"/>
       <c r="B160" s="1">
         <v>58</v>
       </c>
@@ -7846,7 +7842,7 @@
       </c>
     </row>
     <row r="161" spans="1:14">
-      <c r="A161" s="47"/>
+      <c r="A161" s="53"/>
       <c r="B161" s="1">
         <v>59</v>
       </c>
@@ -7888,7 +7884,7 @@
       </c>
     </row>
     <row r="162" spans="1:14">
-      <c r="A162" s="47"/>
+      <c r="A162" s="53"/>
       <c r="B162" s="1">
         <v>60</v>
       </c>
@@ -7930,7 +7926,7 @@
       </c>
     </row>
     <row r="163" spans="1:14">
-      <c r="A163" s="47"/>
+      <c r="A163" s="53"/>
       <c r="B163" s="1">
         <v>61</v>
       </c>
@@ -7972,7 +7968,7 @@
       </c>
     </row>
     <row r="164" spans="1:14">
-      <c r="A164" s="47"/>
+      <c r="A164" s="53"/>
       <c r="B164" s="1">
         <v>62</v>
       </c>
@@ -8014,7 +8010,7 @@
       </c>
     </row>
     <row r="165" spans="1:14">
-      <c r="A165" s="47"/>
+      <c r="A165" s="53"/>
       <c r="B165" s="1">
         <v>63</v>
       </c>
@@ -8056,7 +8052,7 @@
       </c>
     </row>
     <row r="166" spans="1:14">
-      <c r="A166" s="47"/>
+      <c r="A166" s="53"/>
       <c r="B166" s="1">
         <v>64</v>
       </c>
@@ -8098,7 +8094,7 @@
       </c>
     </row>
     <row r="167" spans="1:14">
-      <c r="A167" s="47"/>
+      <c r="A167" s="53"/>
       <c r="B167" s="1">
         <v>65</v>
       </c>
@@ -8140,7 +8136,7 @@
       </c>
     </row>
     <row r="168" spans="1:14">
-      <c r="A168" s="47"/>
+      <c r="A168" s="53"/>
       <c r="B168" s="1">
         <v>66</v>
       </c>
@@ -8182,7 +8178,7 @@
       </c>
     </row>
     <row r="169" spans="1:14">
-      <c r="A169" s="47"/>
+      <c r="A169" s="53"/>
       <c r="B169" s="1">
         <v>67</v>
       </c>
@@ -8224,7 +8220,7 @@
       </c>
     </row>
     <row r="170" spans="1:14">
-      <c r="A170" s="47"/>
+      <c r="A170" s="53"/>
       <c r="B170" s="1">
         <v>68</v>
       </c>
@@ -8266,7 +8262,7 @@
       </c>
     </row>
     <row r="171" spans="1:14">
-      <c r="A171" s="47"/>
+      <c r="A171" s="53"/>
       <c r="B171" s="1">
         <v>69</v>
       </c>
@@ -8308,7 +8304,7 @@
       </c>
     </row>
     <row r="172" spans="1:14">
-      <c r="A172" s="47"/>
+      <c r="A172" s="53"/>
       <c r="B172" s="1">
         <v>70</v>
       </c>
@@ -8350,7 +8346,7 @@
       </c>
     </row>
     <row r="173" spans="1:14">
-      <c r="A173" s="47"/>
+      <c r="A173" s="53"/>
       <c r="B173" s="1">
         <v>71</v>
       </c>
@@ -8392,7 +8388,7 @@
       </c>
     </row>
     <row r="174" spans="1:14">
-      <c r="A174" s="47"/>
+      <c r="A174" s="53"/>
       <c r="B174" s="1">
         <v>72</v>
       </c>
@@ -8434,7 +8430,7 @@
       </c>
     </row>
     <row r="175" spans="1:14">
-      <c r="A175" s="47"/>
+      <c r="A175" s="53"/>
       <c r="B175" s="1">
         <v>73</v>
       </c>
@@ -8476,7 +8472,7 @@
       </c>
     </row>
     <row r="176" spans="1:14">
-      <c r="A176" s="47"/>
+      <c r="A176" s="53"/>
       <c r="B176" s="1">
         <v>74</v>
       </c>
@@ -8518,7 +8514,7 @@
       </c>
     </row>
     <row r="177" spans="1:14">
-      <c r="A177" s="47"/>
+      <c r="A177" s="53"/>
       <c r="B177" s="1">
         <v>75</v>
       </c>
@@ -8560,7 +8556,7 @@
       </c>
     </row>
     <row r="178" spans="1:14">
-      <c r="A178" s="47"/>
+      <c r="A178" s="53"/>
       <c r="B178" s="1">
         <v>76</v>
       </c>
@@ -8602,7 +8598,7 @@
       </c>
     </row>
     <row r="179" spans="1:14">
-      <c r="A179" s="47"/>
+      <c r="A179" s="53"/>
       <c r="B179" s="1">
         <v>77</v>
       </c>
@@ -8644,7 +8640,7 @@
       </c>
     </row>
     <row r="180" spans="1:14">
-      <c r="A180" s="47"/>
+      <c r="A180" s="53"/>
       <c r="B180" s="1">
         <v>78</v>
       </c>
@@ -8686,7 +8682,7 @@
       </c>
     </row>
     <row r="181" spans="1:14">
-      <c r="A181" s="47"/>
+      <c r="A181" s="53"/>
       <c r="B181" s="1">
         <v>79</v>
       </c>
@@ -8728,7 +8724,7 @@
       </c>
     </row>
     <row r="182" spans="1:14">
-      <c r="A182" s="47"/>
+      <c r="A182" s="53"/>
       <c r="B182" s="1">
         <v>80</v>
       </c>
@@ -8770,7 +8766,7 @@
       </c>
     </row>
     <row r="183" spans="1:14">
-      <c r="A183" s="47"/>
+      <c r="A183" s="53"/>
       <c r="B183" s="1">
         <v>81</v>
       </c>
@@ -8812,7 +8808,7 @@
       </c>
     </row>
     <row r="184" spans="1:14">
-      <c r="A184" s="47"/>
+      <c r="A184" s="53"/>
       <c r="B184" s="1">
         <v>82</v>
       </c>
@@ -8854,7 +8850,7 @@
       </c>
     </row>
     <row r="185" spans="1:14">
-      <c r="A185" s="47"/>
+      <c r="A185" s="53"/>
       <c r="B185" s="1">
         <v>83</v>
       </c>
@@ -8896,7 +8892,7 @@
       </c>
     </row>
     <row r="186" spans="1:14">
-      <c r="A186" s="47"/>
+      <c r="A186" s="53"/>
       <c r="B186" s="1">
         <v>84</v>
       </c>
@@ -8938,7 +8934,7 @@
       </c>
     </row>
     <row r="187" spans="1:14">
-      <c r="A187" s="47"/>
+      <c r="A187" s="53"/>
       <c r="B187" s="1">
         <v>85</v>
       </c>
@@ -8980,7 +8976,7 @@
       </c>
     </row>
     <row r="188" spans="1:14">
-      <c r="A188" s="47"/>
+      <c r="A188" s="53"/>
       <c r="B188" s="1">
         <v>86</v>
       </c>
@@ -9022,7 +9018,7 @@
       </c>
     </row>
     <row r="189" spans="1:14">
-      <c r="A189" s="47"/>
+      <c r="A189" s="53"/>
       <c r="B189" s="1">
         <v>87</v>
       </c>
@@ -9064,7 +9060,7 @@
       </c>
     </row>
     <row r="190" spans="1:14">
-      <c r="A190" s="47"/>
+      <c r="A190" s="53"/>
       <c r="B190" s="1">
         <v>88</v>
       </c>
@@ -9106,7 +9102,7 @@
       </c>
     </row>
     <row r="191" spans="1:14">
-      <c r="A191" s="47"/>
+      <c r="A191" s="53"/>
       <c r="B191" s="1">
         <v>89</v>
       </c>
@@ -9148,7 +9144,7 @@
       </c>
     </row>
     <row r="192" spans="1:14">
-      <c r="A192" s="47"/>
+      <c r="A192" s="53"/>
       <c r="B192" s="1">
         <v>90</v>
       </c>
@@ -9190,7 +9186,7 @@
       </c>
     </row>
     <row r="193" spans="1:14">
-      <c r="A193" s="47"/>
+      <c r="A193" s="53"/>
       <c r="B193" s="1">
         <v>91</v>
       </c>
@@ -9232,7 +9228,7 @@
       </c>
     </row>
     <row r="194" spans="1:14">
-      <c r="A194" s="47"/>
+      <c r="A194" s="53"/>
       <c r="B194" s="1">
         <v>92</v>
       </c>
@@ -9274,7 +9270,7 @@
       </c>
     </row>
     <row r="195" spans="1:14">
-      <c r="A195" s="47"/>
+      <c r="A195" s="53"/>
       <c r="B195" s="1">
         <v>93</v>
       </c>
@@ -9316,7 +9312,7 @@
       </c>
     </row>
     <row r="196" spans="1:14">
-      <c r="A196" s="47"/>
+      <c r="A196" s="53"/>
       <c r="B196" s="1">
         <v>94</v>
       </c>
@@ -9358,7 +9354,7 @@
       </c>
     </row>
     <row r="197" spans="1:14">
-      <c r="A197" s="47"/>
+      <c r="A197" s="53"/>
       <c r="B197" s="1">
         <v>95</v>
       </c>
@@ -9400,7 +9396,7 @@
       </c>
     </row>
     <row r="198" spans="1:14">
-      <c r="A198" s="47"/>
+      <c r="A198" s="53"/>
       <c r="B198" s="1">
         <v>96</v>
       </c>
@@ -9442,7 +9438,7 @@
       </c>
     </row>
     <row r="199" spans="1:14">
-      <c r="A199" s="47"/>
+      <c r="A199" s="53"/>
       <c r="B199" s="1">
         <v>97</v>
       </c>
@@ -9484,7 +9480,7 @@
       </c>
     </row>
     <row r="200" spans="1:14">
-      <c r="A200" s="47"/>
+      <c r="A200" s="53"/>
       <c r="B200" s="1">
         <v>98</v>
       </c>
@@ -9526,7 +9522,7 @@
       </c>
     </row>
     <row r="201" spans="1:14">
-      <c r="A201" s="47"/>
+      <c r="A201" s="53"/>
       <c r="B201" s="1">
         <v>99</v>
       </c>
@@ -9568,7 +9564,7 @@
       </c>
     </row>
     <row r="202" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A202" s="48"/>
+      <c r="A202" s="54"/>
       <c r="B202" s="24">
         <v>100</v>
       </c>
@@ -9610,7 +9606,7 @@
       </c>
     </row>
     <row r="203" spans="1:14">
-      <c r="A203" s="46">
+      <c r="A203" s="59">
         <v>0.5</v>
       </c>
       <c r="B203" s="19">
@@ -9654,7 +9650,7 @@
       </c>
     </row>
     <row r="204" spans="1:14">
-      <c r="A204" s="47"/>
+      <c r="A204" s="53"/>
       <c r="B204" s="1">
         <v>2</v>
       </c>
@@ -9696,7 +9692,7 @@
       </c>
     </row>
     <row r="205" spans="1:14">
-      <c r="A205" s="47"/>
+      <c r="A205" s="53"/>
       <c r="B205" s="1">
         <v>3</v>
       </c>
@@ -9738,7 +9734,7 @@
       </c>
     </row>
     <row r="206" spans="1:14">
-      <c r="A206" s="47"/>
+      <c r="A206" s="53"/>
       <c r="B206" s="1">
         <v>4</v>
       </c>
@@ -9780,7 +9776,7 @@
       </c>
     </row>
     <row r="207" spans="1:14">
-      <c r="A207" s="47"/>
+      <c r="A207" s="53"/>
       <c r="B207" s="1">
         <v>5</v>
       </c>
@@ -9822,7 +9818,7 @@
       </c>
     </row>
     <row r="208" spans="1:14">
-      <c r="A208" s="47"/>
+      <c r="A208" s="53"/>
       <c r="B208" s="1">
         <v>6</v>
       </c>
@@ -9864,7 +9860,7 @@
       </c>
     </row>
     <row r="209" spans="1:14">
-      <c r="A209" s="47"/>
+      <c r="A209" s="53"/>
       <c r="B209" s="1">
         <v>7</v>
       </c>
@@ -9906,7 +9902,7 @@
       </c>
     </row>
     <row r="210" spans="1:14">
-      <c r="A210" s="47"/>
+      <c r="A210" s="53"/>
       <c r="B210" s="1">
         <v>8</v>
       </c>
@@ -9948,7 +9944,7 @@
       </c>
     </row>
     <row r="211" spans="1:14">
-      <c r="A211" s="47"/>
+      <c r="A211" s="53"/>
       <c r="B211" s="1">
         <v>9</v>
       </c>
@@ -9990,7 +9986,7 @@
       </c>
     </row>
     <row r="212" spans="1:14">
-      <c r="A212" s="47"/>
+      <c r="A212" s="53"/>
       <c r="B212" s="1">
         <v>10</v>
       </c>
@@ -10032,7 +10028,7 @@
       </c>
     </row>
     <row r="213" spans="1:14">
-      <c r="A213" s="47"/>
+      <c r="A213" s="53"/>
       <c r="B213" s="1">
         <v>11</v>
       </c>
@@ -10074,7 +10070,7 @@
       </c>
     </row>
     <row r="214" spans="1:14">
-      <c r="A214" s="47"/>
+      <c r="A214" s="53"/>
       <c r="B214" s="1">
         <v>12</v>
       </c>
@@ -10116,7 +10112,7 @@
       </c>
     </row>
     <row r="215" spans="1:14">
-      <c r="A215" s="47"/>
+      <c r="A215" s="53"/>
       <c r="B215" s="1">
         <v>13</v>
       </c>
@@ -10158,7 +10154,7 @@
       </c>
     </row>
     <row r="216" spans="1:14">
-      <c r="A216" s="47"/>
+      <c r="A216" s="53"/>
       <c r="B216" s="1">
         <v>14</v>
       </c>
@@ -10200,7 +10196,7 @@
       </c>
     </row>
     <row r="217" spans="1:14">
-      <c r="A217" s="47"/>
+      <c r="A217" s="53"/>
       <c r="B217" s="1">
         <v>15</v>
       </c>
@@ -10242,7 +10238,7 @@
       </c>
     </row>
     <row r="218" spans="1:14">
-      <c r="A218" s="47"/>
+      <c r="A218" s="53"/>
       <c r="B218" s="1">
         <v>16</v>
       </c>
@@ -10284,7 +10280,7 @@
       </c>
     </row>
     <row r="219" spans="1:14">
-      <c r="A219" s="47"/>
+      <c r="A219" s="53"/>
       <c r="B219" s="1">
         <v>17</v>
       </c>
@@ -10326,7 +10322,7 @@
       </c>
     </row>
     <row r="220" spans="1:14">
-      <c r="A220" s="47"/>
+      <c r="A220" s="53"/>
       <c r="B220" s="1">
         <v>18</v>
       </c>
@@ -10368,7 +10364,7 @@
       </c>
     </row>
     <row r="221" spans="1:14">
-      <c r="A221" s="47"/>
+      <c r="A221" s="53"/>
       <c r="B221" s="1">
         <v>19</v>
       </c>
@@ -10410,7 +10406,7 @@
       </c>
     </row>
     <row r="222" spans="1:14">
-      <c r="A222" s="47"/>
+      <c r="A222" s="53"/>
       <c r="B222" s="1">
         <v>20</v>
       </c>
@@ -10452,7 +10448,7 @@
       </c>
     </row>
     <row r="223" spans="1:14">
-      <c r="A223" s="47"/>
+      <c r="A223" s="53"/>
       <c r="B223" s="1">
         <v>21</v>
       </c>
@@ -10494,7 +10490,7 @@
       </c>
     </row>
     <row r="224" spans="1:14">
-      <c r="A224" s="47"/>
+      <c r="A224" s="53"/>
       <c r="B224" s="1">
         <v>22</v>
       </c>
@@ -10536,7 +10532,7 @@
       </c>
     </row>
     <row r="225" spans="1:14">
-      <c r="A225" s="47"/>
+      <c r="A225" s="53"/>
       <c r="B225" s="1">
         <v>23</v>
       </c>
@@ -10578,7 +10574,7 @@
       </c>
     </row>
     <row r="226" spans="1:14">
-      <c r="A226" s="47"/>
+      <c r="A226" s="53"/>
       <c r="B226" s="1">
         <v>24</v>
       </c>
@@ -10620,7 +10616,7 @@
       </c>
     </row>
     <row r="227" spans="1:14">
-      <c r="A227" s="47"/>
+      <c r="A227" s="53"/>
       <c r="B227" s="1">
         <v>25</v>
       </c>
@@ -10662,7 +10658,7 @@
       </c>
     </row>
     <row r="228" spans="1:14">
-      <c r="A228" s="47"/>
+      <c r="A228" s="53"/>
       <c r="B228" s="1">
         <v>26</v>
       </c>
@@ -10704,7 +10700,7 @@
       </c>
     </row>
     <row r="229" spans="1:14">
-      <c r="A229" s="47"/>
+      <c r="A229" s="53"/>
       <c r="B229" s="1">
         <v>27</v>
       </c>
@@ -10746,7 +10742,7 @@
       </c>
     </row>
     <row r="230" spans="1:14">
-      <c r="A230" s="47"/>
+      <c r="A230" s="53"/>
       <c r="B230" s="1">
         <v>28</v>
       </c>
@@ -10788,7 +10784,7 @@
       </c>
     </row>
     <row r="231" spans="1:14">
-      <c r="A231" s="47"/>
+      <c r="A231" s="53"/>
       <c r="B231" s="1">
         <v>29</v>
       </c>
@@ -10830,7 +10826,7 @@
       </c>
     </row>
     <row r="232" spans="1:14">
-      <c r="A232" s="47"/>
+      <c r="A232" s="53"/>
       <c r="B232" s="1">
         <v>30</v>
       </c>
@@ -10872,7 +10868,7 @@
       </c>
     </row>
     <row r="233" spans="1:14">
-      <c r="A233" s="47"/>
+      <c r="A233" s="53"/>
       <c r="B233" s="1">
         <v>31</v>
       </c>
@@ -10914,7 +10910,7 @@
       </c>
     </row>
     <row r="234" spans="1:14">
-      <c r="A234" s="47"/>
+      <c r="A234" s="53"/>
       <c r="B234" s="1">
         <v>32</v>
       </c>
@@ -10956,7 +10952,7 @@
       </c>
     </row>
     <row r="235" spans="1:14">
-      <c r="A235" s="47"/>
+      <c r="A235" s="53"/>
       <c r="B235" s="1">
         <v>33</v>
       </c>
@@ -10998,7 +10994,7 @@
       </c>
     </row>
     <row r="236" spans="1:14">
-      <c r="A236" s="47"/>
+      <c r="A236" s="53"/>
       <c r="B236" s="1">
         <v>34</v>
       </c>
@@ -11040,7 +11036,7 @@
       </c>
     </row>
     <row r="237" spans="1:14">
-      <c r="A237" s="47"/>
+      <c r="A237" s="53"/>
       <c r="B237" s="1">
         <v>35</v>
       </c>
@@ -11082,7 +11078,7 @@
       </c>
     </row>
     <row r="238" spans="1:14">
-      <c r="A238" s="47"/>
+      <c r="A238" s="53"/>
       <c r="B238" s="1">
         <v>36</v>
       </c>
@@ -11124,7 +11120,7 @@
       </c>
     </row>
     <row r="239" spans="1:14">
-      <c r="A239" s="47"/>
+      <c r="A239" s="53"/>
       <c r="B239" s="1">
         <v>37</v>
       </c>
@@ -11166,7 +11162,7 @@
       </c>
     </row>
     <row r="240" spans="1:14">
-      <c r="A240" s="47"/>
+      <c r="A240" s="53"/>
       <c r="B240" s="1">
         <v>38</v>
       </c>
@@ -11208,7 +11204,7 @@
       </c>
     </row>
     <row r="241" spans="1:14">
-      <c r="A241" s="47"/>
+      <c r="A241" s="53"/>
       <c r="B241" s="1">
         <v>39</v>
       </c>
@@ -11250,7 +11246,7 @@
       </c>
     </row>
     <row r="242" spans="1:14">
-      <c r="A242" s="47"/>
+      <c r="A242" s="53"/>
       <c r="B242" s="1">
         <v>40</v>
       </c>
@@ -11292,7 +11288,7 @@
       </c>
     </row>
     <row r="243" spans="1:14">
-      <c r="A243" s="47"/>
+      <c r="A243" s="53"/>
       <c r="B243" s="1">
         <v>41</v>
       </c>
@@ -11334,7 +11330,7 @@
       </c>
     </row>
     <row r="244" spans="1:14">
-      <c r="A244" s="47"/>
+      <c r="A244" s="53"/>
       <c r="B244" s="1">
         <v>42</v>
       </c>
@@ -11376,7 +11372,7 @@
       </c>
     </row>
     <row r="245" spans="1:14">
-      <c r="A245" s="47"/>
+      <c r="A245" s="53"/>
       <c r="B245" s="1">
         <v>43</v>
       </c>
@@ -11418,7 +11414,7 @@
       </c>
     </row>
     <row r="246" spans="1:14">
-      <c r="A246" s="47"/>
+      <c r="A246" s="53"/>
       <c r="B246" s="1">
         <v>44</v>
       </c>
@@ -11460,7 +11456,7 @@
       </c>
     </row>
     <row r="247" spans="1:14">
-      <c r="A247" s="47"/>
+      <c r="A247" s="53"/>
       <c r="B247" s="1">
         <v>45</v>
       </c>
@@ -11502,7 +11498,7 @@
       </c>
     </row>
     <row r="248" spans="1:14">
-      <c r="A248" s="47"/>
+      <c r="A248" s="53"/>
       <c r="B248" s="1">
         <v>46</v>
       </c>
@@ -11544,7 +11540,7 @@
       </c>
     </row>
     <row r="249" spans="1:14">
-      <c r="A249" s="47"/>
+      <c r="A249" s="53"/>
       <c r="B249" s="1">
         <v>47</v>
       </c>
@@ -11586,7 +11582,7 @@
       </c>
     </row>
     <row r="250" spans="1:14">
-      <c r="A250" s="47"/>
+      <c r="A250" s="53"/>
       <c r="B250" s="1">
         <v>48</v>
       </c>
@@ -11628,7 +11624,7 @@
       </c>
     </row>
     <row r="251" spans="1:14">
-      <c r="A251" s="47"/>
+      <c r="A251" s="53"/>
       <c r="B251" s="1">
         <v>49</v>
       </c>
@@ -11670,7 +11666,7 @@
       </c>
     </row>
     <row r="252" spans="1:14">
-      <c r="A252" s="47"/>
+      <c r="A252" s="53"/>
       <c r="B252" s="1">
         <v>50</v>
       </c>
@@ -11712,7 +11708,7 @@
       </c>
     </row>
     <row r="253" spans="1:14">
-      <c r="A253" s="47"/>
+      <c r="A253" s="53"/>
       <c r="B253" s="1">
         <v>51</v>
       </c>
@@ -11754,7 +11750,7 @@
       </c>
     </row>
     <row r="254" spans="1:14">
-      <c r="A254" s="47"/>
+      <c r="A254" s="53"/>
       <c r="B254" s="1">
         <v>52</v>
       </c>
@@ -11796,7 +11792,7 @@
       </c>
     </row>
     <row r="255" spans="1:14">
-      <c r="A255" s="47"/>
+      <c r="A255" s="53"/>
       <c r="B255" s="1">
         <v>53</v>
       </c>
@@ -11838,7 +11834,7 @@
       </c>
     </row>
     <row r="256" spans="1:14">
-      <c r="A256" s="47"/>
+      <c r="A256" s="53"/>
       <c r="B256" s="1">
         <v>54</v>
       </c>
@@ -11880,7 +11876,7 @@
       </c>
     </row>
     <row r="257" spans="1:14">
-      <c r="A257" s="47"/>
+      <c r="A257" s="53"/>
       <c r="B257" s="1">
         <v>55</v>
       </c>
@@ -11922,7 +11918,7 @@
       </c>
     </row>
     <row r="258" spans="1:14">
-      <c r="A258" s="47"/>
+      <c r="A258" s="53"/>
       <c r="B258" s="1">
         <v>56</v>
       </c>
@@ -11964,7 +11960,7 @@
       </c>
     </row>
     <row r="259" spans="1:14">
-      <c r="A259" s="47"/>
+      <c r="A259" s="53"/>
       <c r="B259" s="1">
         <v>57</v>
       </c>
@@ -12006,7 +12002,7 @@
       </c>
     </row>
     <row r="260" spans="1:14">
-      <c r="A260" s="47"/>
+      <c r="A260" s="53"/>
       <c r="B260" s="1">
         <v>58</v>
       </c>
@@ -12048,7 +12044,7 @@
       </c>
     </row>
     <row r="261" spans="1:14">
-      <c r="A261" s="47"/>
+      <c r="A261" s="53"/>
       <c r="B261" s="1">
         <v>59</v>
       </c>
@@ -12090,7 +12086,7 @@
       </c>
     </row>
     <row r="262" spans="1:14">
-      <c r="A262" s="47"/>
+      <c r="A262" s="53"/>
       <c r="B262" s="1">
         <v>60</v>
       </c>
@@ -12132,7 +12128,7 @@
       </c>
     </row>
     <row r="263" spans="1:14">
-      <c r="A263" s="47"/>
+      <c r="A263" s="53"/>
       <c r="B263" s="1">
         <v>61</v>
       </c>
@@ -12174,7 +12170,7 @@
       </c>
     </row>
     <row r="264" spans="1:14">
-      <c r="A264" s="47"/>
+      <c r="A264" s="53"/>
       <c r="B264" s="1">
         <v>62</v>
       </c>
@@ -12216,7 +12212,7 @@
       </c>
     </row>
     <row r="265" spans="1:14">
-      <c r="A265" s="47"/>
+      <c r="A265" s="53"/>
       <c r="B265" s="1">
         <v>63</v>
       </c>
@@ -12258,7 +12254,7 @@
       </c>
     </row>
     <row r="266" spans="1:14">
-      <c r="A266" s="47"/>
+      <c r="A266" s="53"/>
       <c r="B266" s="1">
         <v>64</v>
       </c>
@@ -12300,7 +12296,7 @@
       </c>
     </row>
     <row r="267" spans="1:14">
-      <c r="A267" s="47"/>
+      <c r="A267" s="53"/>
       <c r="B267" s="1">
         <v>65</v>
       </c>
@@ -12342,7 +12338,7 @@
       </c>
     </row>
     <row r="268" spans="1:14">
-      <c r="A268" s="47"/>
+      <c r="A268" s="53"/>
       <c r="B268" s="1">
         <v>66</v>
       </c>
@@ -12384,7 +12380,7 @@
       </c>
     </row>
     <row r="269" spans="1:14">
-      <c r="A269" s="47"/>
+      <c r="A269" s="53"/>
       <c r="B269" s="1">
         <v>67</v>
       </c>
@@ -12426,7 +12422,7 @@
       </c>
     </row>
     <row r="270" spans="1:14">
-      <c r="A270" s="47"/>
+      <c r="A270" s="53"/>
       <c r="B270" s="1">
         <v>68</v>
       </c>
@@ -12468,7 +12464,7 @@
       </c>
     </row>
     <row r="271" spans="1:14">
-      <c r="A271" s="47"/>
+      <c r="A271" s="53"/>
       <c r="B271" s="1">
         <v>69</v>
       </c>
@@ -12510,7 +12506,7 @@
       </c>
     </row>
     <row r="272" spans="1:14">
-      <c r="A272" s="47"/>
+      <c r="A272" s="53"/>
       <c r="B272" s="1">
         <v>70</v>
       </c>
@@ -12552,7 +12548,7 @@
       </c>
     </row>
     <row r="273" spans="1:14">
-      <c r="A273" s="47"/>
+      <c r="A273" s="53"/>
       <c r="B273" s="1">
         <v>71</v>
       </c>
@@ -12594,7 +12590,7 @@
       </c>
     </row>
     <row r="274" spans="1:14">
-      <c r="A274" s="47"/>
+      <c r="A274" s="53"/>
       <c r="B274" s="1">
         <v>72</v>
       </c>
@@ -12636,7 +12632,7 @@
       </c>
     </row>
     <row r="275" spans="1:14">
-      <c r="A275" s="47"/>
+      <c r="A275" s="53"/>
       <c r="B275" s="1">
         <v>73</v>
       </c>
@@ -12678,7 +12674,7 @@
       </c>
     </row>
     <row r="276" spans="1:14">
-      <c r="A276" s="47"/>
+      <c r="A276" s="53"/>
       <c r="B276" s="1">
         <v>74</v>
       </c>
@@ -12720,7 +12716,7 @@
       </c>
     </row>
     <row r="277" spans="1:14">
-      <c r="A277" s="47"/>
+      <c r="A277" s="53"/>
       <c r="B277" s="1">
         <v>75</v>
       </c>
@@ -12762,7 +12758,7 @@
       </c>
     </row>
     <row r="278" spans="1:14">
-      <c r="A278" s="47"/>
+      <c r="A278" s="53"/>
       <c r="B278" s="1">
         <v>76</v>
       </c>
@@ -12804,7 +12800,7 @@
       </c>
     </row>
     <row r="279" spans="1:14">
-      <c r="A279" s="47"/>
+      <c r="A279" s="53"/>
       <c r="B279" s="1">
         <v>77</v>
       </c>
@@ -12846,7 +12842,7 @@
       </c>
     </row>
     <row r="280" spans="1:14">
-      <c r="A280" s="47"/>
+      <c r="A280" s="53"/>
       <c r="B280" s="1">
         <v>78</v>
       </c>
@@ -12888,7 +12884,7 @@
       </c>
     </row>
     <row r="281" spans="1:14">
-      <c r="A281" s="47"/>
+      <c r="A281" s="53"/>
       <c r="B281" s="1">
         <v>79</v>
       </c>
@@ -12930,7 +12926,7 @@
       </c>
     </row>
     <row r="282" spans="1:14">
-      <c r="A282" s="47"/>
+      <c r="A282" s="53"/>
       <c r="B282" s="1">
         <v>80</v>
       </c>
@@ -12972,7 +12968,7 @@
       </c>
     </row>
     <row r="283" spans="1:14">
-      <c r="A283" s="47"/>
+      <c r="A283" s="53"/>
       <c r="B283" s="1">
         <v>81</v>
       </c>
@@ -13014,7 +13010,7 @@
       </c>
     </row>
     <row r="284" spans="1:14">
-      <c r="A284" s="47"/>
+      <c r="A284" s="53"/>
       <c r="B284" s="1">
         <v>82</v>
       </c>
@@ -13056,7 +13052,7 @@
       </c>
     </row>
     <row r="285" spans="1:14">
-      <c r="A285" s="47"/>
+      <c r="A285" s="53"/>
       <c r="B285" s="1">
         <v>83</v>
       </c>
@@ -13098,7 +13094,7 @@
       </c>
     </row>
     <row r="286" spans="1:14">
-      <c r="A286" s="47"/>
+      <c r="A286" s="53"/>
       <c r="B286" s="1">
         <v>84</v>
       </c>
@@ -13140,7 +13136,7 @@
       </c>
     </row>
     <row r="287" spans="1:14">
-      <c r="A287" s="47"/>
+      <c r="A287" s="53"/>
       <c r="B287" s="1">
         <v>85</v>
       </c>
@@ -13182,7 +13178,7 @@
       </c>
     </row>
     <row r="288" spans="1:14">
-      <c r="A288" s="47"/>
+      <c r="A288" s="53"/>
       <c r="B288" s="1">
         <v>86</v>
       </c>
@@ -13224,7 +13220,7 @@
       </c>
     </row>
     <row r="289" spans="1:14">
-      <c r="A289" s="47"/>
+      <c r="A289" s="53"/>
       <c r="B289" s="1">
         <v>87</v>
       </c>
@@ -13266,7 +13262,7 @@
       </c>
     </row>
     <row r="290" spans="1:14">
-      <c r="A290" s="47"/>
+      <c r="A290" s="53"/>
       <c r="B290" s="1">
         <v>88</v>
       </c>
@@ -13308,7 +13304,7 @@
       </c>
     </row>
     <row r="291" spans="1:14">
-      <c r="A291" s="47"/>
+      <c r="A291" s="53"/>
       <c r="B291" s="1">
         <v>89</v>
       </c>
@@ -13350,7 +13346,7 @@
       </c>
     </row>
     <row r="292" spans="1:14">
-      <c r="A292" s="47"/>
+      <c r="A292" s="53"/>
       <c r="B292" s="1">
         <v>90</v>
       </c>
@@ -13392,7 +13388,7 @@
       </c>
     </row>
     <row r="293" spans="1:14">
-      <c r="A293" s="47"/>
+      <c r="A293" s="53"/>
       <c r="B293" s="1">
         <v>91</v>
       </c>
@@ -13434,7 +13430,7 @@
       </c>
     </row>
     <row r="294" spans="1:14">
-      <c r="A294" s="47"/>
+      <c r="A294" s="53"/>
       <c r="B294" s="1">
         <v>92</v>
       </c>
@@ -13476,7 +13472,7 @@
       </c>
     </row>
     <row r="295" spans="1:14">
-      <c r="A295" s="47"/>
+      <c r="A295" s="53"/>
       <c r="B295" s="1">
         <v>93</v>
       </c>
@@ -13518,7 +13514,7 @@
       </c>
     </row>
     <row r="296" spans="1:14">
-      <c r="A296" s="47"/>
+      <c r="A296" s="53"/>
       <c r="B296" s="1">
         <v>94</v>
       </c>
@@ -13560,7 +13556,7 @@
       </c>
     </row>
     <row r="297" spans="1:14">
-      <c r="A297" s="47"/>
+      <c r="A297" s="53"/>
       <c r="B297" s="1">
         <v>95</v>
       </c>
@@ -13602,7 +13598,7 @@
       </c>
     </row>
     <row r="298" spans="1:14">
-      <c r="A298" s="47"/>
+      <c r="A298" s="53"/>
       <c r="B298" s="1">
         <v>96</v>
       </c>
@@ -13644,7 +13640,7 @@
       </c>
     </row>
     <row r="299" spans="1:14">
-      <c r="A299" s="47"/>
+      <c r="A299" s="53"/>
       <c r="B299" s="1">
         <v>97</v>
       </c>
@@ -13686,7 +13682,7 @@
       </c>
     </row>
     <row r="300" spans="1:14">
-      <c r="A300" s="47"/>
+      <c r="A300" s="53"/>
       <c r="B300" s="1">
         <v>98</v>
       </c>
@@ -13728,7 +13724,7 @@
       </c>
     </row>
     <row r="301" spans="1:14">
-      <c r="A301" s="47"/>
+      <c r="A301" s="53"/>
       <c r="B301" s="1">
         <v>99</v>
       </c>
@@ -13770,7 +13766,7 @@
       </c>
     </row>
     <row r="302" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A302" s="48"/>
+      <c r="A302" s="54"/>
       <c r="B302" s="3">
         <v>100</v>
       </c>
@@ -13813,13 +13809,13 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
     <mergeCell ref="A203:A302"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="A103:A202"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="J1:N1"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="A3:A102"/>
   </mergeCells>
@@ -13832,8 +13828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13842,26 +13838,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="50" t="s">
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="52"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="51"/>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="59"/>
+      <c r="A2" s="62"/>
       <c r="B2" s="32" t="s">
         <v>6</v>
       </c>
@@ -13909,7 +13905,7 @@
         <f>AVERAGEIFS('Tabela 1'!G3:G102,'Tabela 1'!$I$3:$I$102, "Globalne")</f>
         <v>1.2085021872110246E-11</v>
       </c>
-      <c r="E3" s="66">
+      <c r="E3" s="45">
         <f>AVERAGEIFS('Tabela 1'!H3:H102,'Tabela 1'!I3:I102, "Globalne")</f>
         <v>30.6</v>
       </c>
@@ -13929,7 +13925,7 @@
         <f>AVERAGEIFS('Tabela 1'!L3:L102,'Tabela 1'!$N$3:$N$102, "Globalne")</f>
         <v>1.6500933952556808E-11</v>
       </c>
-      <c r="J3" s="66">
+      <c r="J3" s="45">
         <f>AVERAGEIFS('Tabela 1'!M3:M102,'Tabela 1'!$N$3:$N$102, "Globalne")</f>
         <v>218.8</v>
       </c>
@@ -13954,7 +13950,7 @@
         <f>AVERAGEIFS('Tabela 1'!G103:G202,'Tabela 1'!$I$103:$I$202, "Globalne")</f>
         <v>8.6994048328651009E-12</v>
       </c>
-      <c r="E4" s="67">
+      <c r="E4" s="46">
         <f>AVERAGEIFS('Tabela 1'!H103:H202,'Tabela 1'!I103:I202, "Globalne")</f>
         <v>32.954545454545453</v>
       </c>
@@ -13974,7 +13970,7 @@
         <f>AVERAGEIFS('Tabela 1'!L103:L202,'Tabela 1'!$N$103:$N$202, "Globalne")</f>
         <v>1.7149948128292181E-11</v>
       </c>
-      <c r="J4" s="67">
+      <c r="J4" s="46">
         <f>AVERAGEIFS('Tabela 1'!M103:M202,'Tabela 1'!$N$103:$N$202, "Globalne")</f>
         <v>233.11111111111111</v>
       </c>
@@ -13999,7 +13995,7 @@
         <f>AVERAGEIFS('Tabela 1'!G203:G302,'Tabela 1'!$I$203:$I$302, "Globalne")</f>
         <v>1.7919045557713115E-11</v>
       </c>
-      <c r="E5" s="68">
+      <c r="E5" s="47">
         <f>AVERAGEIFS('Tabela 1'!H203:H302,'Tabela 1'!I203:I302, "Globalne")</f>
         <v>33.620689655172413</v>
       </c>
@@ -14019,7 +14015,7 @@
         <f>AVERAGEIFS('Tabela 1'!L203:L302,'Tabela 1'!$N$203:$N$302, "Globalne")</f>
         <v>2.6865341492650932E-11</v>
       </c>
-      <c r="J5" s="68">
+      <c r="J5" s="47">
         <f>AVERAGEIFS('Tabela 1'!M203:M302,'Tabela 1'!$N$203:$N$302, "Globalne")</f>
         <v>247.09677419354838</v>
       </c>
@@ -14035,39 +14031,39 @@
     <mergeCell ref="G1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E1140"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="69" customWidth="1"/>
     <col min="2" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="62" t="s">
+      <c r="C1" s="64"/>
+      <c r="D1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="61"/>
+      <c r="E1" s="64"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A2" s="64"/>
+      <c r="A2" s="67"/>
       <c r="B2" s="32" t="s">
         <v>6</v>
       </c>
@@ -14082,95 +14078,6124 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="34">
+      <c r="A3" s="48">
         <v>0</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="20"/>
+      <c r="B3" s="23">
+        <v>0.78737255842245302</v>
+      </c>
+      <c r="C3" s="22">
+        <v>1.9963520551153201E-2</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0.48697045922221138</v>
+      </c>
+      <c r="E3" s="20">
+        <v>0.1648452199179182</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="35">
+      <c r="A4" s="29">
         <v>1</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="2"/>
+      <c r="B4" s="17">
+        <v>0.68737255842245304</v>
+      </c>
+      <c r="C4" s="14">
+        <v>0.2199635205511532</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0.48697045922221138</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.26484521991791821</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="35">
+      <c r="A5" s="29">
         <v>2</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="2"/>
+      <c r="B5" s="17">
+        <v>0.58737255842245306</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0.61996352055115322</v>
+      </c>
+      <c r="D5" s="17">
+        <v>0.6369704592222114</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.26484521991791821</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="35">
+      <c r="A6" s="29">
         <v>3</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="2"/>
+      <c r="B6" s="17">
+        <v>0.68737255842245304</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0.7199635205511532</v>
+      </c>
+      <c r="D6" s="17">
+        <v>0.6369704592222114</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.41484521991791817</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="35">
+      <c r="A7" s="29">
         <v>4</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="2"/>
+      <c r="B7" s="17">
+        <v>0.58737255842245306</v>
+      </c>
+      <c r="C7" s="14">
+        <v>1.4199635205511529</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0.86197045922221149</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.41484521991791817</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="35">
+      <c r="A8" s="29">
         <v>5</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="2"/>
+      <c r="B8" s="17">
+        <v>0.68737255842245304</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1.519963520551153</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0.86197045922221149</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.63984521991791832</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="35">
+      <c r="A9" s="29">
         <v>6</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="2"/>
+      <c r="B9" s="17">
+        <v>0.78737255842245302</v>
+      </c>
+      <c r="C9" s="14">
+        <v>1.6199635205511529</v>
+      </c>
+      <c r="D9" s="17">
+        <v>0.86197045922221149</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.63984521991791832</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="35">
+      <c r="A10" s="29">
         <v>7</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="2"/>
+      <c r="B10" s="17">
+        <v>0.88737255842245299</v>
+      </c>
+      <c r="C10" s="14">
+        <v>1.719963520551153</v>
+      </c>
+      <c r="D10" s="17">
+        <v>0.86197045922221149</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.97734521991791834</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="35">
+      <c r="A11" s="29">
         <v>8</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="2"/>
+      <c r="B11" s="17">
+        <v>0.98737255842245297</v>
+      </c>
+      <c r="C11" s="14">
+        <v>1.819963520551154</v>
+      </c>
+      <c r="D11" s="17">
+        <v>0.86197045922221149</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.97734521991791834</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="29">
+        <v>9</v>
+      </c>
+      <c r="B12" s="17">
+        <v>1.187372558422453</v>
+      </c>
+      <c r="C12" s="14">
+        <v>3.619963520551154</v>
+      </c>
+      <c r="D12" s="17">
+        <v>0.86197045922221149</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1.4835952199179181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="29">
+        <v>10</v>
+      </c>
+      <c r="B13" s="17">
+        <v>1.2873725584224529</v>
+      </c>
+      <c r="C13" s="14">
+        <v>3.5199635205511539</v>
+      </c>
+      <c r="D13" s="17">
+        <v>0.94634545922221147</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1.4835952199179181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="29">
+        <v>11</v>
+      </c>
+      <c r="B14" s="17">
+        <v>1.387372558422453</v>
+      </c>
+      <c r="C14" s="14">
+        <v>3.4199635205511538</v>
+      </c>
+      <c r="D14" s="17">
+        <v>0.94634545922221147</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2.2429702199179178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="29">
+        <v>12</v>
+      </c>
+      <c r="B15" s="17">
+        <v>1.4873725584224531</v>
+      </c>
+      <c r="C15" s="14">
+        <v>3.3199635205511542</v>
+      </c>
+      <c r="D15" s="17">
+        <v>1.072907959222211</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2.2429702199179178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="29">
+        <v>13</v>
+      </c>
+      <c r="B16" s="17">
+        <v>1.587372558422453</v>
+      </c>
+      <c r="C16" s="14">
+        <v>3.2199635205511541</v>
+      </c>
+      <c r="D16" s="17">
+        <v>1.072907959222211</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2.2429702199179178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="29">
+        <v>14</v>
+      </c>
+      <c r="B17" s="17">
+        <v>2.3873725584224541</v>
+      </c>
+      <c r="C17" s="14">
+        <v>6.4199635205511552</v>
+      </c>
+      <c r="D17" s="17">
+        <v>1.172907959222212</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2.2429702199179178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="29">
         <v>15</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="2"/>
-    </row>
+      <c r="B18" s="17">
+        <v>2.4873725584224542</v>
+      </c>
+      <c r="C18" s="14">
+        <v>6.3199635205511564</v>
+      </c>
+      <c r="D18" s="17">
+        <v>1.172907959222212</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2.3429702199179179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="29">
+        <v>16</v>
+      </c>
+      <c r="B19" s="17">
+        <v>2.5873725584224538</v>
+      </c>
+      <c r="C19" s="14">
+        <v>6.2199635205511559</v>
+      </c>
+      <c r="D19" s="17">
+        <v>1.3229079592222119</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2.3429702199179179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="29">
+        <v>17</v>
+      </c>
+      <c r="B20" s="17">
+        <v>2.6873725584224539</v>
+      </c>
+      <c r="C20" s="14">
+        <v>6.1199635205511562</v>
+      </c>
+      <c r="D20" s="17">
+        <v>1.3229079592222119</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2.4929702199179178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="29">
+        <v>18</v>
+      </c>
+      <c r="B21" s="17">
+        <v>2.787372558422454</v>
+      </c>
+      <c r="C21" s="14">
+        <v>6.0199635205511566</v>
+      </c>
+      <c r="D21" s="17">
+        <v>1.547907959222212</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2.4929702199179178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="29">
+        <v>19</v>
+      </c>
+      <c r="B22" s="17">
+        <v>2.8873725584224541</v>
+      </c>
+      <c r="C22" s="14">
+        <v>5.9199635205511569</v>
+      </c>
+      <c r="D22" s="17">
+        <v>1.547907959222212</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2.7179702199179179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="29">
+        <v>20</v>
+      </c>
+      <c r="B23" s="17">
+        <v>2.9873725584224542</v>
+      </c>
+      <c r="C23" s="14">
+        <v>5.8199635205511573</v>
+      </c>
+      <c r="D23" s="17">
+        <v>1.8854079592222119</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2.7179702199179179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="29">
+        <v>21</v>
+      </c>
+      <c r="B24" s="17">
+        <v>3.0873725584224538</v>
+      </c>
+      <c r="C24" s="14">
+        <v>5.7199635205511576</v>
+      </c>
+      <c r="D24" s="17">
+        <v>1.8854079592222119</v>
+      </c>
+      <c r="E24" s="2">
+        <v>3.0554702199179178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="29">
+        <v>22</v>
+      </c>
+      <c r="B25" s="17">
+        <v>3.0873725584224538</v>
+      </c>
+      <c r="C25" s="14">
+        <v>5.619963520551158</v>
+      </c>
+      <c r="D25" s="17">
+        <v>1.8854079592222119</v>
+      </c>
+      <c r="E25" s="2">
+        <v>3.0554702199179178</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="29">
+        <v>23</v>
+      </c>
+      <c r="B26" s="17">
+        <v>2.9873725584224542</v>
+      </c>
+      <c r="C26" s="14">
+        <v>5.5199635205511584</v>
+      </c>
+      <c r="D26" s="17">
+        <v>1.8854079592222119</v>
+      </c>
+      <c r="E26" s="2">
+        <v>3.5617202199179179</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="29">
+        <v>24</v>
+      </c>
+      <c r="B27" s="17">
+        <v>2.9873725584224542</v>
+      </c>
+      <c r="C27" s="14">
+        <v>5.4199635205511587</v>
+      </c>
+      <c r="D27" s="17">
+        <v>1.8854079592222119</v>
+      </c>
+      <c r="E27" s="2">
+        <v>3.5617202199179179</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="29">
+        <v>25</v>
+      </c>
+      <c r="B28" s="17">
+        <v>2.9873725584224542</v>
+      </c>
+      <c r="C28" s="14">
+        <v>5.4199635205511587</v>
+      </c>
+      <c r="D28" s="17">
+        <v>1.8854079592222119</v>
+      </c>
+      <c r="E28" s="2">
+        <v>3.5617202199179179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="29">
+        <v>26</v>
+      </c>
+      <c r="B29" s="17">
+        <v>2.9873725584224542</v>
+      </c>
+      <c r="C29" s="14">
+        <v>5.4199635205511587</v>
+      </c>
+      <c r="D29" s="17">
+        <v>1.985407959222212</v>
+      </c>
+      <c r="E29" s="2">
+        <v>3.5617202199179179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="29">
+        <v>27</v>
+      </c>
+      <c r="B30" s="17">
+        <v>2.9623725584224538</v>
+      </c>
+      <c r="C30" s="14">
+        <v>5.3949635205511584</v>
+      </c>
+      <c r="D30" s="17">
+        <v>1.985407959222212</v>
+      </c>
+      <c r="E30" s="2">
+        <v>3.661720219917918</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="29">
+        <v>28</v>
+      </c>
+      <c r="B31" s="17">
+        <v>2.9623725584224538</v>
+      </c>
+      <c r="C31" s="14">
+        <v>5.369963520551158</v>
+      </c>
+      <c r="D31" s="17">
+        <v>2.1354079592222122</v>
+      </c>
+      <c r="E31" s="2">
+        <v>3.661720219917918</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="29">
+        <v>29</v>
+      </c>
+      <c r="B32" s="17">
+        <v>2.9623725584224538</v>
+      </c>
+      <c r="C32" s="14">
+        <v>5.3449635205511576</v>
+      </c>
+      <c r="D32" s="17">
+        <v>2.1354079592222122</v>
+      </c>
+      <c r="E32" s="2">
+        <v>3.8117202199179179</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="29">
+        <v>30</v>
+      </c>
+      <c r="B33" s="17">
+        <v>2.9373725584224539</v>
+      </c>
+      <c r="C33" s="14">
+        <v>5.3199635205511573</v>
+      </c>
+      <c r="D33" s="17">
+        <v>2.3604079592222118</v>
+      </c>
+      <c r="E33" s="2">
+        <v>3.8117202199179179</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="29">
+        <v>31</v>
+      </c>
+      <c r="B34" s="17">
+        <v>2.9373725584224539</v>
+      </c>
+      <c r="C34" s="14">
+        <v>5.3199635205511573</v>
+      </c>
+      <c r="D34" s="17">
+        <v>2.3604079592222118</v>
+      </c>
+      <c r="E34" s="2">
+        <v>4.0367202199179184</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="29">
+        <v>32</v>
+      </c>
+      <c r="B35" s="17">
+        <v>2.9373725584224539</v>
+      </c>
+      <c r="C35" s="14">
+        <v>5.3074635205511571</v>
+      </c>
+      <c r="D35" s="17">
+        <v>2.3604079592222118</v>
+      </c>
+      <c r="E35" s="2">
+        <v>4.0367202199179184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="29">
+        <v>33</v>
+      </c>
+      <c r="B36" s="17">
+        <v>2.9373725584224539</v>
+      </c>
+      <c r="C36" s="14">
+        <v>5.3074635205511571</v>
+      </c>
+      <c r="D36" s="17">
+        <v>2.3604079592222118</v>
+      </c>
+      <c r="E36" s="2">
+        <v>4.3742202199179188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="29">
+        <v>34</v>
+      </c>
+      <c r="B37" s="17">
+        <v>2.9311225584224538</v>
+      </c>
+      <c r="C37" s="14">
+        <v>5.3012135205511566</v>
+      </c>
+      <c r="D37" s="17">
+        <v>2.3604079592222118</v>
+      </c>
+      <c r="E37" s="2">
+        <v>4.3742202199179188</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="29">
+        <v>35</v>
+      </c>
+      <c r="B38" s="17">
+        <v>2.9311225584224538</v>
+      </c>
+      <c r="C38" s="14">
+        <v>5.2949635205511578</v>
+      </c>
+      <c r="D38" s="17">
+        <v>2.3604079592222118</v>
+      </c>
+      <c r="E38" s="2">
+        <v>4.3742202199179188</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="29">
+        <v>36</v>
+      </c>
+      <c r="B39" s="17">
+        <v>2.9248725584224542</v>
+      </c>
+      <c r="C39" s="14">
+        <v>5.2887135205511582</v>
+      </c>
+      <c r="D39" s="17">
+        <v>2.4604079592222119</v>
+      </c>
+      <c r="E39" s="2">
+        <v>4.3742202199179188</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="29">
+        <v>37</v>
+      </c>
+      <c r="B40" s="17">
+        <v>2.9248725584224542</v>
+      </c>
+      <c r="C40" s="14">
+        <v>5.2824635205511594</v>
+      </c>
+      <c r="D40" s="17">
+        <v>2.4604079592222119</v>
+      </c>
+      <c r="E40" s="2">
+        <v>4.4742202199179184</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="29">
+        <v>38</v>
+      </c>
+      <c r="B41" s="17">
+        <v>2.9248725584224542</v>
+      </c>
+      <c r="C41" s="14">
+        <v>5.2824635205511594</v>
+      </c>
+      <c r="D41" s="17">
+        <v>2.6104079592222118</v>
+      </c>
+      <c r="E41" s="2">
+        <v>4.4742202199179184</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="29">
+        <v>39</v>
+      </c>
+      <c r="B42" s="17">
+        <v>2.9217475584224539</v>
+      </c>
+      <c r="C42" s="14">
+        <v>5.2793385205511587</v>
+      </c>
+      <c r="D42" s="17">
+        <v>2.6104079592222118</v>
+      </c>
+      <c r="E42" s="2">
+        <v>4.6242202199179188</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="29">
+        <v>40</v>
+      </c>
+      <c r="B43" s="17">
+        <v>2.9217475584224539</v>
+      </c>
+      <c r="C43" s="14">
+        <v>5.2793385205511587</v>
+      </c>
+      <c r="D43" s="17">
+        <v>2.6104079592222118</v>
+      </c>
+      <c r="E43" s="2">
+        <v>4.6242202199179188</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="29">
+        <v>41</v>
+      </c>
+      <c r="B44" s="17">
+        <v>2.9217475584224539</v>
+      </c>
+      <c r="C44" s="14">
+        <v>5.2777760205511584</v>
+      </c>
+      <c r="D44" s="17">
+        <v>2.6104079592222118</v>
+      </c>
+      <c r="E44" s="2">
+        <v>4.6242202199179188</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="29">
+        <v>42</v>
+      </c>
+      <c r="B45" s="17">
+        <v>2.9217475584224539</v>
+      </c>
+      <c r="C45" s="14">
+        <v>5.2777760205511584</v>
+      </c>
+      <c r="D45" s="17">
+        <v>2.7104079592222119</v>
+      </c>
+      <c r="E45" s="2">
+        <v>4.6242202199179188</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="29">
+        <v>43</v>
+      </c>
+      <c r="B46" s="17">
+        <v>2.9217475584224539</v>
+      </c>
+      <c r="C46" s="14">
+        <v>5.2785572705511594</v>
+      </c>
+      <c r="D46" s="17">
+        <v>2.7104079592222119</v>
+      </c>
+      <c r="E46" s="2">
+        <v>4.7242202199179184</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="29">
+        <v>44</v>
+      </c>
+      <c r="B47" s="17">
+        <v>2.9217475584224539</v>
+      </c>
+      <c r="C47" s="14">
+        <v>5.2785572705511594</v>
+      </c>
+      <c r="D47" s="17">
+        <v>2.7104079592222119</v>
+      </c>
+      <c r="E47" s="2">
+        <v>4.7242202199179184</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="29">
+        <v>45</v>
+      </c>
+      <c r="B48" s="17">
+        <v>2.9217475584224539</v>
+      </c>
+      <c r="C48" s="14">
+        <v>5.2785572705511594</v>
+      </c>
+      <c r="D48" s="17">
+        <v>2.7104079592222119</v>
+      </c>
+      <c r="E48" s="2">
+        <v>4.8742202199179188</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="29">
+        <v>46</v>
+      </c>
+      <c r="B49" s="17">
+        <v>2.9219428709224542</v>
+      </c>
+      <c r="C49" s="14">
+        <v>5.2787525830511584</v>
+      </c>
+      <c r="D49" s="17">
+        <v>2.7104079592222119</v>
+      </c>
+      <c r="E49" s="2">
+        <v>4.8742202199179188</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="29">
+        <v>47</v>
+      </c>
+      <c r="B50" s="17">
+        <v>2.9219428709224542</v>
+      </c>
+      <c r="C50" s="14">
+        <v>5.2787525830511584</v>
+      </c>
+      <c r="D50" s="17">
+        <v>2.7104079592222119</v>
+      </c>
+      <c r="E50" s="2">
+        <v>4.8742202199179188</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="29">
+        <v>48</v>
+      </c>
+      <c r="B51" s="17">
+        <v>2.9220405271724541</v>
+      </c>
+      <c r="C51" s="14">
+        <v>5.2788502393011587</v>
+      </c>
+      <c r="D51" s="17">
+        <v>2.810407959222212</v>
+      </c>
+      <c r="E51" s="2">
+        <v>4.8742202199179188</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="29">
+        <v>49</v>
+      </c>
+      <c r="B52" s="17">
+        <v>2.9220405271724541</v>
+      </c>
+      <c r="C52" s="14">
+        <v>5.2789478955511591</v>
+      </c>
+      <c r="D52" s="17">
+        <v>2.810407959222212</v>
+      </c>
+      <c r="E52" s="2">
+        <v>4.9742202199179184</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="29">
+        <v>50</v>
+      </c>
+      <c r="B53" s="17">
+        <v>2.9220405271724541</v>
+      </c>
+      <c r="C53" s="14">
+        <v>5.2789478955511591</v>
+      </c>
+      <c r="D53" s="17">
+        <v>2.810407959222212</v>
+      </c>
+      <c r="E53" s="2">
+        <v>4.9742202199179184</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="29">
+        <v>51</v>
+      </c>
+      <c r="B54" s="17">
+        <v>2.9220405271724541</v>
+      </c>
+      <c r="C54" s="14">
+        <v>5.2789478955511591</v>
+      </c>
+      <c r="D54" s="17">
+        <v>2.810407959222212</v>
+      </c>
+      <c r="E54" s="2">
+        <v>5.1242202199179188</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="29">
+        <v>52</v>
+      </c>
+      <c r="B55" s="17">
+        <v>2.9220649412349542</v>
+      </c>
+      <c r="C55" s="14">
+        <v>5.2789723096136587</v>
+      </c>
+      <c r="D55" s="17">
+        <v>2.810407959222212</v>
+      </c>
+      <c r="E55" s="2">
+        <v>5.1242202199179188</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="29">
+        <v>53</v>
+      </c>
+      <c r="B56" s="17">
+        <v>2.9220649412349542</v>
+      </c>
+      <c r="C56" s="14">
+        <v>5.2789967236761584</v>
+      </c>
+      <c r="D56" s="17">
+        <v>2.810407959222212</v>
+      </c>
+      <c r="E56" s="2">
+        <v>5.1242202199179188</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="29">
+        <v>54</v>
+      </c>
+      <c r="B57" s="17">
+        <v>2.9220649412349542</v>
+      </c>
+      <c r="C57" s="14">
+        <v>5.2789967236761584</v>
+      </c>
+      <c r="D57" s="17">
+        <v>2.9104079592222121</v>
+      </c>
+      <c r="E57" s="2">
+        <v>5.1242202199179188</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="29">
+        <v>55</v>
+      </c>
+      <c r="B58" s="17">
+        <v>2.922077148266204</v>
+      </c>
+      <c r="C58" s="14">
+        <v>5.2790089307074082</v>
+      </c>
+      <c r="D58" s="17">
+        <v>2.9104079592222121</v>
+      </c>
+      <c r="E58" s="2">
+        <v>5.2242202199179184</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="29">
+        <v>56</v>
+      </c>
+      <c r="B59" s="17">
+        <v>2.922077148266204</v>
+      </c>
+      <c r="C59" s="14">
+        <v>5.279021137738658</v>
+      </c>
+      <c r="D59" s="17">
+        <v>2.9104079592222121</v>
+      </c>
+      <c r="E59" s="2">
+        <v>5.2242202199179184</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="29">
+        <v>57</v>
+      </c>
+      <c r="B60" s="17">
+        <v>2.922077148266204</v>
+      </c>
+      <c r="C60" s="14">
+        <v>5.279021137738658</v>
+      </c>
+      <c r="D60" s="17">
+        <v>2.9104079592222121</v>
+      </c>
+      <c r="E60" s="2">
+        <v>5.2242202199179184</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="29">
+        <v>58</v>
+      </c>
+      <c r="B61" s="17">
+        <v>2.9220832517818289</v>
+      </c>
+      <c r="C61" s="14">
+        <v>5.2790272412542834</v>
+      </c>
+      <c r="D61" s="17">
+        <v>2.9104079592222121</v>
+      </c>
+      <c r="E61" s="2">
+        <v>5.2242202199179184</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="29">
+        <v>59</v>
+      </c>
+      <c r="B62" s="17">
+        <v>2.9220832517818289</v>
+      </c>
+      <c r="C62" s="14">
+        <v>5.2790333447699087</v>
+      </c>
+      <c r="D62" s="17">
+        <v>2.9104079592222121</v>
+      </c>
+      <c r="E62" s="2">
+        <v>5.2242202199179184</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="29">
+        <v>60</v>
+      </c>
+      <c r="B63" s="17">
+        <v>2.9220893552974538</v>
+      </c>
+      <c r="C63" s="14">
+        <v>5.2790394482855341</v>
+      </c>
+      <c r="D63" s="17">
+        <v>2.9104079592222121</v>
+      </c>
+      <c r="E63" s="2">
+        <v>5.2242202199179184</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="29">
+        <v>61</v>
+      </c>
+      <c r="B64" s="17">
+        <v>2.9220893552974538</v>
+      </c>
+      <c r="C64" s="14">
+        <v>5.2790455518011594</v>
+      </c>
+      <c r="D64" s="17">
+        <v>2.9104079592222121</v>
+      </c>
+      <c r="E64" s="2">
+        <v>5.2242202199179184</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="29">
+        <v>62</v>
+      </c>
+      <c r="B65" s="17">
+        <v>2.9220893552974538</v>
+      </c>
+      <c r="C65" s="14">
+        <v>5.2790516553167848</v>
+      </c>
+      <c r="D65" s="17">
+        <v>2.9104079592222121</v>
+      </c>
+      <c r="E65" s="2">
+        <v>5.2242202199179184</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="29">
+        <v>63</v>
+      </c>
+      <c r="B66" s="17">
+        <v>2.9220954588130792</v>
+      </c>
+      <c r="C66" s="14">
+        <v>5.2790577588324101</v>
+      </c>
+      <c r="D66" s="17">
+        <v>2.9104079592222121</v>
+      </c>
+      <c r="E66" s="2">
+        <v>5.2492202199179188</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="29">
+        <v>64</v>
+      </c>
+      <c r="B67" s="17">
+        <v>2.9220954588130792</v>
+      </c>
+      <c r="C67" s="14">
+        <v>5.2790638623480346</v>
+      </c>
+      <c r="D67" s="17">
+        <v>2.9104079592222121</v>
+      </c>
+      <c r="E67" s="2">
+        <v>5.2492202199179188</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="29">
+        <v>65</v>
+      </c>
+      <c r="B68" s="17">
+        <v>2.9220954588130792</v>
+      </c>
+      <c r="C68" s="14">
+        <v>5.2790638623480346</v>
+      </c>
+      <c r="D68" s="17">
+        <v>2.9104079592222121</v>
+      </c>
+      <c r="E68" s="2">
+        <v>5.2492202199179188</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="29">
+        <v>66</v>
+      </c>
+      <c r="B69" s="17">
+        <v>2.9220954588130792</v>
+      </c>
+      <c r="C69" s="14">
+        <v>5.2790608105902228</v>
+      </c>
+      <c r="D69" s="17">
+        <v>2.9104079592222121</v>
+      </c>
+      <c r="E69" s="2">
+        <v>5.2492202199179188</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="29">
+        <v>67</v>
+      </c>
+      <c r="B70" s="17">
+        <v>2.9220954588130792</v>
+      </c>
+      <c r="C70" s="14">
+        <v>5.2790608105902228</v>
+      </c>
+      <c r="D70" s="17">
+        <v>2.9104079592222121</v>
+      </c>
+      <c r="E70" s="2">
+        <v>5.2492202199179188</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="29">
+        <v>68</v>
+      </c>
+      <c r="B71" s="17">
+        <v>2.9220954588130792</v>
+      </c>
+      <c r="C71" s="14">
+        <v>5.2790623364691287</v>
+      </c>
+      <c r="D71" s="17">
+        <v>2.9104079592222121</v>
+      </c>
+      <c r="E71" s="2">
+        <v>5.2492202199179188</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A72" s="29">
+        <v>69</v>
+      </c>
+      <c r="B72" s="18">
+        <v>2.9220954588130792</v>
+      </c>
+      <c r="C72" s="15">
+        <v>5.2790623364691287</v>
+      </c>
+      <c r="D72" s="17">
+        <v>2.9104079592222121</v>
+      </c>
+      <c r="E72" s="2">
+        <v>5.2585952199179191</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="29">
+        <v>70</v>
+      </c>
+      <c r="D73" s="17">
+        <v>2.911970459222212</v>
+      </c>
+      <c r="E73" s="2">
+        <v>5.2585952199179191</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="29">
+        <v>71</v>
+      </c>
+      <c r="D74" s="17">
+        <v>2.911970459222212</v>
+      </c>
+      <c r="E74" s="2">
+        <v>5.2585952199179191</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="29">
+        <v>72</v>
+      </c>
+      <c r="D75" s="17">
+        <v>2.911970459222212</v>
+      </c>
+      <c r="E75" s="2">
+        <v>5.2585952199179191</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="29">
+        <v>73</v>
+      </c>
+      <c r="D76" s="17">
+        <v>2.911970459222212</v>
+      </c>
+      <c r="E76" s="2">
+        <v>5.2585952199179191</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="29">
+        <v>74</v>
+      </c>
+      <c r="D77" s="17">
+        <v>2.911970459222212</v>
+      </c>
+      <c r="E77" s="2">
+        <v>5.2585952199179191</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="29">
+        <v>75</v>
+      </c>
+      <c r="D78" s="17">
+        <v>2.911970459222212</v>
+      </c>
+      <c r="E78" s="2">
+        <v>5.2585952199179191</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="29">
+        <v>76</v>
+      </c>
+      <c r="D79" s="17">
+        <v>2.911970459222212</v>
+      </c>
+      <c r="E79" s="2">
+        <v>5.2585952199179191</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="29">
+        <v>77</v>
+      </c>
+      <c r="D80" s="17">
+        <v>2.911970459222212</v>
+      </c>
+      <c r="E80" s="2">
+        <v>5.2585952199179191</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="29">
+        <v>78</v>
+      </c>
+      <c r="D81" s="17">
+        <v>2.911970459222212</v>
+      </c>
+      <c r="E81" s="2">
+        <v>5.2585952199179191</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="29">
+        <v>79</v>
+      </c>
+      <c r="D82" s="17">
+        <v>2.911970459222212</v>
+      </c>
+      <c r="E82" s="2">
+        <v>5.2585952199179191</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="29">
+        <v>80</v>
+      </c>
+      <c r="D83" s="17">
+        <v>2.9182204592222121</v>
+      </c>
+      <c r="E83" s="2">
+        <v>5.2585952199179191</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="29">
+        <v>81</v>
+      </c>
+      <c r="D84" s="17">
+        <v>2.9182204592222121</v>
+      </c>
+      <c r="E84" s="2">
+        <v>5.2648452199179188</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="29">
+        <v>82</v>
+      </c>
+      <c r="D85" s="17">
+        <v>2.9182204592222121</v>
+      </c>
+      <c r="E85" s="2">
+        <v>5.2648452199179188</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="29">
+        <v>83</v>
+      </c>
+      <c r="D86" s="17">
+        <v>2.9182204592222121</v>
+      </c>
+      <c r="E86" s="2">
+        <v>5.2648452199179188</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="29">
+        <v>84</v>
+      </c>
+      <c r="D87" s="17">
+        <v>2.9182204592222121</v>
+      </c>
+      <c r="E87" s="2">
+        <v>5.2648452199179188</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="29">
+        <v>85</v>
+      </c>
+      <c r="D88" s="17">
+        <v>2.9182204592222121</v>
+      </c>
+      <c r="E88" s="2">
+        <v>5.2648452199179188</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="29">
+        <v>86</v>
+      </c>
+      <c r="D89" s="17">
+        <v>2.9182204592222121</v>
+      </c>
+      <c r="E89" s="2">
+        <v>5.2648452199179188</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="29">
+        <v>87</v>
+      </c>
+      <c r="D90" s="17">
+        <v>2.9182204592222121</v>
+      </c>
+      <c r="E90" s="2">
+        <v>5.2648452199179188</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="29">
+        <v>88</v>
+      </c>
+      <c r="D91" s="17">
+        <v>2.9182204592222121</v>
+      </c>
+      <c r="E91" s="2">
+        <v>5.2648452199179188</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="29">
+        <v>89</v>
+      </c>
+      <c r="D92" s="17">
+        <v>2.9182204592222121</v>
+      </c>
+      <c r="E92" s="2">
+        <v>5.2648452199179188</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="29">
+        <v>90</v>
+      </c>
+      <c r="D93" s="17">
+        <v>2.9182204592222121</v>
+      </c>
+      <c r="E93" s="2">
+        <v>5.2648452199179188</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="29">
+        <v>91</v>
+      </c>
+      <c r="D94" s="17">
+        <v>2.9182204592222121</v>
+      </c>
+      <c r="E94" s="2">
+        <v>5.2710952199179184</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="29">
+        <v>92</v>
+      </c>
+      <c r="D95" s="17">
+        <v>2.9182204592222121</v>
+      </c>
+      <c r="E95" s="2">
+        <v>5.2710952199179184</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="29">
+        <v>93</v>
+      </c>
+      <c r="D96" s="17">
+        <v>2.9182204592222121</v>
+      </c>
+      <c r="E96" s="2">
+        <v>5.2710952199179184</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="29">
+        <v>94</v>
+      </c>
+      <c r="D97" s="17">
+        <v>2.919782959222212</v>
+      </c>
+      <c r="E97" s="2">
+        <v>5.2710952199179184</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="29">
+        <v>95</v>
+      </c>
+      <c r="D98" s="17">
+        <v>2.919782959222212</v>
+      </c>
+      <c r="E98" s="2">
+        <v>5.2710952199179184</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="29">
+        <v>96</v>
+      </c>
+      <c r="D99" s="17">
+        <v>2.919782959222212</v>
+      </c>
+      <c r="E99" s="2">
+        <v>5.2710952199179184</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="29">
+        <v>97</v>
+      </c>
+      <c r="D100" s="17">
+        <v>2.919782959222212</v>
+      </c>
+      <c r="E100" s="2">
+        <v>5.2710952199179184</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="29">
+        <v>98</v>
+      </c>
+      <c r="D101" s="17">
+        <v>2.919782959222212</v>
+      </c>
+      <c r="E101" s="2">
+        <v>5.2710952199179184</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="29">
+        <v>99</v>
+      </c>
+      <c r="D102" s="17">
+        <v>2.919782959222212</v>
+      </c>
+      <c r="E102" s="2">
+        <v>5.2710952199179184</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="29">
+        <v>100</v>
+      </c>
+      <c r="D103" s="17">
+        <v>2.919782959222212</v>
+      </c>
+      <c r="E103" s="2">
+        <v>5.2710952199179184</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="29">
+        <v>101</v>
+      </c>
+      <c r="D104" s="17">
+        <v>2.919782959222212</v>
+      </c>
+      <c r="E104" s="2">
+        <v>5.2710952199179184</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="29">
+        <v>102</v>
+      </c>
+      <c r="D105" s="17">
+        <v>2.919782959222212</v>
+      </c>
+      <c r="E105" s="2">
+        <v>5.2710952199179184</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="29">
+        <v>103</v>
+      </c>
+      <c r="D106" s="17">
+        <v>2.919782959222212</v>
+      </c>
+      <c r="E106" s="2">
+        <v>5.2710952199179184</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="29">
+        <v>104</v>
+      </c>
+      <c r="D107" s="17">
+        <v>2.919782959222212</v>
+      </c>
+      <c r="E107" s="2">
+        <v>5.2710952199179184</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="29">
+        <v>105</v>
+      </c>
+      <c r="D108" s="17">
+        <v>2.919782959222212</v>
+      </c>
+      <c r="E108" s="2">
+        <v>5.2773452199179181</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="29">
+        <v>106</v>
+      </c>
+      <c r="D109" s="17">
+        <v>2.919782959222212</v>
+      </c>
+      <c r="E109" s="2">
+        <v>5.2773452199179181</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="29">
+        <v>107</v>
+      </c>
+      <c r="D110" s="17">
+        <v>2.919782959222212</v>
+      </c>
+      <c r="E110" s="2">
+        <v>5.2773452199179181</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="29">
+        <v>108</v>
+      </c>
+      <c r="D111" s="17">
+        <v>2.9213454592222119</v>
+      </c>
+      <c r="E111" s="2">
+        <v>5.2773452199179181</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="29">
+        <v>109</v>
+      </c>
+      <c r="D112" s="17">
+        <v>2.9213454592222119</v>
+      </c>
+      <c r="E112" s="2">
+        <v>5.2773452199179181</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="29">
+        <v>110</v>
+      </c>
+      <c r="D113" s="17">
+        <v>2.9213454592222119</v>
+      </c>
+      <c r="E113" s="2">
+        <v>5.2773452199179181</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="29">
+        <v>111</v>
+      </c>
+      <c r="D114" s="17">
+        <v>2.9213454592222119</v>
+      </c>
+      <c r="E114" s="2">
+        <v>5.2773452199179181</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="29">
+        <v>112</v>
+      </c>
+      <c r="D115" s="17">
+        <v>2.9213454592222119</v>
+      </c>
+      <c r="E115" s="2">
+        <v>5.2773452199179181</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="29">
+        <v>113</v>
+      </c>
+      <c r="D116" s="17">
+        <v>2.9213454592222119</v>
+      </c>
+      <c r="E116" s="2">
+        <v>5.2773452199179181</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="29">
+        <v>114</v>
+      </c>
+      <c r="D117" s="17">
+        <v>2.9213454592222119</v>
+      </c>
+      <c r="E117" s="2">
+        <v>5.2773452199179181</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="29">
+        <v>115</v>
+      </c>
+      <c r="D118" s="17">
+        <v>2.9213454592222119</v>
+      </c>
+      <c r="E118" s="2">
+        <v>5.2773452199179181</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="29">
+        <v>116</v>
+      </c>
+      <c r="D119" s="17">
+        <v>2.9213454592222119</v>
+      </c>
+      <c r="E119" s="2">
+        <v>5.2773452199179181</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="29">
+        <v>117</v>
+      </c>
+      <c r="D120" s="17">
+        <v>2.9213454592222119</v>
+      </c>
+      <c r="E120" s="2">
+        <v>5.2773452199179181</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="29">
+        <v>118</v>
+      </c>
+      <c r="D121" s="17">
+        <v>2.9213454592222119</v>
+      </c>
+      <c r="E121" s="2">
+        <v>5.2773452199179181</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="29">
+        <v>119</v>
+      </c>
+      <c r="D122" s="17">
+        <v>2.9213454592222119</v>
+      </c>
+      <c r="E122" s="2">
+        <v>5.2773452199179181</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="29">
+        <v>120</v>
+      </c>
+      <c r="D123" s="17">
+        <v>2.9213454592222119</v>
+      </c>
+      <c r="E123" s="2">
+        <v>5.2773452199179181</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="29">
+        <v>121</v>
+      </c>
+      <c r="D124" s="17">
+        <v>2.9213454592222119</v>
+      </c>
+      <c r="E124" s="2">
+        <v>5.2773452199179181</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="29">
+        <v>122</v>
+      </c>
+      <c r="D125" s="17">
+        <v>2.9213454592222119</v>
+      </c>
+      <c r="E125" s="2">
+        <v>5.2773452199179181</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="29">
+        <v>123</v>
+      </c>
+      <c r="D126" s="17">
+        <v>2.9213454592222119</v>
+      </c>
+      <c r="E126" s="2">
+        <v>5.2773452199179181</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="29">
+        <v>124</v>
+      </c>
+      <c r="D127" s="17">
+        <v>2.9213454592222119</v>
+      </c>
+      <c r="E127" s="2">
+        <v>5.2773452199179181</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="29">
+        <v>125</v>
+      </c>
+      <c r="D128" s="17">
+        <v>2.9213454592222119</v>
+      </c>
+      <c r="E128" s="2">
+        <v>5.2773452199179181</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="29">
+        <v>126</v>
+      </c>
+      <c r="D129" s="17">
+        <v>2.9213454592222119</v>
+      </c>
+      <c r="E129" s="2">
+        <v>5.2773452199179181</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="29">
+        <v>127</v>
+      </c>
+      <c r="D130" s="17">
+        <v>2.9213454592222119</v>
+      </c>
+      <c r="E130" s="2">
+        <v>5.2777358449179177</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="29">
+        <v>128</v>
+      </c>
+      <c r="D131" s="17">
+        <v>2.9213454592222119</v>
+      </c>
+      <c r="E131" s="2">
+        <v>5.2777358449179177</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="29">
+        <v>129</v>
+      </c>
+      <c r="D132" s="17">
+        <v>2.9213454592222119</v>
+      </c>
+      <c r="E132" s="2">
+        <v>5.2777358449179177</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="29">
+        <v>130</v>
+      </c>
+      <c r="D133" s="17">
+        <v>2.9214431154722118</v>
+      </c>
+      <c r="E133" s="2">
+        <v>5.2777358449179177</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="29">
+        <v>131</v>
+      </c>
+      <c r="D134" s="17">
+        <v>2.9214431154722118</v>
+      </c>
+      <c r="E134" s="2">
+        <v>5.2777358449179177</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="29">
+        <v>132</v>
+      </c>
+      <c r="D135" s="17">
+        <v>2.9214431154722118</v>
+      </c>
+      <c r="E135" s="2">
+        <v>5.2777358449179177</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="29">
+        <v>133</v>
+      </c>
+      <c r="D136" s="17">
+        <v>2.9214431154722118</v>
+      </c>
+      <c r="E136" s="2">
+        <v>5.2777358449179177</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="29">
+        <v>134</v>
+      </c>
+      <c r="D137" s="17">
+        <v>2.9214431154722118</v>
+      </c>
+      <c r="E137" s="2">
+        <v>5.2777358449179177</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="29">
+        <v>135</v>
+      </c>
+      <c r="D138" s="17">
+        <v>2.9214431154722118</v>
+      </c>
+      <c r="E138" s="2">
+        <v>5.2777358449179177</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="29">
+        <v>136</v>
+      </c>
+      <c r="D139" s="17">
+        <v>2.9214431154722118</v>
+      </c>
+      <c r="E139" s="2">
+        <v>5.2777358449179177</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="29">
+        <v>137</v>
+      </c>
+      <c r="D140" s="17">
+        <v>2.9214431154722118</v>
+      </c>
+      <c r="E140" s="2">
+        <v>5.2777358449179177</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="29">
+        <v>138</v>
+      </c>
+      <c r="D141" s="17">
+        <v>2.9214431154722118</v>
+      </c>
+      <c r="E141" s="2">
+        <v>5.2777358449179177</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="29">
+        <v>139</v>
+      </c>
+      <c r="D142" s="17">
+        <v>2.9214431154722118</v>
+      </c>
+      <c r="E142" s="2">
+        <v>5.2777358449179177</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="29">
+        <v>140</v>
+      </c>
+      <c r="D143" s="17">
+        <v>2.9214431154722118</v>
+      </c>
+      <c r="E143" s="2">
+        <v>5.2777358449179177</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="29">
+        <v>141</v>
+      </c>
+      <c r="D144" s="17">
+        <v>2.9214431154722118</v>
+      </c>
+      <c r="E144" s="2">
+        <v>5.2777358449179177</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="29">
+        <v>142</v>
+      </c>
+      <c r="D145" s="17">
+        <v>2.9214431154722118</v>
+      </c>
+      <c r="E145" s="2">
+        <v>5.2777358449179177</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="29">
+        <v>143</v>
+      </c>
+      <c r="D146" s="17">
+        <v>2.9214431154722118</v>
+      </c>
+      <c r="E146" s="2">
+        <v>5.2777358449179177</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="29">
+        <v>144</v>
+      </c>
+      <c r="D147" s="17">
+        <v>2.9214431154722118</v>
+      </c>
+      <c r="E147" s="2">
+        <v>5.2777358449179177</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="29">
+        <v>145</v>
+      </c>
+      <c r="D148" s="17">
+        <v>2.9214431154722118</v>
+      </c>
+      <c r="E148" s="2">
+        <v>5.2777358449179177</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="29">
+        <v>146</v>
+      </c>
+      <c r="D149" s="17">
+        <v>2.9214431154722118</v>
+      </c>
+      <c r="E149" s="2">
+        <v>5.2777358449179177</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="29">
+        <v>147</v>
+      </c>
+      <c r="D150" s="17">
+        <v>2.9214431154722118</v>
+      </c>
+      <c r="E150" s="2">
+        <v>5.2777358449179177</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="29">
+        <v>148</v>
+      </c>
+      <c r="D151" s="17">
+        <v>2.9218337404722119</v>
+      </c>
+      <c r="E151" s="2">
+        <v>5.2777358449179177</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="29">
+        <v>149</v>
+      </c>
+      <c r="D152" s="17">
+        <v>2.9218337404722119</v>
+      </c>
+      <c r="E152" s="2">
+        <v>5.2781264699179173</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="29">
+        <v>150</v>
+      </c>
+      <c r="D153" s="17">
+        <v>2.9218337404722119</v>
+      </c>
+      <c r="E153" s="2">
+        <v>5.2781264699179173</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="29">
+        <v>151</v>
+      </c>
+      <c r="D154" s="17">
+        <v>2.9218337404722119</v>
+      </c>
+      <c r="E154" s="2">
+        <v>5.2781264699179173</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="29">
+        <v>152</v>
+      </c>
+      <c r="D155" s="17">
+        <v>2.9218337404722119</v>
+      </c>
+      <c r="E155" s="2">
+        <v>5.2781264699179173</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="29">
+        <v>153</v>
+      </c>
+      <c r="D156" s="17">
+        <v>2.9218337404722119</v>
+      </c>
+      <c r="E156" s="2">
+        <v>5.2781264699179173</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="29">
+        <v>154</v>
+      </c>
+      <c r="D157" s="17">
+        <v>2.9218337404722119</v>
+      </c>
+      <c r="E157" s="2">
+        <v>5.2781264699179173</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="29">
+        <v>155</v>
+      </c>
+      <c r="D158" s="17">
+        <v>2.9218337404722119</v>
+      </c>
+      <c r="E158" s="2">
+        <v>5.2781264699179173</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="29">
+        <v>156</v>
+      </c>
+      <c r="D159" s="17">
+        <v>2.9218337404722119</v>
+      </c>
+      <c r="E159" s="2">
+        <v>5.2781264699179173</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="29">
+        <v>157</v>
+      </c>
+      <c r="D160" s="17">
+        <v>2.9218337404722119</v>
+      </c>
+      <c r="E160" s="2">
+        <v>5.2781264699179173</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="29">
+        <v>158</v>
+      </c>
+      <c r="D161" s="17">
+        <v>2.9218337404722119</v>
+      </c>
+      <c r="E161" s="2">
+        <v>5.2781264699179173</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="29">
+        <v>159</v>
+      </c>
+      <c r="D162" s="17">
+        <v>2.9218337404722119</v>
+      </c>
+      <c r="E162" s="2">
+        <v>5.2781264699179173</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="29">
+        <v>160</v>
+      </c>
+      <c r="D163" s="17">
+        <v>2.9218337404722119</v>
+      </c>
+      <c r="E163" s="2">
+        <v>5.2781264699179173</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="29">
+        <v>161</v>
+      </c>
+      <c r="D164" s="17">
+        <v>2.9218337404722119</v>
+      </c>
+      <c r="E164" s="2">
+        <v>5.2781264699179173</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="29">
+        <v>162</v>
+      </c>
+      <c r="D165" s="17">
+        <v>2.9218337404722119</v>
+      </c>
+      <c r="E165" s="2">
+        <v>5.2781264699179173</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="29">
+        <v>163</v>
+      </c>
+      <c r="D166" s="17">
+        <v>2.9218337404722119</v>
+      </c>
+      <c r="E166" s="2">
+        <v>5.2781264699179173</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="29">
+        <v>164</v>
+      </c>
+      <c r="D167" s="17">
+        <v>2.9218337404722119</v>
+      </c>
+      <c r="E167" s="2">
+        <v>5.2781264699179173</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="29">
+        <v>165</v>
+      </c>
+      <c r="D168" s="17">
+        <v>2.9218337404722119</v>
+      </c>
+      <c r="E168" s="2">
+        <v>5.2781264699179173</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="29">
+        <v>166</v>
+      </c>
+      <c r="D169" s="17">
+        <v>2.9218337404722119</v>
+      </c>
+      <c r="E169" s="2">
+        <v>5.2781264699179173</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="29">
+        <v>167</v>
+      </c>
+      <c r="D170" s="17">
+        <v>2.9218337404722119</v>
+      </c>
+      <c r="E170" s="2">
+        <v>5.278517094917917</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="29">
+        <v>168</v>
+      </c>
+      <c r="D171" s="17">
+        <v>2.9218337404722119</v>
+      </c>
+      <c r="E171" s="2">
+        <v>5.278517094917917</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="29">
+        <v>169</v>
+      </c>
+      <c r="D172" s="17">
+        <v>2.9218337404722119</v>
+      </c>
+      <c r="E172" s="2">
+        <v>5.278517094917917</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="29">
+        <v>170</v>
+      </c>
+      <c r="D173" s="17">
+        <v>2.9219313967222118</v>
+      </c>
+      <c r="E173" s="2">
+        <v>5.278517094917917</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="29">
+        <v>171</v>
+      </c>
+      <c r="D174" s="17">
+        <v>2.9219313967222118</v>
+      </c>
+      <c r="E174" s="2">
+        <v>5.278517094917917</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="29">
+        <v>172</v>
+      </c>
+      <c r="D175" s="17">
+        <v>2.9219313967222118</v>
+      </c>
+      <c r="E175" s="2">
+        <v>5.278517094917917</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="29">
+        <v>173</v>
+      </c>
+      <c r="D176" s="17">
+        <v>2.9219313967222118</v>
+      </c>
+      <c r="E176" s="2">
+        <v>5.278517094917917</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="29">
+        <v>174</v>
+      </c>
+      <c r="D177" s="17">
+        <v>2.9219313967222118</v>
+      </c>
+      <c r="E177" s="2">
+        <v>5.278517094917917</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="29">
+        <v>175</v>
+      </c>
+      <c r="D178" s="17">
+        <v>2.9219313967222118</v>
+      </c>
+      <c r="E178" s="2">
+        <v>5.278517094917917</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="29">
+        <v>176</v>
+      </c>
+      <c r="D179" s="17">
+        <v>2.9219313967222118</v>
+      </c>
+      <c r="E179" s="2">
+        <v>5.278517094917917</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="29">
+        <v>177</v>
+      </c>
+      <c r="D180" s="17">
+        <v>2.9219313967222118</v>
+      </c>
+      <c r="E180" s="2">
+        <v>5.278517094917917</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="29">
+        <v>178</v>
+      </c>
+      <c r="D181" s="17">
+        <v>2.9219313967222118</v>
+      </c>
+      <c r="E181" s="2">
+        <v>5.278517094917917</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="29">
+        <v>179</v>
+      </c>
+      <c r="D182" s="17">
+        <v>2.9219313967222118</v>
+      </c>
+      <c r="E182" s="2">
+        <v>5.278517094917917</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="29">
+        <v>180</v>
+      </c>
+      <c r="D183" s="17">
+        <v>2.9219313967222118</v>
+      </c>
+      <c r="E183" s="2">
+        <v>5.278517094917917</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="29">
+        <v>181</v>
+      </c>
+      <c r="D184" s="17">
+        <v>2.9219313967222118</v>
+      </c>
+      <c r="E184" s="2">
+        <v>5.278517094917917</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="29">
+        <v>182</v>
+      </c>
+      <c r="D185" s="17">
+        <v>2.9219313967222118</v>
+      </c>
+      <c r="E185" s="2">
+        <v>5.278517094917917</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="29">
+        <v>183</v>
+      </c>
+      <c r="D186" s="17">
+        <v>2.9219313967222118</v>
+      </c>
+      <c r="E186" s="2">
+        <v>5.278517094917917</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="29">
+        <v>184</v>
+      </c>
+      <c r="D187" s="17">
+        <v>2.9219313967222118</v>
+      </c>
+      <c r="E187" s="2">
+        <v>5.278517094917917</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="29">
+        <v>185</v>
+      </c>
+      <c r="D188" s="17">
+        <v>2.9219313967222118</v>
+      </c>
+      <c r="E188" s="2">
+        <v>5.278517094917917</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="29">
+        <v>186</v>
+      </c>
+      <c r="D189" s="17">
+        <v>2.9219313967222118</v>
+      </c>
+      <c r="E189" s="2">
+        <v>5.278517094917917</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="29">
+        <v>187</v>
+      </c>
+      <c r="D190" s="17">
+        <v>2.9219313967222118</v>
+      </c>
+      <c r="E190" s="2">
+        <v>5.278517094917917</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="29">
+        <v>188</v>
+      </c>
+      <c r="D191" s="17">
+        <v>2.9219313967222118</v>
+      </c>
+      <c r="E191" s="2">
+        <v>5.278517094917917</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="29">
+        <v>189</v>
+      </c>
+      <c r="D192" s="17">
+        <v>2.9219313967222118</v>
+      </c>
+      <c r="E192" s="2">
+        <v>5.2789077199179166</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="29">
+        <v>190</v>
+      </c>
+      <c r="D193" s="17">
+        <v>2.9219313967222118</v>
+      </c>
+      <c r="E193" s="2">
+        <v>5.2789077199179166</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="29">
+        <v>191</v>
+      </c>
+      <c r="D194" s="17">
+        <v>2.9219313967222118</v>
+      </c>
+      <c r="E194" s="2">
+        <v>5.2789077199179166</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="29">
+        <v>192</v>
+      </c>
+      <c r="D195" s="17">
+        <v>2.9220290529722122</v>
+      </c>
+      <c r="E195" s="2">
+        <v>5.2789077199179166</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="29">
+        <v>193</v>
+      </c>
+      <c r="D196" s="17">
+        <v>2.9220290529722122</v>
+      </c>
+      <c r="E196" s="2">
+        <v>5.2789077199179166</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="29">
+        <v>194</v>
+      </c>
+      <c r="D197" s="17">
+        <v>2.9220290529722122</v>
+      </c>
+      <c r="E197" s="2">
+        <v>5.2789077199179166</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="29">
+        <v>195</v>
+      </c>
+      <c r="D198" s="17">
+        <v>2.9220290529722122</v>
+      </c>
+      <c r="E198" s="2">
+        <v>5.2789077199179166</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="29">
+        <v>196</v>
+      </c>
+      <c r="D199" s="17">
+        <v>2.9220290529722122</v>
+      </c>
+      <c r="E199" s="2">
+        <v>5.2789077199179166</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="29">
+        <v>197</v>
+      </c>
+      <c r="D200" s="17">
+        <v>2.9220290529722122</v>
+      </c>
+      <c r="E200" s="2">
+        <v>5.2789077199179166</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="29">
+        <v>198</v>
+      </c>
+      <c r="D201" s="17">
+        <v>2.9220290529722122</v>
+      </c>
+      <c r="E201" s="2">
+        <v>5.2789077199179166</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="29">
+        <v>199</v>
+      </c>
+      <c r="D202" s="17">
+        <v>2.9220290529722122</v>
+      </c>
+      <c r="E202" s="2">
+        <v>5.2789077199179166</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="29">
+        <v>200</v>
+      </c>
+      <c r="D203" s="17">
+        <v>2.9220290529722122</v>
+      </c>
+      <c r="E203" s="2">
+        <v>5.2789077199179166</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="29">
+        <v>201</v>
+      </c>
+      <c r="D204" s="17">
+        <v>2.9220290529722122</v>
+      </c>
+      <c r="E204" s="2">
+        <v>5.2789077199179166</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="29">
+        <v>202</v>
+      </c>
+      <c r="D205" s="17">
+        <v>2.9220290529722122</v>
+      </c>
+      <c r="E205" s="2">
+        <v>5.2789077199179166</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="29">
+        <v>203</v>
+      </c>
+      <c r="D206" s="17">
+        <v>2.9220290529722122</v>
+      </c>
+      <c r="E206" s="2">
+        <v>5.2789077199179166</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="29">
+        <v>204</v>
+      </c>
+      <c r="D207" s="17">
+        <v>2.9220290529722122</v>
+      </c>
+      <c r="E207" s="2">
+        <v>5.2789077199179166</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="29">
+        <v>205</v>
+      </c>
+      <c r="D208" s="17">
+        <v>2.9220290529722122</v>
+      </c>
+      <c r="E208" s="2">
+        <v>5.2789077199179166</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="29">
+        <v>206</v>
+      </c>
+      <c r="D209" s="17">
+        <v>2.9220290529722122</v>
+      </c>
+      <c r="E209" s="2">
+        <v>5.2789077199179166</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="29">
+        <v>207</v>
+      </c>
+      <c r="D210" s="17">
+        <v>2.9220290529722122</v>
+      </c>
+      <c r="E210" s="2">
+        <v>5.2789077199179166</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="29">
+        <v>208</v>
+      </c>
+      <c r="D211" s="17">
+        <v>2.9220290529722122</v>
+      </c>
+      <c r="E211" s="2">
+        <v>5.2789077199179166</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="29">
+        <v>209</v>
+      </c>
+      <c r="D212" s="17">
+        <v>2.9220290529722122</v>
+      </c>
+      <c r="E212" s="2">
+        <v>5.2789077199179166</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="29">
+        <v>210</v>
+      </c>
+      <c r="D213" s="17">
+        <v>2.9220290529722122</v>
+      </c>
+      <c r="E213" s="2">
+        <v>5.2789077199179166</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="29">
+        <v>211</v>
+      </c>
+      <c r="D214" s="17">
+        <v>2.9220290529722122</v>
+      </c>
+      <c r="E214" s="2">
+        <v>5.2789077199179166</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="29">
+        <v>212</v>
+      </c>
+      <c r="D215" s="17">
+        <v>2.9220290529722122</v>
+      </c>
+      <c r="E215" s="2">
+        <v>5.2789077199179166</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="29">
+        <v>213</v>
+      </c>
+      <c r="D216" s="17">
+        <v>2.9220290529722122</v>
+      </c>
+      <c r="E216" s="2">
+        <v>5.2789077199179166</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="29">
+        <v>214</v>
+      </c>
+      <c r="D217" s="17">
+        <v>2.9220290529722122</v>
+      </c>
+      <c r="E217" s="2">
+        <v>5.2789077199179166</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="29">
+        <v>215</v>
+      </c>
+      <c r="D218" s="17">
+        <v>2.9220290529722122</v>
+      </c>
+      <c r="E218" s="2">
+        <v>5.2789077199179166</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="29">
+        <v>216</v>
+      </c>
+      <c r="D219" s="17">
+        <v>2.9220290529722122</v>
+      </c>
+      <c r="E219" s="2">
+        <v>5.2789077199179166</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="29">
+        <v>217</v>
+      </c>
+      <c r="D220" s="17">
+        <v>2.9220290529722122</v>
+      </c>
+      <c r="E220" s="2">
+        <v>5.2789077199179166</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="29">
+        <v>218</v>
+      </c>
+      <c r="D221" s="17">
+        <v>2.9220534670347118</v>
+      </c>
+      <c r="E221" s="2">
+        <v>5.2789077199179166</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="29">
+        <v>219</v>
+      </c>
+      <c r="D222" s="17">
+        <v>2.9220534670347118</v>
+      </c>
+      <c r="E222" s="2">
+        <v>5.2789321339804163</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="29">
+        <v>220</v>
+      </c>
+      <c r="D223" s="17">
+        <v>2.9220534670347118</v>
+      </c>
+      <c r="E223" s="2">
+        <v>5.2789321339804163</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="29">
+        <v>221</v>
+      </c>
+      <c r="D224" s="17">
+        <v>2.9220534670347118</v>
+      </c>
+      <c r="E224" s="2">
+        <v>5.2789321339804163</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="29">
+        <v>222</v>
+      </c>
+      <c r="D225" s="17">
+        <v>2.9220534670347118</v>
+      </c>
+      <c r="E225" s="2">
+        <v>5.2789321339804163</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="29">
+        <v>223</v>
+      </c>
+      <c r="D226" s="17">
+        <v>2.9220534670347118</v>
+      </c>
+      <c r="E226" s="2">
+        <v>5.2789321339804163</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="29">
+        <v>224</v>
+      </c>
+      <c r="D227" s="17">
+        <v>2.9220534670347118</v>
+      </c>
+      <c r="E227" s="2">
+        <v>5.2789321339804163</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="29">
+        <v>225</v>
+      </c>
+      <c r="D228" s="17">
+        <v>2.9220534670347118</v>
+      </c>
+      <c r="E228" s="2">
+        <v>5.2789321339804163</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="29">
+        <v>226</v>
+      </c>
+      <c r="D229" s="17">
+        <v>2.9220534670347118</v>
+      </c>
+      <c r="E229" s="2">
+        <v>5.2789321339804163</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="29">
+        <v>227</v>
+      </c>
+      <c r="D230" s="17">
+        <v>2.9220534670347118</v>
+      </c>
+      <c r="E230" s="2">
+        <v>5.2789321339804163</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="29">
+        <v>228</v>
+      </c>
+      <c r="D231" s="17">
+        <v>2.9220534670347118</v>
+      </c>
+      <c r="E231" s="2">
+        <v>5.2789321339804163</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="29">
+        <v>229</v>
+      </c>
+      <c r="D232" s="17">
+        <v>2.9220534670347118</v>
+      </c>
+      <c r="E232" s="2">
+        <v>5.2789321339804163</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="29">
+        <v>230</v>
+      </c>
+      <c r="D233" s="17">
+        <v>2.9220534670347118</v>
+      </c>
+      <c r="E233" s="2">
+        <v>5.2789321339804163</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="29">
+        <v>231</v>
+      </c>
+      <c r="D234" s="17">
+        <v>2.9220534670347118</v>
+      </c>
+      <c r="E234" s="2">
+        <v>5.2789321339804163</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="29">
+        <v>232</v>
+      </c>
+      <c r="D235" s="17">
+        <v>2.9220534670347118</v>
+      </c>
+      <c r="E235" s="2">
+        <v>5.2789321339804163</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="29">
+        <v>233</v>
+      </c>
+      <c r="D236" s="17">
+        <v>2.9220534670347118</v>
+      </c>
+      <c r="E236" s="2">
+        <v>5.2789321339804163</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="29">
+        <v>234</v>
+      </c>
+      <c r="D237" s="17">
+        <v>2.9220534670347118</v>
+      </c>
+      <c r="E237" s="2">
+        <v>5.2789321339804163</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="29">
+        <v>235</v>
+      </c>
+      <c r="D238" s="17">
+        <v>2.9220534670347118</v>
+      </c>
+      <c r="E238" s="2">
+        <v>5.2789321339804163</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="29">
+        <v>236</v>
+      </c>
+      <c r="D239" s="17">
+        <v>2.9220534670347118</v>
+      </c>
+      <c r="E239" s="2">
+        <v>5.2789321339804163</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="29">
+        <v>237</v>
+      </c>
+      <c r="D240" s="17">
+        <v>2.9220534670347118</v>
+      </c>
+      <c r="E240" s="2">
+        <v>5.2789321339804163</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="29">
+        <v>238</v>
+      </c>
+      <c r="D241" s="17">
+        <v>2.9220534670347118</v>
+      </c>
+      <c r="E241" s="2">
+        <v>5.2789321339804163</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="29">
+        <v>239</v>
+      </c>
+      <c r="D242" s="17">
+        <v>2.9220534670347118</v>
+      </c>
+      <c r="E242" s="2">
+        <v>5.2789321339804163</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="29">
+        <v>240</v>
+      </c>
+      <c r="D243" s="17">
+        <v>2.9220534670347118</v>
+      </c>
+      <c r="E243" s="2">
+        <v>5.2789321339804163</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="29">
+        <v>241</v>
+      </c>
+      <c r="D244" s="17">
+        <v>2.9220534670347118</v>
+      </c>
+      <c r="E244" s="2">
+        <v>5.2790297902304166</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="29">
+        <v>242</v>
+      </c>
+      <c r="D245" s="17">
+        <v>2.9220534670347118</v>
+      </c>
+      <c r="E245" s="2">
+        <v>5.2790297902304166</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="29">
+        <v>243</v>
+      </c>
+      <c r="D246" s="17">
+        <v>2.9220534670347118</v>
+      </c>
+      <c r="E246" s="2">
+        <v>5.2790297902304166</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="29">
+        <v>244</v>
+      </c>
+      <c r="D247" s="17">
+        <v>2.9220778810972119</v>
+      </c>
+      <c r="E247" s="2">
+        <v>5.2790297902304166</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="29">
+        <v>245</v>
+      </c>
+      <c r="D248" s="17">
+        <v>2.9220778810972119</v>
+      </c>
+      <c r="E248" s="2">
+        <v>5.2790297902304166</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="29">
+        <v>246</v>
+      </c>
+      <c r="D249" s="17">
+        <v>2.9220778810972119</v>
+      </c>
+      <c r="E249" s="2">
+        <v>5.2790297902304166</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="29">
+        <v>247</v>
+      </c>
+      <c r="D250" s="17">
+        <v>2.9220778810972119</v>
+      </c>
+      <c r="E250" s="2">
+        <v>5.2790297902304166</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="29">
+        <v>248</v>
+      </c>
+      <c r="D251" s="17">
+        <v>2.9220778810972119</v>
+      </c>
+      <c r="E251" s="2">
+        <v>5.2790297902304166</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="29">
+        <v>249</v>
+      </c>
+      <c r="D252" s="17">
+        <v>2.9220778810972119</v>
+      </c>
+      <c r="E252" s="2">
+        <v>5.2790297902304166</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="29">
+        <v>250</v>
+      </c>
+      <c r="D253" s="17">
+        <v>2.9220778810972119</v>
+      </c>
+      <c r="E253" s="2">
+        <v>5.2790297902304166</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="29">
+        <v>251</v>
+      </c>
+      <c r="D254" s="17">
+        <v>2.9220778810972119</v>
+      </c>
+      <c r="E254" s="2">
+        <v>5.2790297902304166</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="29">
+        <v>252</v>
+      </c>
+      <c r="D255" s="17">
+        <v>2.9220778810972119</v>
+      </c>
+      <c r="E255" s="2">
+        <v>5.2790297902304166</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="29">
+        <v>253</v>
+      </c>
+      <c r="D256" s="17">
+        <v>2.9220778810972119</v>
+      </c>
+      <c r="E256" s="2">
+        <v>5.2790297902304166</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="29">
+        <v>254</v>
+      </c>
+      <c r="D257" s="17">
+        <v>2.9220778810972119</v>
+      </c>
+      <c r="E257" s="2">
+        <v>5.2790297902304166</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="29">
+        <v>255</v>
+      </c>
+      <c r="D258" s="17">
+        <v>2.9220778810972119</v>
+      </c>
+      <c r="E258" s="2">
+        <v>5.2790297902304166</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="29">
+        <v>256</v>
+      </c>
+      <c r="D259" s="17">
+        <v>2.9220778810972119</v>
+      </c>
+      <c r="E259" s="2">
+        <v>5.2790297902304166</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="29">
+        <v>257</v>
+      </c>
+      <c r="D260" s="17">
+        <v>2.9220778810972119</v>
+      </c>
+      <c r="E260" s="2">
+        <v>5.2790297902304166</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="29">
+        <v>258</v>
+      </c>
+      <c r="D261" s="17">
+        <v>2.9220778810972119</v>
+      </c>
+      <c r="E261" s="2">
+        <v>5.2790297902304166</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="29">
+        <v>259</v>
+      </c>
+      <c r="D262" s="17">
+        <v>2.9220778810972119</v>
+      </c>
+      <c r="E262" s="2">
+        <v>5.2790297902304166</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="29">
+        <v>260</v>
+      </c>
+      <c r="D263" s="17">
+        <v>2.9220778810972119</v>
+      </c>
+      <c r="E263" s="2">
+        <v>5.2790297902304166</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="29">
+        <v>261</v>
+      </c>
+      <c r="D264" s="17">
+        <v>2.9220778810972119</v>
+      </c>
+      <c r="E264" s="2">
+        <v>5.2790297902304166</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="29">
+        <v>262</v>
+      </c>
+      <c r="D265" s="17">
+        <v>2.9220778810972119</v>
+      </c>
+      <c r="E265" s="2">
+        <v>5.2790297902304166</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="29">
+        <v>263</v>
+      </c>
+      <c r="D266" s="17">
+        <v>2.9220778810972119</v>
+      </c>
+      <c r="E266" s="2">
+        <v>5.2790297902304166</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="29">
+        <v>264</v>
+      </c>
+      <c r="D267" s="17">
+        <v>2.9220778810972119</v>
+      </c>
+      <c r="E267" s="2">
+        <v>5.2790297902304166</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="29">
+        <v>265</v>
+      </c>
+      <c r="D268" s="17">
+        <v>2.9220778810972119</v>
+      </c>
+      <c r="E268" s="2">
+        <v>5.2790297902304166</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="29">
+        <v>266</v>
+      </c>
+      <c r="D269" s="17">
+        <v>2.9220778810972119</v>
+      </c>
+      <c r="E269" s="2">
+        <v>5.2790297902304166</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="29">
+        <v>267</v>
+      </c>
+      <c r="D270" s="17">
+        <v>2.9220778810972119</v>
+      </c>
+      <c r="E270" s="2">
+        <v>5.2790297902304166</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="29">
+        <v>268</v>
+      </c>
+      <c r="D271" s="17">
+        <v>2.9220778810972119</v>
+      </c>
+      <c r="E271" s="2">
+        <v>5.2790297902304166</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="29">
+        <v>269</v>
+      </c>
+      <c r="D272" s="17">
+        <v>2.9220778810972119</v>
+      </c>
+      <c r="E272" s="2">
+        <v>5.2790297902304166</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="29">
+        <v>270</v>
+      </c>
+      <c r="D273" s="17">
+        <v>2.9220778810972119</v>
+      </c>
+      <c r="E273" s="2">
+        <v>5.2790297902304166</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" s="29">
+        <v>271</v>
+      </c>
+      <c r="D274" s="17">
+        <v>2.9220778810972119</v>
+      </c>
+      <c r="E274" s="2">
+        <v>5.2790297902304166</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="29">
+        <v>272</v>
+      </c>
+      <c r="D275" s="17">
+        <v>2.9220778810972119</v>
+      </c>
+      <c r="E275" s="2">
+        <v>5.2790297902304166</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="29">
+        <v>273</v>
+      </c>
+      <c r="D276" s="17">
+        <v>2.9220778810972119</v>
+      </c>
+      <c r="E276" s="2">
+        <v>5.2790297902304166</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="29">
+        <v>274</v>
+      </c>
+      <c r="D277" s="17">
+        <v>2.9220839846128368</v>
+      </c>
+      <c r="E277" s="2">
+        <v>5.2790297902304166</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" s="29">
+        <v>275</v>
+      </c>
+      <c r="D278" s="17">
+        <v>2.9220839846128368</v>
+      </c>
+      <c r="E278" s="2">
+        <v>5.279035893746042</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="29">
+        <v>276</v>
+      </c>
+      <c r="D279" s="17">
+        <v>2.9220839846128368</v>
+      </c>
+      <c r="E279" s="2">
+        <v>5.279035893746042</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" s="29">
+        <v>277</v>
+      </c>
+      <c r="D280" s="17">
+        <v>2.9220839846128368</v>
+      </c>
+      <c r="E280" s="2">
+        <v>5.279035893746042</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" s="29">
+        <v>278</v>
+      </c>
+      <c r="D281" s="17">
+        <v>2.9220839846128368</v>
+      </c>
+      <c r="E281" s="2">
+        <v>5.279035893746042</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" s="29">
+        <v>279</v>
+      </c>
+      <c r="D282" s="17">
+        <v>2.9220839846128368</v>
+      </c>
+      <c r="E282" s="2">
+        <v>5.279035893746042</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" s="29">
+        <v>280</v>
+      </c>
+      <c r="D283" s="17">
+        <v>2.9220839846128368</v>
+      </c>
+      <c r="E283" s="2">
+        <v>5.279035893746042</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="29">
+        <v>281</v>
+      </c>
+      <c r="D284" s="17">
+        <v>2.9220839846128368</v>
+      </c>
+      <c r="E284" s="2">
+        <v>5.279035893746042</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" s="29">
+        <v>282</v>
+      </c>
+      <c r="D285" s="17">
+        <v>2.9220839846128368</v>
+      </c>
+      <c r="E285" s="2">
+        <v>5.279035893746042</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" s="29">
+        <v>283</v>
+      </c>
+      <c r="D286" s="17">
+        <v>2.9220839846128368</v>
+      </c>
+      <c r="E286" s="2">
+        <v>5.279035893746042</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" s="29">
+        <v>284</v>
+      </c>
+      <c r="D287" s="17">
+        <v>2.9220839846128368</v>
+      </c>
+      <c r="E287" s="2">
+        <v>5.279035893746042</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" s="29">
+        <v>285</v>
+      </c>
+      <c r="D288" s="17">
+        <v>2.9220839846128368</v>
+      </c>
+      <c r="E288" s="2">
+        <v>5.279035893746042</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" s="29">
+        <v>286</v>
+      </c>
+      <c r="D289" s="17">
+        <v>2.9220839846128368</v>
+      </c>
+      <c r="E289" s="2">
+        <v>5.279035893746042</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" s="29">
+        <v>287</v>
+      </c>
+      <c r="D290" s="17">
+        <v>2.9220839846128368</v>
+      </c>
+      <c r="E290" s="2">
+        <v>5.279035893746042</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" s="29">
+        <v>288</v>
+      </c>
+      <c r="D291" s="17">
+        <v>2.9220839846128368</v>
+      </c>
+      <c r="E291" s="2">
+        <v>5.279035893746042</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" s="29">
+        <v>289</v>
+      </c>
+      <c r="D292" s="17">
+        <v>2.9220839846128368</v>
+      </c>
+      <c r="E292" s="2">
+        <v>5.279035893746042</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" s="29">
+        <v>290</v>
+      </c>
+      <c r="D293" s="17">
+        <v>2.9220839846128368</v>
+      </c>
+      <c r="E293" s="2">
+        <v>5.279035893746042</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" s="29">
+        <v>291</v>
+      </c>
+      <c r="D294" s="17">
+        <v>2.9220839846128368</v>
+      </c>
+      <c r="E294" s="2">
+        <v>5.279035893746042</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" s="29">
+        <v>292</v>
+      </c>
+      <c r="D295" s="17">
+        <v>2.9220839846128368</v>
+      </c>
+      <c r="E295" s="2">
+        <v>5.279035893746042</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" s="29">
+        <v>293</v>
+      </c>
+      <c r="D296" s="17">
+        <v>2.9220839846128368</v>
+      </c>
+      <c r="E296" s="2">
+        <v>5.279035893746042</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" s="29">
+        <v>294</v>
+      </c>
+      <c r="D297" s="17">
+        <v>2.9220839846128368</v>
+      </c>
+      <c r="E297" s="2">
+        <v>5.279035893746042</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" s="29">
+        <v>295</v>
+      </c>
+      <c r="D298" s="17">
+        <v>2.9220839846128368</v>
+      </c>
+      <c r="E298" s="2">
+        <v>5.279035893746042</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" s="29">
+        <v>296</v>
+      </c>
+      <c r="D299" s="17">
+        <v>2.9220839846128368</v>
+      </c>
+      <c r="E299" s="2">
+        <v>5.279035893746042</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" s="29">
+        <v>297</v>
+      </c>
+      <c r="D300" s="17">
+        <v>2.9220839846128368</v>
+      </c>
+      <c r="E300" s="2">
+        <v>5.279035893746042</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" s="29">
+        <v>298</v>
+      </c>
+      <c r="D301" s="17">
+        <v>2.9220839846128368</v>
+      </c>
+      <c r="E301" s="2">
+        <v>5.279035893746042</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" s="29">
+        <v>299</v>
+      </c>
+      <c r="D302" s="17">
+        <v>2.9220839846128368</v>
+      </c>
+      <c r="E302" s="2">
+        <v>5.279035893746042</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" s="29">
+        <v>300</v>
+      </c>
+      <c r="D303" s="17">
+        <v>2.9220839846128368</v>
+      </c>
+      <c r="E303" s="2">
+        <v>5.279035893746042</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" s="29">
+        <v>301</v>
+      </c>
+      <c r="D304" s="17">
+        <v>2.9220839846128368</v>
+      </c>
+      <c r="E304" s="2">
+        <v>5.279035893746042</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" s="29">
+        <v>302</v>
+      </c>
+      <c r="D305" s="17">
+        <v>2.9220839846128368</v>
+      </c>
+      <c r="E305" s="2">
+        <v>5.279035893746042</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="29">
+        <v>303</v>
+      </c>
+      <c r="D306" s="17">
+        <v>2.9220839846128368</v>
+      </c>
+      <c r="E306" s="2">
+        <v>5.279035893746042</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" s="29">
+        <v>304</v>
+      </c>
+      <c r="D307" s="17">
+        <v>2.9220900881284622</v>
+      </c>
+      <c r="E307" s="2">
+        <v>5.279035893746042</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" s="29">
+        <v>305</v>
+      </c>
+      <c r="D308" s="17">
+        <v>2.9220900881284622</v>
+      </c>
+      <c r="E308" s="2">
+        <v>5.2790419972616673</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" s="29">
+        <v>306</v>
+      </c>
+      <c r="D309" s="17">
+        <v>2.9220900881284622</v>
+      </c>
+      <c r="E309" s="2">
+        <v>5.2790419972616673</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" s="29">
+        <v>307</v>
+      </c>
+      <c r="D310" s="17">
+        <v>2.9220900881284622</v>
+      </c>
+      <c r="E310" s="2">
+        <v>5.2790419972616673</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" s="29">
+        <v>308</v>
+      </c>
+      <c r="D311" s="17">
+        <v>2.9220900881284622</v>
+      </c>
+      <c r="E311" s="2">
+        <v>5.2790419972616673</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" s="29">
+        <v>309</v>
+      </c>
+      <c r="D312" s="17">
+        <v>2.9220900881284622</v>
+      </c>
+      <c r="E312" s="2">
+        <v>5.2790419972616673</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" s="29">
+        <v>310</v>
+      </c>
+      <c r="D313" s="17">
+        <v>2.9220900881284622</v>
+      </c>
+      <c r="E313" s="2">
+        <v>5.2790419972616673</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" s="29">
+        <v>311</v>
+      </c>
+      <c r="D314" s="17">
+        <v>2.9220900881284622</v>
+      </c>
+      <c r="E314" s="2">
+        <v>5.2790419972616673</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" s="29">
+        <v>312</v>
+      </c>
+      <c r="D315" s="17">
+        <v>2.9220900881284622</v>
+      </c>
+      <c r="E315" s="2">
+        <v>5.2790419972616673</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" s="29">
+        <v>313</v>
+      </c>
+      <c r="D316" s="17">
+        <v>2.9220900881284622</v>
+      </c>
+      <c r="E316" s="2">
+        <v>5.2790419972616673</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" s="29">
+        <v>314</v>
+      </c>
+      <c r="D317" s="17">
+        <v>2.9220900881284622</v>
+      </c>
+      <c r="E317" s="2">
+        <v>5.2790419972616673</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" s="29">
+        <v>315</v>
+      </c>
+      <c r="D318" s="17">
+        <v>2.9220900881284622</v>
+      </c>
+      <c r="E318" s="2">
+        <v>5.2790419972616673</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" s="29">
+        <v>316</v>
+      </c>
+      <c r="D319" s="17">
+        <v>2.9220900881284622</v>
+      </c>
+      <c r="E319" s="2">
+        <v>5.2790419972616673</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" s="29">
+        <v>317</v>
+      </c>
+      <c r="D320" s="17">
+        <v>2.9220900881284622</v>
+      </c>
+      <c r="E320" s="2">
+        <v>5.2790419972616673</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" s="29">
+        <v>318</v>
+      </c>
+      <c r="D321" s="17">
+        <v>2.9220900881284622</v>
+      </c>
+      <c r="E321" s="2">
+        <v>5.2790419972616673</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" s="29">
+        <v>319</v>
+      </c>
+      <c r="D322" s="17">
+        <v>2.9220900881284622</v>
+      </c>
+      <c r="E322" s="2">
+        <v>5.2790419972616673</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" s="29">
+        <v>320</v>
+      </c>
+      <c r="D323" s="17">
+        <v>2.9220900881284622</v>
+      </c>
+      <c r="E323" s="2">
+        <v>5.2790419972616673</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" s="29">
+        <v>321</v>
+      </c>
+      <c r="D324" s="17">
+        <v>2.9220900881284622</v>
+      </c>
+      <c r="E324" s="2">
+        <v>5.2790419972616673</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" s="29">
+        <v>322</v>
+      </c>
+      <c r="D325" s="17">
+        <v>2.9220900881284622</v>
+      </c>
+      <c r="E325" s="2">
+        <v>5.2790419972616673</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" s="29">
+        <v>323</v>
+      </c>
+      <c r="D326" s="17">
+        <v>2.9220900881284622</v>
+      </c>
+      <c r="E326" s="2">
+        <v>5.2790419972616673</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" s="29">
+        <v>324</v>
+      </c>
+      <c r="D327" s="17">
+        <v>2.9220900881284622</v>
+      </c>
+      <c r="E327" s="2">
+        <v>5.2790419972616673</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" s="29">
+        <v>325</v>
+      </c>
+      <c r="D328" s="17">
+        <v>2.9220900881284622</v>
+      </c>
+      <c r="E328" s="2">
+        <v>5.2790419972616673</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" s="29">
+        <v>326</v>
+      </c>
+      <c r="D329" s="17">
+        <v>2.9220900881284622</v>
+      </c>
+      <c r="E329" s="2">
+        <v>5.2790419972616673</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" s="29">
+        <v>327</v>
+      </c>
+      <c r="D330" s="17">
+        <v>2.9220900881284622</v>
+      </c>
+      <c r="E330" s="2">
+        <v>5.2790419972616673</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" s="29">
+        <v>328</v>
+      </c>
+      <c r="D331" s="17">
+        <v>2.9220900881284622</v>
+      </c>
+      <c r="E331" s="2">
+        <v>5.2790419972616673</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" s="29">
+        <v>329</v>
+      </c>
+      <c r="D332" s="17">
+        <v>2.9220900881284622</v>
+      </c>
+      <c r="E332" s="2">
+        <v>5.2790419972616673</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" s="29">
+        <v>330</v>
+      </c>
+      <c r="D333" s="17">
+        <v>2.9220900881284622</v>
+      </c>
+      <c r="E333" s="2">
+        <v>5.2790419972616673</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" s="29">
+        <v>331</v>
+      </c>
+      <c r="D334" s="17">
+        <v>2.9220900881284622</v>
+      </c>
+      <c r="E334" s="2">
+        <v>5.2790419972616673</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" s="29">
+        <v>332</v>
+      </c>
+      <c r="D335" s="17">
+        <v>2.9220900881284622</v>
+      </c>
+      <c r="E335" s="2">
+        <v>5.2790419972616673</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" s="29">
+        <v>333</v>
+      </c>
+      <c r="D336" s="17">
+        <v>2.9220900881284622</v>
+      </c>
+      <c r="E336" s="2">
+        <v>5.2790419972616673</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" s="29">
+        <v>334</v>
+      </c>
+      <c r="D337" s="17">
+        <v>2.9220900881284622</v>
+      </c>
+      <c r="E337" s="2">
+        <v>5.2790419972616673</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" s="29">
+        <v>335</v>
+      </c>
+      <c r="D338" s="17">
+        <v>2.9220900881284622</v>
+      </c>
+      <c r="E338" s="2">
+        <v>5.2790481007772927</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" s="29">
+        <v>336</v>
+      </c>
+      <c r="D339" s="17">
+        <v>2.9220900881284622</v>
+      </c>
+      <c r="E339" s="2">
+        <v>5.2790481007772927</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" s="29">
+        <v>337</v>
+      </c>
+      <c r="D340" s="17">
+        <v>2.9220900881284622</v>
+      </c>
+      <c r="E340" s="2">
+        <v>5.2790481007772927</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" s="29">
+        <v>338</v>
+      </c>
+      <c r="D341" s="17">
+        <v>2.9220916140073681</v>
+      </c>
+      <c r="E341" s="2">
+        <v>5.2790481007772927</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" s="29">
+        <v>339</v>
+      </c>
+      <c r="D342" s="17">
+        <v>2.9220916140073681</v>
+      </c>
+      <c r="E342" s="2">
+        <v>5.2790481007772927</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" s="29">
+        <v>340</v>
+      </c>
+      <c r="D343" s="17">
+        <v>2.9220916140073681</v>
+      </c>
+      <c r="E343" s="2">
+        <v>5.2790481007772927</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" s="29">
+        <v>341</v>
+      </c>
+      <c r="D344" s="17">
+        <v>2.9220916140073681</v>
+      </c>
+      <c r="E344" s="2">
+        <v>5.2790481007772927</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" s="29">
+        <v>342</v>
+      </c>
+      <c r="D345" s="17">
+        <v>2.9220916140073681</v>
+      </c>
+      <c r="E345" s="2">
+        <v>5.2790481007772927</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" s="29">
+        <v>343</v>
+      </c>
+      <c r="D346" s="17">
+        <v>2.9220916140073681</v>
+      </c>
+      <c r="E346" s="2">
+        <v>5.2790481007772927</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" s="29">
+        <v>344</v>
+      </c>
+      <c r="D347" s="17">
+        <v>2.9220916140073681</v>
+      </c>
+      <c r="E347" s="2">
+        <v>5.2790481007772927</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" s="29">
+        <v>345</v>
+      </c>
+      <c r="D348" s="17">
+        <v>2.9220916140073681</v>
+      </c>
+      <c r="E348" s="2">
+        <v>5.2790481007772927</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" s="29">
+        <v>346</v>
+      </c>
+      <c r="D349" s="17">
+        <v>2.9220916140073681</v>
+      </c>
+      <c r="E349" s="2">
+        <v>5.2790481007772927</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" s="29">
+        <v>347</v>
+      </c>
+      <c r="D350" s="17">
+        <v>2.9220916140073681</v>
+      </c>
+      <c r="E350" s="2">
+        <v>5.2790481007772927</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" s="29">
+        <v>348</v>
+      </c>
+      <c r="D351" s="17">
+        <v>2.9220916140073681</v>
+      </c>
+      <c r="E351" s="2">
+        <v>5.2790481007772927</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" s="29">
+        <v>349</v>
+      </c>
+      <c r="D352" s="17">
+        <v>2.9220916140073681</v>
+      </c>
+      <c r="E352" s="2">
+        <v>5.2790481007772927</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" s="29">
+        <v>350</v>
+      </c>
+      <c r="D353" s="17">
+        <v>2.9220916140073681</v>
+      </c>
+      <c r="E353" s="2">
+        <v>5.2790481007772927</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" s="29">
+        <v>351</v>
+      </c>
+      <c r="D354" s="17">
+        <v>2.9220916140073681</v>
+      </c>
+      <c r="E354" s="2">
+        <v>5.2790481007772927</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" s="29">
+        <v>352</v>
+      </c>
+      <c r="D355" s="17">
+        <v>2.9220916140073681</v>
+      </c>
+      <c r="E355" s="2">
+        <v>5.2790481007772927</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" s="29">
+        <v>353</v>
+      </c>
+      <c r="D356" s="17">
+        <v>2.9220916140073681</v>
+      </c>
+      <c r="E356" s="2">
+        <v>5.2790481007772927</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" s="29">
+        <v>354</v>
+      </c>
+      <c r="D357" s="17">
+        <v>2.9220916140073681</v>
+      </c>
+      <c r="E357" s="2">
+        <v>5.2790481007772927</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" s="29">
+        <v>355</v>
+      </c>
+      <c r="D358" s="17">
+        <v>2.9220916140073681</v>
+      </c>
+      <c r="E358" s="2">
+        <v>5.2790481007772927</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="A359" s="29">
+        <v>356</v>
+      </c>
+      <c r="D359" s="17">
+        <v>2.9220916140073681</v>
+      </c>
+      <c r="E359" s="2">
+        <v>5.2790481007772927</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" s="29">
+        <v>357</v>
+      </c>
+      <c r="D360" s="17">
+        <v>2.9220916140073681</v>
+      </c>
+      <c r="E360" s="2">
+        <v>5.2790481007772927</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361" s="29">
+        <v>358</v>
+      </c>
+      <c r="D361" s="17">
+        <v>2.9220916140073681</v>
+      </c>
+      <c r="E361" s="2">
+        <v>5.2790481007772927</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362" s="29">
+        <v>359</v>
+      </c>
+      <c r="D362" s="17">
+        <v>2.9220916140073681</v>
+      </c>
+      <c r="E362" s="2">
+        <v>5.2790481007772927</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" s="29">
+        <v>360</v>
+      </c>
+      <c r="D363" s="17">
+        <v>2.9220916140073681</v>
+      </c>
+      <c r="E363" s="2">
+        <v>5.2790481007772927</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364" s="29">
+        <v>361</v>
+      </c>
+      <c r="D364" s="17">
+        <v>2.9220916140073681</v>
+      </c>
+      <c r="E364" s="2">
+        <v>5.2790481007772927</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365" s="29">
+        <v>362</v>
+      </c>
+      <c r="D365" s="17">
+        <v>2.9220916140073681</v>
+      </c>
+      <c r="E365" s="2">
+        <v>5.2790481007772927</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366" s="29">
+        <v>363</v>
+      </c>
+      <c r="D366" s="17">
+        <v>2.9220916140073681</v>
+      </c>
+      <c r="E366" s="2">
+        <v>5.2790481007772927</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" s="29">
+        <v>364</v>
+      </c>
+      <c r="D367" s="17">
+        <v>2.9220916140073681</v>
+      </c>
+      <c r="E367" s="2">
+        <v>5.2790481007772927</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" s="29">
+        <v>365</v>
+      </c>
+      <c r="D368" s="17">
+        <v>2.9220916140073681</v>
+      </c>
+      <c r="E368" s="2">
+        <v>5.2790481007772927</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" s="29">
+        <v>366</v>
+      </c>
+      <c r="D369" s="17">
+        <v>2.9220916140073681</v>
+      </c>
+      <c r="E369" s="2">
+        <v>5.2790481007772927</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370" s="29">
+        <v>367</v>
+      </c>
+      <c r="D370" s="17">
+        <v>2.9220916140073681</v>
+      </c>
+      <c r="E370" s="2">
+        <v>5.2790481007772927</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" s="29">
+        <v>368</v>
+      </c>
+      <c r="D371" s="17">
+        <v>2.9220916140073681</v>
+      </c>
+      <c r="E371" s="2">
+        <v>5.2790481007772927</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="A372" s="29">
+        <v>369</v>
+      </c>
+      <c r="D372" s="17">
+        <v>2.9220916140073681</v>
+      </c>
+      <c r="E372" s="2">
+        <v>5.2790542042929181</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373" s="29">
+        <v>370</v>
+      </c>
+      <c r="D373" s="17">
+        <v>2.9220916140073681</v>
+      </c>
+      <c r="E373" s="2">
+        <v>5.2790542042929181</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374" s="29">
+        <v>371</v>
+      </c>
+      <c r="D374" s="17">
+        <v>2.9220916140073681</v>
+      </c>
+      <c r="E374" s="2">
+        <v>5.2790542042929181</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="A375" s="29">
+        <v>372</v>
+      </c>
+      <c r="D375" s="17">
+        <v>2.9220931398862739</v>
+      </c>
+      <c r="E375" s="2">
+        <v>5.2790542042929181</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376" s="29">
+        <v>373</v>
+      </c>
+      <c r="D376" s="17">
+        <v>2.9220931398862739</v>
+      </c>
+      <c r="E376" s="2">
+        <v>5.2790542042929181</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="A377" s="29">
+        <v>374</v>
+      </c>
+      <c r="D377" s="17">
+        <v>2.9220931398862739</v>
+      </c>
+      <c r="E377" s="2">
+        <v>5.2790542042929181</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="A378" s="29">
+        <v>375</v>
+      </c>
+      <c r="D378" s="17">
+        <v>2.9220931398862739</v>
+      </c>
+      <c r="E378" s="2">
+        <v>5.2790542042929181</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="A379" s="29">
+        <v>376</v>
+      </c>
+      <c r="D379" s="17">
+        <v>2.9220931398862739</v>
+      </c>
+      <c r="E379" s="2">
+        <v>5.2790542042929181</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="A380" s="29">
+        <v>377</v>
+      </c>
+      <c r="D380" s="17">
+        <v>2.9220931398862739</v>
+      </c>
+      <c r="E380" s="2">
+        <v>5.2790542042929181</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="A381" s="29">
+        <v>378</v>
+      </c>
+      <c r="D381" s="17">
+        <v>2.9220931398862739</v>
+      </c>
+      <c r="E381" s="2">
+        <v>5.2790542042929181</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="A382" s="29">
+        <v>379</v>
+      </c>
+      <c r="D382" s="17">
+        <v>2.9220931398862739</v>
+      </c>
+      <c r="E382" s="2">
+        <v>5.2790542042929181</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="A383" s="29">
+        <v>380</v>
+      </c>
+      <c r="D383" s="17">
+        <v>2.9220931398862739</v>
+      </c>
+      <c r="E383" s="2">
+        <v>5.2790542042929181</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="A384" s="29">
+        <v>381</v>
+      </c>
+      <c r="D384" s="17">
+        <v>2.9220931398862739</v>
+      </c>
+      <c r="E384" s="2">
+        <v>5.2790542042929181</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5">
+      <c r="A385" s="29">
+        <v>382</v>
+      </c>
+      <c r="D385" s="17">
+        <v>2.9220931398862739</v>
+      </c>
+      <c r="E385" s="2">
+        <v>5.2790542042929181</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="A386" s="29">
+        <v>383</v>
+      </c>
+      <c r="D386" s="17">
+        <v>2.9220931398862739</v>
+      </c>
+      <c r="E386" s="2">
+        <v>5.2790542042929181</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5">
+      <c r="A387" s="29">
+        <v>384</v>
+      </c>
+      <c r="D387" s="17">
+        <v>2.9220931398862739</v>
+      </c>
+      <c r="E387" s="2">
+        <v>5.2790542042929181</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="A388" s="29">
+        <v>385</v>
+      </c>
+      <c r="D388" s="17">
+        <v>2.9220931398862739</v>
+      </c>
+      <c r="E388" s="2">
+        <v>5.2790542042929181</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="A389" s="29">
+        <v>386</v>
+      </c>
+      <c r="D389" s="17">
+        <v>2.9220931398862739</v>
+      </c>
+      <c r="E389" s="2">
+        <v>5.2790542042929181</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="A390" s="29">
+        <v>387</v>
+      </c>
+      <c r="D390" s="17">
+        <v>2.9220931398862739</v>
+      </c>
+      <c r="E390" s="2">
+        <v>5.2790542042929181</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="A391" s="29">
+        <v>388</v>
+      </c>
+      <c r="D391" s="17">
+        <v>2.9220931398862739</v>
+      </c>
+      <c r="E391" s="2">
+        <v>5.2790542042929181</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="A392" s="29">
+        <v>389</v>
+      </c>
+      <c r="D392" s="17">
+        <v>2.9220931398862739</v>
+      </c>
+      <c r="E392" s="2">
+        <v>5.2790542042929181</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="A393" s="29">
+        <v>390</v>
+      </c>
+      <c r="D393" s="17">
+        <v>2.9220931398862739</v>
+      </c>
+      <c r="E393" s="2">
+        <v>5.2790542042929181</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="A394" s="29">
+        <v>391</v>
+      </c>
+      <c r="D394" s="17">
+        <v>2.9220931398862739</v>
+      </c>
+      <c r="E394" s="2">
+        <v>5.2790542042929181</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5">
+      <c r="A395" s="29">
+        <v>392</v>
+      </c>
+      <c r="D395" s="17">
+        <v>2.9220931398862739</v>
+      </c>
+      <c r="E395" s="2">
+        <v>5.2790542042929181</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="A396" s="29">
+        <v>393</v>
+      </c>
+      <c r="D396" s="17">
+        <v>2.9220931398862739</v>
+      </c>
+      <c r="E396" s="2">
+        <v>5.2790542042929181</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="A397" s="29">
+        <v>394</v>
+      </c>
+      <c r="D397" s="17">
+        <v>2.9220931398862739</v>
+      </c>
+      <c r="E397" s="2">
+        <v>5.2790542042929181</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="A398" s="29">
+        <v>395</v>
+      </c>
+      <c r="D398" s="17">
+        <v>2.9220931398862739</v>
+      </c>
+      <c r="E398" s="2">
+        <v>5.2790542042929181</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5">
+      <c r="A399" s="29">
+        <v>396</v>
+      </c>
+      <c r="D399" s="17">
+        <v>2.9220931398862739</v>
+      </c>
+      <c r="E399" s="2">
+        <v>5.2790542042929181</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5">
+      <c r="A400" s="29">
+        <v>397</v>
+      </c>
+      <c r="D400" s="17">
+        <v>2.9220931398862739</v>
+      </c>
+      <c r="E400" s="2">
+        <v>5.2790542042929181</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5">
+      <c r="A401" s="29">
+        <v>398</v>
+      </c>
+      <c r="D401" s="17">
+        <v>2.9220931398862739</v>
+      </c>
+      <c r="E401" s="2">
+        <v>5.2790542042929181</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402" s="29">
+        <v>399</v>
+      </c>
+      <c r="D402" s="17">
+        <v>2.9220931398862739</v>
+      </c>
+      <c r="E402" s="2">
+        <v>5.2790542042929181</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="A403" s="29">
+        <v>400</v>
+      </c>
+      <c r="D403" s="17">
+        <v>2.9220931398862739</v>
+      </c>
+      <c r="E403" s="2">
+        <v>5.2790542042929181</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="A404" s="29">
+        <v>401</v>
+      </c>
+      <c r="D404" s="17">
+        <v>2.9220931398862739</v>
+      </c>
+      <c r="E404" s="2">
+        <v>5.2790542042929181</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5">
+      <c r="A405" s="29">
+        <v>402</v>
+      </c>
+      <c r="D405" s="17">
+        <v>2.9220931398862739</v>
+      </c>
+      <c r="E405" s="2">
+        <v>5.2790542042929181</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="A406" s="29">
+        <v>403</v>
+      </c>
+      <c r="D406" s="17">
+        <v>2.9220931398862739</v>
+      </c>
+      <c r="E406" s="2">
+        <v>5.2790542042929181</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5">
+      <c r="A407" s="29">
+        <v>404</v>
+      </c>
+      <c r="D407" s="17">
+        <v>2.9220931398862739</v>
+      </c>
+      <c r="E407" s="2">
+        <v>5.2790542042929181</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5">
+      <c r="A408" s="29">
+        <v>405</v>
+      </c>
+      <c r="D408" s="17">
+        <v>2.9220931398862739</v>
+      </c>
+      <c r="E408" s="2">
+        <v>5.2790542042929181</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5">
+      <c r="A409" s="29">
+        <v>406</v>
+      </c>
+      <c r="D409" s="17">
+        <v>2.9220931398862739</v>
+      </c>
+      <c r="E409" s="2">
+        <v>5.2790542042929181</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5">
+      <c r="A410" s="29">
+        <v>407</v>
+      </c>
+      <c r="D410" s="17">
+        <v>2.9220931398862739</v>
+      </c>
+      <c r="E410" s="2">
+        <v>5.2790557301718239</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5">
+      <c r="A411" s="29">
+        <v>408</v>
+      </c>
+      <c r="D411" s="17">
+        <v>2.9220931398862739</v>
+      </c>
+      <c r="E411" s="2">
+        <v>5.2790557301718239</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5">
+      <c r="A412" s="29">
+        <v>409</v>
+      </c>
+      <c r="D412" s="17">
+        <v>2.9220931398862739</v>
+      </c>
+      <c r="E412" s="2">
+        <v>5.2790580189901837</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5">
+      <c r="A413" s="29">
+        <v>410</v>
+      </c>
+      <c r="D413" s="17">
+        <v>2.9220935213560009</v>
+      </c>
+      <c r="E413" s="2">
+        <v>5.2790580189901837</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5">
+      <c r="A414" s="29">
+        <v>411</v>
+      </c>
+      <c r="D414" s="17">
+        <v>2.9220935213560009</v>
+      </c>
+      <c r="E414" s="2">
+        <v>5.2790580189901837</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5">
+      <c r="A415" s="29">
+        <v>412</v>
+      </c>
+      <c r="D415" s="17">
+        <v>2.9220935213560009</v>
+      </c>
+      <c r="E415" s="2">
+        <v>5.2790580189901837</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5">
+      <c r="A416" s="29">
+        <v>413</v>
+      </c>
+      <c r="D416" s="17">
+        <v>2.9220935213560009</v>
+      </c>
+      <c r="E416" s="2">
+        <v>5.2790580189901837</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5">
+      <c r="A417" s="29">
+        <v>414</v>
+      </c>
+      <c r="D417" s="17">
+        <v>2.9220935213560009</v>
+      </c>
+      <c r="E417" s="2">
+        <v>5.2790580189901837</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5">
+      <c r="A418" s="29">
+        <v>415</v>
+      </c>
+      <c r="D418" s="17">
+        <v>2.9220935213560009</v>
+      </c>
+      <c r="E418" s="2">
+        <v>5.2790580189901837</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5">
+      <c r="A419" s="29">
+        <v>416</v>
+      </c>
+      <c r="D419" s="17">
+        <v>2.9220935213560009</v>
+      </c>
+      <c r="E419" s="2">
+        <v>5.2790580189901837</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5">
+      <c r="A420" s="29">
+        <v>417</v>
+      </c>
+      <c r="D420" s="17">
+        <v>2.9220935213560009</v>
+      </c>
+      <c r="E420" s="2">
+        <v>5.2790580189901837</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5">
+      <c r="A421" s="29">
+        <v>418</v>
+      </c>
+      <c r="D421" s="17">
+        <v>2.9220935213560009</v>
+      </c>
+      <c r="E421" s="2">
+        <v>5.2790580189901837</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5">
+      <c r="A422" s="29">
+        <v>419</v>
+      </c>
+      <c r="D422" s="17">
+        <v>2.9220935213560009</v>
+      </c>
+      <c r="E422" s="2">
+        <v>5.2790580189901837</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5">
+      <c r="A423" s="29">
+        <v>420</v>
+      </c>
+      <c r="D423" s="17">
+        <v>2.9220935213560009</v>
+      </c>
+      <c r="E423" s="2">
+        <v>5.2790580189901837</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5">
+      <c r="A424" s="29">
+        <v>421</v>
+      </c>
+      <c r="D424" s="17">
+        <v>2.9220935213560009</v>
+      </c>
+      <c r="E424" s="2">
+        <v>5.2790580189901837</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5">
+      <c r="A425" s="29">
+        <v>422</v>
+      </c>
+      <c r="D425" s="17">
+        <v>2.9220935213560009</v>
+      </c>
+      <c r="E425" s="2">
+        <v>5.2790580189901837</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5">
+      <c r="A426" s="29">
+        <v>423</v>
+      </c>
+      <c r="D426" s="17">
+        <v>2.9220935213560009</v>
+      </c>
+      <c r="E426" s="2">
+        <v>5.2790580189901837</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5">
+      <c r="A427" s="29">
+        <v>424</v>
+      </c>
+      <c r="D427" s="17">
+        <v>2.9220935213560009</v>
+      </c>
+      <c r="E427" s="2">
+        <v>5.2790580189901837</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5">
+      <c r="A428" s="29">
+        <v>425</v>
+      </c>
+      <c r="D428" s="17">
+        <v>2.9220935213560009</v>
+      </c>
+      <c r="E428" s="2">
+        <v>5.2790580189901837</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5">
+      <c r="A429" s="29">
+        <v>426</v>
+      </c>
+      <c r="D429" s="17">
+        <v>2.9220935213560009</v>
+      </c>
+      <c r="E429" s="2">
+        <v>5.2790580189901837</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5">
+      <c r="A430" s="29">
+        <v>427</v>
+      </c>
+      <c r="D430" s="17">
+        <v>2.9220935213560009</v>
+      </c>
+      <c r="E430" s="2">
+        <v>5.2790580189901837</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5">
+      <c r="A431" s="29">
+        <v>428</v>
+      </c>
+      <c r="D431" s="17">
+        <v>2.9220935213560009</v>
+      </c>
+      <c r="E431" s="2">
+        <v>5.2790580189901837</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5">
+      <c r="A432" s="29">
+        <v>429</v>
+      </c>
+      <c r="D432" s="17">
+        <v>2.9220935213560009</v>
+      </c>
+      <c r="E432" s="2">
+        <v>5.2790580189901837</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5">
+      <c r="A433" s="29">
+        <v>430</v>
+      </c>
+      <c r="D433" s="17">
+        <v>2.9220935213560009</v>
+      </c>
+      <c r="E433" s="2">
+        <v>5.2790580189901837</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5">
+      <c r="A434" s="29">
+        <v>431</v>
+      </c>
+      <c r="D434" s="17">
+        <v>2.9220935213560009</v>
+      </c>
+      <c r="E434" s="2">
+        <v>5.2790580189901837</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5">
+      <c r="A435" s="29">
+        <v>432</v>
+      </c>
+      <c r="D435" s="17">
+        <v>2.9220935213560009</v>
+      </c>
+      <c r="E435" s="2">
+        <v>5.2790580189901837</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5">
+      <c r="A436" s="29">
+        <v>433</v>
+      </c>
+      <c r="D436" s="17">
+        <v>2.9220935213560009</v>
+      </c>
+      <c r="E436" s="2">
+        <v>5.2790580189901837</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5">
+      <c r="A437" s="29">
+        <v>434</v>
+      </c>
+      <c r="D437" s="17">
+        <v>2.9220935213560009</v>
+      </c>
+      <c r="E437" s="2">
+        <v>5.2790580189901837</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5">
+      <c r="A438" s="29">
+        <v>435</v>
+      </c>
+      <c r="D438" s="17">
+        <v>2.9220935213560009</v>
+      </c>
+      <c r="E438" s="2">
+        <v>5.2790580189901837</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5">
+      <c r="A439" s="29">
+        <v>436</v>
+      </c>
+      <c r="D439" s="17">
+        <v>2.9220935213560009</v>
+      </c>
+      <c r="E439" s="2">
+        <v>5.2790580189901837</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5">
+      <c r="A440" s="29">
+        <v>437</v>
+      </c>
+      <c r="D440" s="17">
+        <v>2.9220935213560009</v>
+      </c>
+      <c r="E440" s="2">
+        <v>5.2790580189901837</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5">
+      <c r="A441" s="29">
+        <v>438</v>
+      </c>
+      <c r="D441" s="17">
+        <v>2.9220935213560009</v>
+      </c>
+      <c r="E441" s="2">
+        <v>5.2790580189901837</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5">
+      <c r="A442" s="29">
+        <v>439</v>
+      </c>
+      <c r="D442" s="17">
+        <v>2.9220935213560009</v>
+      </c>
+      <c r="E442" s="2">
+        <v>5.2790580189901837</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5">
+      <c r="A443" s="29">
+        <v>440</v>
+      </c>
+      <c r="D443" s="17">
+        <v>2.9220935213560009</v>
+      </c>
+      <c r="E443" s="2">
+        <v>5.2790580189901837</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5">
+      <c r="A444" s="29">
+        <v>441</v>
+      </c>
+      <c r="D444" s="17">
+        <v>2.9220935213560009</v>
+      </c>
+      <c r="E444" s="2">
+        <v>5.2790580189901837</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5">
+      <c r="A445" s="29">
+        <v>442</v>
+      </c>
+      <c r="D445" s="17">
+        <v>2.9220935213560009</v>
+      </c>
+      <c r="E445" s="2">
+        <v>5.2790580189901837</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5">
+      <c r="A446" s="29">
+        <v>443</v>
+      </c>
+      <c r="D446" s="17">
+        <v>2.9220935213560009</v>
+      </c>
+      <c r="E446" s="2">
+        <v>5.2790580189901837</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5">
+      <c r="A447" s="29">
+        <v>444</v>
+      </c>
+      <c r="D447" s="17">
+        <v>2.9220950472349072</v>
+      </c>
+      <c r="E447" s="2">
+        <v>5.2790580189901837</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5">
+      <c r="A448" s="29">
+        <v>445</v>
+      </c>
+      <c r="D448" s="17">
+        <v>2.9220950472349072</v>
+      </c>
+      <c r="E448" s="2">
+        <v>5.2790595448690896</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5">
+      <c r="A449" s="29">
+        <v>446</v>
+      </c>
+      <c r="D449" s="17">
+        <v>2.9220950472349072</v>
+      </c>
+      <c r="E449" s="2">
+        <v>5.2790595448690896</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5">
+      <c r="A450" s="29">
+        <v>447</v>
+      </c>
+      <c r="D450" s="17">
+        <v>2.9220950472349072</v>
+      </c>
+      <c r="E450" s="2">
+        <v>5.2790595448690896</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5">
+      <c r="A451" s="29">
+        <v>448</v>
+      </c>
+      <c r="D451" s="17">
+        <v>2.9220950472349072</v>
+      </c>
+      <c r="E451" s="2">
+        <v>5.2790595448690896</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5">
+      <c r="A452" s="29">
+        <v>449</v>
+      </c>
+      <c r="D452" s="17">
+        <v>2.9220950472349072</v>
+      </c>
+      <c r="E452" s="2">
+        <v>5.2790595448690896</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5">
+      <c r="A453" s="29">
+        <v>450</v>
+      </c>
+      <c r="D453" s="17">
+        <v>2.9220950472349072</v>
+      </c>
+      <c r="E453" s="2">
+        <v>5.2790595448690896</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5">
+      <c r="A454" s="29">
+        <v>451</v>
+      </c>
+      <c r="D454" s="17">
+        <v>2.9220950472349072</v>
+      </c>
+      <c r="E454" s="2">
+        <v>5.2790595448690896</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5">
+      <c r="A455" s="29">
+        <v>452</v>
+      </c>
+      <c r="D455" s="17">
+        <v>2.9220950472349072</v>
+      </c>
+      <c r="E455" s="2">
+        <v>5.2790595448690896</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5">
+      <c r="A456" s="29">
+        <v>453</v>
+      </c>
+      <c r="D456" s="17">
+        <v>2.9220950472349072</v>
+      </c>
+      <c r="E456" s="2">
+        <v>5.2790595448690896</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5">
+      <c r="A457" s="29">
+        <v>454</v>
+      </c>
+      <c r="D457" s="17">
+        <v>2.9220950472349072</v>
+      </c>
+      <c r="E457" s="2">
+        <v>5.2790595448690896</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5">
+      <c r="A458" s="29">
+        <v>455</v>
+      </c>
+      <c r="D458" s="17">
+        <v>2.9220950472349072</v>
+      </c>
+      <c r="E458" s="2">
+        <v>5.2790595448690896</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5">
+      <c r="A459" s="29">
+        <v>456</v>
+      </c>
+      <c r="D459" s="17">
+        <v>2.9220950472349072</v>
+      </c>
+      <c r="E459" s="2">
+        <v>5.2790595448690896</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5">
+      <c r="A460" s="29">
+        <v>457</v>
+      </c>
+      <c r="D460" s="17">
+        <v>2.9220950472349072</v>
+      </c>
+      <c r="E460" s="2">
+        <v>5.2790595448690896</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5">
+      <c r="A461" s="29">
+        <v>458</v>
+      </c>
+      <c r="D461" s="17">
+        <v>2.9220950472349072</v>
+      </c>
+      <c r="E461" s="2">
+        <v>5.2790595448690896</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5">
+      <c r="A462" s="29">
+        <v>459</v>
+      </c>
+      <c r="D462" s="17">
+        <v>2.9220950472349072</v>
+      </c>
+      <c r="E462" s="2">
+        <v>5.2790595448690896</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5">
+      <c r="A463" s="29">
+        <v>460</v>
+      </c>
+      <c r="D463" s="17">
+        <v>2.9220950472349072</v>
+      </c>
+      <c r="E463" s="2">
+        <v>5.2790595448690896</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5">
+      <c r="A464" s="29">
+        <v>461</v>
+      </c>
+      <c r="D464" s="17">
+        <v>2.9220950472349072</v>
+      </c>
+      <c r="E464" s="2">
+        <v>5.2790595448690896</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5">
+      <c r="A465" s="29">
+        <v>462</v>
+      </c>
+      <c r="D465" s="17">
+        <v>2.9220950472349072</v>
+      </c>
+      <c r="E465" s="2">
+        <v>5.2790595448690896</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5">
+      <c r="A466" s="29">
+        <v>463</v>
+      </c>
+      <c r="D466" s="17">
+        <v>2.9220950472349072</v>
+      </c>
+      <c r="E466" s="2">
+        <v>5.2790595448690896</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5">
+      <c r="A467" s="29">
+        <v>464</v>
+      </c>
+      <c r="D467" s="17">
+        <v>2.9220950472349072</v>
+      </c>
+      <c r="E467" s="2">
+        <v>5.2790595448690896</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5">
+      <c r="A468" s="29">
+        <v>465</v>
+      </c>
+      <c r="D468" s="17">
+        <v>2.9220950472349072</v>
+      </c>
+      <c r="E468" s="2">
+        <v>5.2790595448690896</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5">
+      <c r="A469" s="29">
+        <v>466</v>
+      </c>
+      <c r="D469" s="17">
+        <v>2.9220950472349072</v>
+      </c>
+      <c r="E469" s="2">
+        <v>5.2790595448690896</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5">
+      <c r="A470" s="29">
+        <v>467</v>
+      </c>
+      <c r="D470" s="17">
+        <v>2.9220950472349072</v>
+      </c>
+      <c r="E470" s="2">
+        <v>5.2790595448690896</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5">
+      <c r="A471" s="29">
+        <v>468</v>
+      </c>
+      <c r="D471" s="17">
+        <v>2.9220950472349072</v>
+      </c>
+      <c r="E471" s="2">
+        <v>5.2790595448690896</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5">
+      <c r="A472" s="29">
+        <v>469</v>
+      </c>
+      <c r="D472" s="17">
+        <v>2.9220950472349072</v>
+      </c>
+      <c r="E472" s="2">
+        <v>5.2790595448690896</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5">
+      <c r="A473" s="29">
+        <v>470</v>
+      </c>
+      <c r="D473" s="17">
+        <v>2.9220950472349072</v>
+      </c>
+      <c r="E473" s="2">
+        <v>5.2790595448690896</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5">
+      <c r="A474" s="29">
+        <v>471</v>
+      </c>
+      <c r="D474" s="17">
+        <v>2.9220950472349072</v>
+      </c>
+      <c r="E474" s="2">
+        <v>5.2790595448690896</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5">
+      <c r="A475" s="29">
+        <v>472</v>
+      </c>
+      <c r="D475" s="17">
+        <v>2.9220950472349072</v>
+      </c>
+      <c r="E475" s="2">
+        <v>5.2790595448690896</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5">
+      <c r="A476" s="29">
+        <v>473</v>
+      </c>
+      <c r="D476" s="17">
+        <v>2.9220950472349072</v>
+      </c>
+      <c r="E476" s="2">
+        <v>5.2790595448690896</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5">
+      <c r="A477" s="29">
+        <v>474</v>
+      </c>
+      <c r="D477" s="17">
+        <v>2.9220950472349072</v>
+      </c>
+      <c r="E477" s="2">
+        <v>5.2790595448690896</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5">
+      <c r="A478" s="29">
+        <v>475</v>
+      </c>
+      <c r="D478" s="17">
+        <v>2.9220950472349072</v>
+      </c>
+      <c r="E478" s="2">
+        <v>5.2790595448690896</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5">
+      <c r="A479" s="29">
+        <v>476</v>
+      </c>
+      <c r="D479" s="17">
+        <v>2.9220950472349072</v>
+      </c>
+      <c r="E479" s="2">
+        <v>5.2790595448690896</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5">
+      <c r="A480" s="29">
+        <v>477</v>
+      </c>
+      <c r="D480" s="17">
+        <v>2.9220950472349072</v>
+      </c>
+      <c r="E480" s="2">
+        <v>5.2790595448690896</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5">
+      <c r="A481" s="29">
+        <v>478</v>
+      </c>
+      <c r="D481" s="17">
+        <v>2.9220950472349072</v>
+      </c>
+      <c r="E481" s="2">
+        <v>5.2790595448690896</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5">
+      <c r="A482" s="29">
+        <v>479</v>
+      </c>
+      <c r="D482" s="17">
+        <v>2.9220950472349072</v>
+      </c>
+      <c r="E482" s="2">
+        <v>5.2790610707479946</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5">
+      <c r="A483" s="29">
+        <v>480</v>
+      </c>
+      <c r="D483" s="17">
+        <v>2.9220950472349072</v>
+      </c>
+      <c r="E483" s="2">
+        <v>5.2790610707479946</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5">
+      <c r="A484" s="29">
+        <v>481</v>
+      </c>
+      <c r="D484" s="17">
+        <v>2.9220950472349072</v>
+      </c>
+      <c r="E484" s="2">
+        <v>5.2790610707479946</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5">
+      <c r="A485" s="29">
+        <v>482</v>
+      </c>
+      <c r="D485" s="17">
+        <v>2.9220954287046341</v>
+      </c>
+      <c r="E485" s="2">
+        <v>5.2790610707479946</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5">
+      <c r="A486" s="29">
+        <v>483</v>
+      </c>
+      <c r="D486" s="17">
+        <v>2.9220954287046341</v>
+      </c>
+      <c r="E486" s="2">
+        <v>5.2790610707479946</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5">
+      <c r="A487" s="29">
+        <v>484</v>
+      </c>
+      <c r="D487" s="17">
+        <v>2.9220954287046341</v>
+      </c>
+      <c r="E487" s="2">
+        <v>5.2790610707479946</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5">
+      <c r="A488" s="29">
+        <v>485</v>
+      </c>
+      <c r="D488" s="17">
+        <v>2.9220954287046341</v>
+      </c>
+      <c r="E488" s="2">
+        <v>5.2790610707479946</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5">
+      <c r="A489" s="29">
+        <v>486</v>
+      </c>
+      <c r="D489" s="17">
+        <v>2.9220954287046341</v>
+      </c>
+      <c r="E489" s="2">
+        <v>5.2790610707479946</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5">
+      <c r="A490" s="29">
+        <v>487</v>
+      </c>
+      <c r="D490" s="17">
+        <v>2.9220954287046341</v>
+      </c>
+      <c r="E490" s="2">
+        <v>5.2790610707479946</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5">
+      <c r="A491" s="29">
+        <v>488</v>
+      </c>
+      <c r="D491" s="17">
+        <v>2.9220954287046341</v>
+      </c>
+      <c r="E491" s="2">
+        <v>5.2790610707479946</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5">
+      <c r="A492" s="29">
+        <v>489</v>
+      </c>
+      <c r="D492" s="17">
+        <v>2.9220954287046341</v>
+      </c>
+      <c r="E492" s="2">
+        <v>5.2790610707479946</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5">
+      <c r="A493" s="29">
+        <v>490</v>
+      </c>
+      <c r="D493" s="17">
+        <v>2.9220954287046341</v>
+      </c>
+      <c r="E493" s="2">
+        <v>5.2790610707479946</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5">
+      <c r="A494" s="29">
+        <v>491</v>
+      </c>
+      <c r="D494" s="17">
+        <v>2.9220954287046341</v>
+      </c>
+      <c r="E494" s="2">
+        <v>5.2790610707479946</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5">
+      <c r="A495" s="29">
+        <v>492</v>
+      </c>
+      <c r="D495" s="17">
+        <v>2.9220954287046341</v>
+      </c>
+      <c r="E495" s="2">
+        <v>5.2790610707479946</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5">
+      <c r="A496" s="29">
+        <v>493</v>
+      </c>
+      <c r="D496" s="17">
+        <v>2.9220954287046341</v>
+      </c>
+      <c r="E496" s="2">
+        <v>5.2790610707479946</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5">
+      <c r="A497" s="29">
+        <v>494</v>
+      </c>
+      <c r="D497" s="17">
+        <v>2.9220954287046341</v>
+      </c>
+      <c r="E497" s="2">
+        <v>5.2790610707479946</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5">
+      <c r="A498" s="29">
+        <v>495</v>
+      </c>
+      <c r="D498" s="17">
+        <v>2.9220954287046341</v>
+      </c>
+      <c r="E498" s="2">
+        <v>5.2790610707479946</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5">
+      <c r="A499" s="29">
+        <v>496</v>
+      </c>
+      <c r="D499" s="17">
+        <v>2.9220954287046341</v>
+      </c>
+      <c r="E499" s="2">
+        <v>5.2790610707479946</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5">
+      <c r="A500" s="29">
+        <v>497</v>
+      </c>
+      <c r="D500" s="17">
+        <v>2.9220954287046341</v>
+      </c>
+      <c r="E500" s="2">
+        <v>5.2790610707479946</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5">
+      <c r="A501" s="29">
+        <v>498</v>
+      </c>
+      <c r="D501" s="17">
+        <v>2.9220954287046341</v>
+      </c>
+      <c r="E501" s="2">
+        <v>5.2790610707479946</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5">
+      <c r="A502" s="29">
+        <v>499</v>
+      </c>
+      <c r="D502" s="17">
+        <v>2.9220954287046341</v>
+      </c>
+      <c r="E502" s="2">
+        <v>5.2790610707479946</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5">
+      <c r="A503" s="29">
+        <v>500</v>
+      </c>
+      <c r="D503" s="17">
+        <v>2.9220954287046341</v>
+      </c>
+      <c r="E503" s="2">
+        <v>5.2790610707479946</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5">
+      <c r="A504" s="29">
+        <v>501</v>
+      </c>
+      <c r="D504" s="17">
+        <v>2.9220954287046341</v>
+      </c>
+      <c r="E504" s="2">
+        <v>5.2790610707479946</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5">
+      <c r="A505" s="29">
+        <v>502</v>
+      </c>
+      <c r="D505" s="17">
+        <v>2.9220954287046341</v>
+      </c>
+      <c r="E505" s="2">
+        <v>5.2790610707479946</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5">
+      <c r="A506" s="29">
+        <v>503</v>
+      </c>
+      <c r="D506" s="17">
+        <v>2.9220954287046341</v>
+      </c>
+      <c r="E506" s="2">
+        <v>5.2790610707479946</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5">
+      <c r="A507" s="29">
+        <v>504</v>
+      </c>
+      <c r="D507" s="17">
+        <v>2.9220954287046341</v>
+      </c>
+      <c r="E507" s="2">
+        <v>5.2790610707479946</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5">
+      <c r="A508" s="29">
+        <v>505</v>
+      </c>
+      <c r="D508" s="17">
+        <v>2.9220954287046341</v>
+      </c>
+      <c r="E508" s="2">
+        <v>5.2790610707479946</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5">
+      <c r="A509" s="29">
+        <v>506</v>
+      </c>
+      <c r="D509" s="17">
+        <v>2.9220954287046341</v>
+      </c>
+      <c r="E509" s="2">
+        <v>5.2790610707479946</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5">
+      <c r="A510" s="29">
+        <v>507</v>
+      </c>
+      <c r="D510" s="17">
+        <v>2.9220954287046341</v>
+      </c>
+      <c r="E510" s="2">
+        <v>5.2790610707479946</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5">
+      <c r="A511" s="29">
+        <v>508</v>
+      </c>
+      <c r="D511" s="17">
+        <v>2.9220954287046341</v>
+      </c>
+      <c r="E511" s="2">
+        <v>5.2790610707479946</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5">
+      <c r="A512" s="29">
+        <v>509</v>
+      </c>
+      <c r="D512" s="17">
+        <v>2.9220954287046341</v>
+      </c>
+      <c r="E512" s="2">
+        <v>5.2790610707479946</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5">
+      <c r="A513" s="29">
+        <v>510</v>
+      </c>
+      <c r="D513" s="17">
+        <v>2.9220954287046341</v>
+      </c>
+      <c r="E513" s="2">
+        <v>5.2790610707479946</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5">
+      <c r="A514" s="29">
+        <v>511</v>
+      </c>
+      <c r="D514" s="17">
+        <v>2.9220954287046341</v>
+      </c>
+      <c r="E514" s="2">
+        <v>5.2790610707479946</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5">
+      <c r="A515" s="29">
+        <v>512</v>
+      </c>
+      <c r="D515" s="17">
+        <v>2.9220954287046341</v>
+      </c>
+      <c r="E515" s="2">
+        <v>5.2790610707479946</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5">
+      <c r="A516" s="29">
+        <v>513</v>
+      </c>
+      <c r="D516" s="17">
+        <v>2.9220954287046341</v>
+      </c>
+      <c r="E516" s="2">
+        <v>5.2790610707479946</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5">
+      <c r="A517" s="29">
+        <v>514</v>
+      </c>
+      <c r="D517" s="17">
+        <v>2.9220954287046341</v>
+      </c>
+      <c r="E517" s="2">
+        <v>5.2790610707479946</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5">
+      <c r="A518" s="29">
+        <v>515</v>
+      </c>
+      <c r="D518" s="17">
+        <v>2.9220954287046341</v>
+      </c>
+      <c r="E518" s="2">
+        <v>5.2790610707479946</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5">
+      <c r="A519" s="29">
+        <v>516</v>
+      </c>
+      <c r="D519" s="17">
+        <v>2.9220954287046341</v>
+      </c>
+      <c r="E519" s="2">
+        <v>5.2790610707479946</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A520" s="30">
+        <v>517</v>
+      </c>
+      <c r="D520" s="18">
+        <v>2.9220954287046341</v>
+      </c>
+      <c r="E520" s="4">
+        <v>5.2790610707479946</v>
+      </c>
+    </row>
+    <row r="1140" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
@@ -14195,59 +20220,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="50" t="s">
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="52"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="51"/>
     </row>
     <row r="2" spans="1:9" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A2" s="59"/>
+      <c r="A2" s="62"/>
       <c r="B2" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="33" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>18</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="33" t="s">
         <v>17</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>18</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="42"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -14273,31 +20298,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="C1" s="51"/>
+      <c r="D1" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="46" t="s">
+      <c r="E1" s="51"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A2" s="62"/>
+      <c r="B2" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="52"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="59"/>
-      <c r="B2" s="43" t="s">
+      <c r="C2" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="43" t="s">
         <v>22</v>
-      </c>
-      <c r="E2" s="44" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5">

--- a/lab2/xlsx2.xlsx
+++ b/lab2/xlsx2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\agh\Optymalizacja\lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63000080-2932-475C-A955-28AD72FCD7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA661EDC-0D11-4AEF-BD75-A37D64D57857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2730" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="2730" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela 1" sheetId="1" r:id="rId1"/>
@@ -112,6 +112,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000000000"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -576,19 +580,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -707,11 +698,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -756,14 +756,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -776,25 +774,28 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -804,22 +805,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1126,8 +1132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N302"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1138,38 +1144,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="49" t="s">
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="52"/>
     </row>
     <row r="2" spans="1:14" ht="45" customHeight="1" thickBot="1">
-      <c r="A2" s="54"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="58"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="57"/>
       <c r="E2" s="32" t="s">
         <v>6</v>
       </c>
@@ -1202,7 +1208,7 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="52">
+      <c r="A3" s="53">
         <v>0.1</v>
       </c>
       <c r="B3" s="5">
@@ -1246,7 +1252,7 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="53"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -1288,7 +1294,7 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="53"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -1330,7 +1336,7 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="53"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -1372,7 +1378,7 @@
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="53"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -1414,7 +1420,7 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="53"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -1456,7 +1462,7 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="53"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -1498,7 +1504,7 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="53"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -1540,7 +1546,7 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="53"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -1582,7 +1588,7 @@
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="53"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -1624,7 +1630,7 @@
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="53"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="1">
         <v>11</v>
       </c>
@@ -1666,7 +1672,7 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="53"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="1">
         <v>12</v>
       </c>
@@ -1708,7 +1714,7 @@
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="53"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="1">
         <v>13</v>
       </c>
@@ -1750,7 +1756,7 @@
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="53"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="1">
         <v>14</v>
       </c>
@@ -1792,7 +1798,7 @@
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="53"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="1">
         <v>15</v>
       </c>
@@ -1834,7 +1840,7 @@
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="53"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="1">
         <v>16</v>
       </c>
@@ -1876,7 +1882,7 @@
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="53"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="1">
         <v>17</v>
       </c>
@@ -1918,7 +1924,7 @@
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="53"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="1">
         <v>18</v>
       </c>
@@ -1960,7 +1966,7 @@
       </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="53"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="1">
         <v>19</v>
       </c>
@@ -2002,7 +2008,7 @@
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="53"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="1">
         <v>20</v>
       </c>
@@ -2044,7 +2050,7 @@
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="53"/>
+      <c r="A23" s="54"/>
       <c r="B23" s="1">
         <v>21</v>
       </c>
@@ -2086,7 +2092,7 @@
       </c>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="53"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="1">
         <v>22</v>
       </c>
@@ -2128,7 +2134,7 @@
       </c>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="53"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="1">
         <v>23</v>
       </c>
@@ -2170,7 +2176,7 @@
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="53"/>
+      <c r="A26" s="54"/>
       <c r="B26" s="1">
         <v>24</v>
       </c>
@@ -2212,7 +2218,7 @@
       </c>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="53"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="1">
         <v>25</v>
       </c>
@@ -2254,7 +2260,7 @@
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="53"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="1">
         <v>26</v>
       </c>
@@ -2296,7 +2302,7 @@
       </c>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="53"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="1">
         <v>27</v>
       </c>
@@ -2338,7 +2344,7 @@
       </c>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="53"/>
+      <c r="A30" s="54"/>
       <c r="B30" s="1">
         <v>28</v>
       </c>
@@ -2380,7 +2386,7 @@
       </c>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="53"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="1">
         <v>29</v>
       </c>
@@ -2422,7 +2428,7 @@
       </c>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="53"/>
+      <c r="A32" s="54"/>
       <c r="B32" s="1">
         <v>30</v>
       </c>
@@ -2464,7 +2470,7 @@
       </c>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="53"/>
+      <c r="A33" s="54"/>
       <c r="B33" s="1">
         <v>31</v>
       </c>
@@ -2506,7 +2512,7 @@
       </c>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="53"/>
+      <c r="A34" s="54"/>
       <c r="B34" s="1">
         <v>32</v>
       </c>
@@ -2548,7 +2554,7 @@
       </c>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="53"/>
+      <c r="A35" s="54"/>
       <c r="B35" s="1">
         <v>33</v>
       </c>
@@ -2590,7 +2596,7 @@
       </c>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="53"/>
+      <c r="A36" s="54"/>
       <c r="B36" s="1">
         <v>34</v>
       </c>
@@ -2632,7 +2638,7 @@
       </c>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="53"/>
+      <c r="A37" s="54"/>
       <c r="B37" s="1">
         <v>35</v>
       </c>
@@ -2674,7 +2680,7 @@
       </c>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="53"/>
+      <c r="A38" s="54"/>
       <c r="B38" s="1">
         <v>36</v>
       </c>
@@ -2716,7 +2722,7 @@
       </c>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="53"/>
+      <c r="A39" s="54"/>
       <c r="B39" s="1">
         <v>37</v>
       </c>
@@ -2758,7 +2764,7 @@
       </c>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="53"/>
+      <c r="A40" s="54"/>
       <c r="B40" s="1">
         <v>38</v>
       </c>
@@ -2800,7 +2806,7 @@
       </c>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="53"/>
+      <c r="A41" s="54"/>
       <c r="B41" s="1">
         <v>39</v>
       </c>
@@ -2842,7 +2848,7 @@
       </c>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="53"/>
+      <c r="A42" s="54"/>
       <c r="B42" s="1">
         <v>40</v>
       </c>
@@ -2884,7 +2890,7 @@
       </c>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="53"/>
+      <c r="A43" s="54"/>
       <c r="B43" s="1">
         <v>41</v>
       </c>
@@ -2926,7 +2932,7 @@
       </c>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="53"/>
+      <c r="A44" s="54"/>
       <c r="B44" s="1">
         <v>42</v>
       </c>
@@ -2968,7 +2974,7 @@
       </c>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="53"/>
+      <c r="A45" s="54"/>
       <c r="B45" s="1">
         <v>43</v>
       </c>
@@ -3010,7 +3016,7 @@
       </c>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="53"/>
+      <c r="A46" s="54"/>
       <c r="B46" s="1">
         <v>44</v>
       </c>
@@ -3052,7 +3058,7 @@
       </c>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="53"/>
+      <c r="A47" s="54"/>
       <c r="B47" s="1">
         <v>45</v>
       </c>
@@ -3094,7 +3100,7 @@
       </c>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="53"/>
+      <c r="A48" s="54"/>
       <c r="B48" s="1">
         <v>46</v>
       </c>
@@ -3136,7 +3142,7 @@
       </c>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="53"/>
+      <c r="A49" s="54"/>
       <c r="B49" s="1">
         <v>47</v>
       </c>
@@ -3178,7 +3184,7 @@
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="53"/>
+      <c r="A50" s="54"/>
       <c r="B50" s="1">
         <v>48</v>
       </c>
@@ -3220,7 +3226,7 @@
       </c>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="53"/>
+      <c r="A51" s="54"/>
       <c r="B51" s="1">
         <v>49</v>
       </c>
@@ -3262,7 +3268,7 @@
       </c>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="53"/>
+      <c r="A52" s="54"/>
       <c r="B52" s="1">
         <v>50</v>
       </c>
@@ -3304,7 +3310,7 @@
       </c>
     </row>
     <row r="53" spans="1:14">
-      <c r="A53" s="53"/>
+      <c r="A53" s="54"/>
       <c r="B53" s="1">
         <v>51</v>
       </c>
@@ -3346,7 +3352,7 @@
       </c>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="53"/>
+      <c r="A54" s="54"/>
       <c r="B54" s="1">
         <v>52</v>
       </c>
@@ -3388,7 +3394,7 @@
       </c>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="53"/>
+      <c r="A55" s="54"/>
       <c r="B55" s="1">
         <v>53</v>
       </c>
@@ -3430,7 +3436,7 @@
       </c>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="53"/>
+      <c r="A56" s="54"/>
       <c r="B56" s="1">
         <v>54</v>
       </c>
@@ -3472,7 +3478,7 @@
       </c>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="53"/>
+      <c r="A57" s="54"/>
       <c r="B57" s="1">
         <v>55</v>
       </c>
@@ -3514,7 +3520,7 @@
       </c>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="53"/>
+      <c r="A58" s="54"/>
       <c r="B58" s="1">
         <v>56</v>
       </c>
@@ -3556,7 +3562,7 @@
       </c>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="53"/>
+      <c r="A59" s="54"/>
       <c r="B59" s="1">
         <v>57</v>
       </c>
@@ -3598,7 +3604,7 @@
       </c>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="53"/>
+      <c r="A60" s="54"/>
       <c r="B60" s="1">
         <v>58</v>
       </c>
@@ -3640,7 +3646,7 @@
       </c>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="53"/>
+      <c r="A61" s="54"/>
       <c r="B61" s="1">
         <v>59</v>
       </c>
@@ -3682,7 +3688,7 @@
       </c>
     </row>
     <row r="62" spans="1:14">
-      <c r="A62" s="53"/>
+      <c r="A62" s="54"/>
       <c r="B62" s="1">
         <v>60</v>
       </c>
@@ -3724,7 +3730,7 @@
       </c>
     </row>
     <row r="63" spans="1:14">
-      <c r="A63" s="53"/>
+      <c r="A63" s="54"/>
       <c r="B63" s="1">
         <v>61</v>
       </c>
@@ -3766,7 +3772,7 @@
       </c>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="53"/>
+      <c r="A64" s="54"/>
       <c r="B64" s="1">
         <v>62</v>
       </c>
@@ -3808,7 +3814,7 @@
       </c>
     </row>
     <row r="65" spans="1:14">
-      <c r="A65" s="53"/>
+      <c r="A65" s="54"/>
       <c r="B65" s="1">
         <v>63</v>
       </c>
@@ -3850,7 +3856,7 @@
       </c>
     </row>
     <row r="66" spans="1:14">
-      <c r="A66" s="53"/>
+      <c r="A66" s="54"/>
       <c r="B66" s="1">
         <v>64</v>
       </c>
@@ -3892,7 +3898,7 @@
       </c>
     </row>
     <row r="67" spans="1:14">
-      <c r="A67" s="53"/>
+      <c r="A67" s="54"/>
       <c r="B67" s="1">
         <v>65</v>
       </c>
@@ -3934,7 +3940,7 @@
       </c>
     </row>
     <row r="68" spans="1:14">
-      <c r="A68" s="53"/>
+      <c r="A68" s="54"/>
       <c r="B68" s="1">
         <v>66</v>
       </c>
@@ -3976,7 +3982,7 @@
       </c>
     </row>
     <row r="69" spans="1:14">
-      <c r="A69" s="53"/>
+      <c r="A69" s="54"/>
       <c r="B69" s="1">
         <v>67</v>
       </c>
@@ -4018,7 +4024,7 @@
       </c>
     </row>
     <row r="70" spans="1:14">
-      <c r="A70" s="53"/>
+      <c r="A70" s="54"/>
       <c r="B70" s="1">
         <v>68</v>
       </c>
@@ -4060,7 +4066,7 @@
       </c>
     </row>
     <row r="71" spans="1:14">
-      <c r="A71" s="53"/>
+      <c r="A71" s="54"/>
       <c r="B71" s="1">
         <v>69</v>
       </c>
@@ -4102,7 +4108,7 @@
       </c>
     </row>
     <row r="72" spans="1:14">
-      <c r="A72" s="53"/>
+      <c r="A72" s="54"/>
       <c r="B72" s="1">
         <v>70</v>
       </c>
@@ -4144,7 +4150,7 @@
       </c>
     </row>
     <row r="73" spans="1:14">
-      <c r="A73" s="53"/>
+      <c r="A73" s="54"/>
       <c r="B73" s="1">
         <v>71</v>
       </c>
@@ -4186,7 +4192,7 @@
       </c>
     </row>
     <row r="74" spans="1:14">
-      <c r="A74" s="53"/>
+      <c r="A74" s="54"/>
       <c r="B74" s="1">
         <v>72</v>
       </c>
@@ -4228,7 +4234,7 @@
       </c>
     </row>
     <row r="75" spans="1:14">
-      <c r="A75" s="53"/>
+      <c r="A75" s="54"/>
       <c r="B75" s="1">
         <v>73</v>
       </c>
@@ -4270,7 +4276,7 @@
       </c>
     </row>
     <row r="76" spans="1:14">
-      <c r="A76" s="53"/>
+      <c r="A76" s="54"/>
       <c r="B76" s="1">
         <v>74</v>
       </c>
@@ -4312,7 +4318,7 @@
       </c>
     </row>
     <row r="77" spans="1:14">
-      <c r="A77" s="53"/>
+      <c r="A77" s="54"/>
       <c r="B77" s="1">
         <v>75</v>
       </c>
@@ -4354,7 +4360,7 @@
       </c>
     </row>
     <row r="78" spans="1:14">
-      <c r="A78" s="53"/>
+      <c r="A78" s="54"/>
       <c r="B78" s="1">
         <v>76</v>
       </c>
@@ -4396,7 +4402,7 @@
       </c>
     </row>
     <row r="79" spans="1:14">
-      <c r="A79" s="53"/>
+      <c r="A79" s="54"/>
       <c r="B79" s="1">
         <v>77</v>
       </c>
@@ -4438,7 +4444,7 @@
       </c>
     </row>
     <row r="80" spans="1:14">
-      <c r="A80" s="53"/>
+      <c r="A80" s="54"/>
       <c r="B80" s="1">
         <v>78</v>
       </c>
@@ -4480,7 +4486,7 @@
       </c>
     </row>
     <row r="81" spans="1:14">
-      <c r="A81" s="53"/>
+      <c r="A81" s="54"/>
       <c r="B81" s="1">
         <v>79</v>
       </c>
@@ -4522,7 +4528,7 @@
       </c>
     </row>
     <row r="82" spans="1:14">
-      <c r="A82" s="53"/>
+      <c r="A82" s="54"/>
       <c r="B82" s="1">
         <v>80</v>
       </c>
@@ -4564,7 +4570,7 @@
       </c>
     </row>
     <row r="83" spans="1:14">
-      <c r="A83" s="53"/>
+      <c r="A83" s="54"/>
       <c r="B83" s="1">
         <v>81</v>
       </c>
@@ -4606,7 +4612,7 @@
       </c>
     </row>
     <row r="84" spans="1:14">
-      <c r="A84" s="53"/>
+      <c r="A84" s="54"/>
       <c r="B84" s="1">
         <v>82</v>
       </c>
@@ -4648,7 +4654,7 @@
       </c>
     </row>
     <row r="85" spans="1:14">
-      <c r="A85" s="53"/>
+      <c r="A85" s="54"/>
       <c r="B85" s="1">
         <v>83</v>
       </c>
@@ -4690,7 +4696,7 @@
       </c>
     </row>
     <row r="86" spans="1:14">
-      <c r="A86" s="53"/>
+      <c r="A86" s="54"/>
       <c r="B86" s="1">
         <v>84</v>
       </c>
@@ -4732,7 +4738,7 @@
       </c>
     </row>
     <row r="87" spans="1:14">
-      <c r="A87" s="53"/>
+      <c r="A87" s="54"/>
       <c r="B87" s="1">
         <v>85</v>
       </c>
@@ -4774,7 +4780,7 @@
       </c>
     </row>
     <row r="88" spans="1:14">
-      <c r="A88" s="53"/>
+      <c r="A88" s="54"/>
       <c r="B88" s="1">
         <v>86</v>
       </c>
@@ -4816,7 +4822,7 @@
       </c>
     </row>
     <row r="89" spans="1:14">
-      <c r="A89" s="53"/>
+      <c r="A89" s="54"/>
       <c r="B89" s="1">
         <v>87</v>
       </c>
@@ -4858,7 +4864,7 @@
       </c>
     </row>
     <row r="90" spans="1:14">
-      <c r="A90" s="53"/>
+      <c r="A90" s="54"/>
       <c r="B90" s="1">
         <v>88</v>
       </c>
@@ -4900,7 +4906,7 @@
       </c>
     </row>
     <row r="91" spans="1:14">
-      <c r="A91" s="53"/>
+      <c r="A91" s="54"/>
       <c r="B91" s="1">
         <v>89</v>
       </c>
@@ -4942,7 +4948,7 @@
       </c>
     </row>
     <row r="92" spans="1:14">
-      <c r="A92" s="53"/>
+      <c r="A92" s="54"/>
       <c r="B92" s="1">
         <v>90</v>
       </c>
@@ -4984,7 +4990,7 @@
       </c>
     </row>
     <row r="93" spans="1:14">
-      <c r="A93" s="53"/>
+      <c r="A93" s="54"/>
       <c r="B93" s="1">
         <v>91</v>
       </c>
@@ -5026,7 +5032,7 @@
       </c>
     </row>
     <row r="94" spans="1:14">
-      <c r="A94" s="53"/>
+      <c r="A94" s="54"/>
       <c r="B94" s="1">
         <v>92</v>
       </c>
@@ -5068,7 +5074,7 @@
       </c>
     </row>
     <row r="95" spans="1:14">
-      <c r="A95" s="53"/>
+      <c r="A95" s="54"/>
       <c r="B95" s="1">
         <v>93</v>
       </c>
@@ -5110,7 +5116,7 @@
       </c>
     </row>
     <row r="96" spans="1:14">
-      <c r="A96" s="53"/>
+      <c r="A96" s="54"/>
       <c r="B96" s="1">
         <v>94</v>
       </c>
@@ -5152,7 +5158,7 @@
       </c>
     </row>
     <row r="97" spans="1:14">
-      <c r="A97" s="53"/>
+      <c r="A97" s="54"/>
       <c r="B97" s="1">
         <v>95</v>
       </c>
@@ -5194,7 +5200,7 @@
       </c>
     </row>
     <row r="98" spans="1:14">
-      <c r="A98" s="53"/>
+      <c r="A98" s="54"/>
       <c r="B98" s="1">
         <v>96</v>
       </c>
@@ -5236,7 +5242,7 @@
       </c>
     </row>
     <row r="99" spans="1:14">
-      <c r="A99" s="53"/>
+      <c r="A99" s="54"/>
       <c r="B99" s="1">
         <v>97</v>
       </c>
@@ -5278,7 +5284,7 @@
       </c>
     </row>
     <row r="100" spans="1:14">
-      <c r="A100" s="53"/>
+      <c r="A100" s="54"/>
       <c r="B100" s="1">
         <v>98</v>
       </c>
@@ -5320,7 +5326,7 @@
       </c>
     </row>
     <row r="101" spans="1:14">
-      <c r="A101" s="53"/>
+      <c r="A101" s="54"/>
       <c r="B101" s="1">
         <v>99</v>
       </c>
@@ -5362,7 +5368,7 @@
       </c>
     </row>
     <row r="102" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A102" s="54"/>
+      <c r="A102" s="55"/>
       <c r="B102" s="3">
         <v>100</v>
       </c>
@@ -5404,7 +5410,7 @@
       </c>
     </row>
     <row r="103" spans="1:14">
-      <c r="A103" s="52">
+      <c r="A103" s="53">
         <v>0.3</v>
       </c>
       <c r="B103" s="5">
@@ -5448,7 +5454,7 @@
       </c>
     </row>
     <row r="104" spans="1:14">
-      <c r="A104" s="53"/>
+      <c r="A104" s="54"/>
       <c r="B104" s="1">
         <v>2</v>
       </c>
@@ -5490,7 +5496,7 @@
       </c>
     </row>
     <row r="105" spans="1:14">
-      <c r="A105" s="53"/>
+      <c r="A105" s="54"/>
       <c r="B105" s="1">
         <v>3</v>
       </c>
@@ -5532,7 +5538,7 @@
       </c>
     </row>
     <row r="106" spans="1:14">
-      <c r="A106" s="53"/>
+      <c r="A106" s="54"/>
       <c r="B106" s="1">
         <v>4</v>
       </c>
@@ -5574,7 +5580,7 @@
       </c>
     </row>
     <row r="107" spans="1:14">
-      <c r="A107" s="53"/>
+      <c r="A107" s="54"/>
       <c r="B107" s="1">
         <v>5</v>
       </c>
@@ -5616,7 +5622,7 @@
       </c>
     </row>
     <row r="108" spans="1:14">
-      <c r="A108" s="53"/>
+      <c r="A108" s="54"/>
       <c r="B108" s="1">
         <v>6</v>
       </c>
@@ -5658,7 +5664,7 @@
       </c>
     </row>
     <row r="109" spans="1:14">
-      <c r="A109" s="53"/>
+      <c r="A109" s="54"/>
       <c r="B109" s="1">
         <v>7</v>
       </c>
@@ -5700,7 +5706,7 @@
       </c>
     </row>
     <row r="110" spans="1:14">
-      <c r="A110" s="53"/>
+      <c r="A110" s="54"/>
       <c r="B110" s="1">
         <v>8</v>
       </c>
@@ -5742,7 +5748,7 @@
       </c>
     </row>
     <row r="111" spans="1:14">
-      <c r="A111" s="53"/>
+      <c r="A111" s="54"/>
       <c r="B111" s="1">
         <v>9</v>
       </c>
@@ -5784,7 +5790,7 @@
       </c>
     </row>
     <row r="112" spans="1:14">
-      <c r="A112" s="53"/>
+      <c r="A112" s="54"/>
       <c r="B112" s="1">
         <v>10</v>
       </c>
@@ -5826,7 +5832,7 @@
       </c>
     </row>
     <row r="113" spans="1:14">
-      <c r="A113" s="53"/>
+      <c r="A113" s="54"/>
       <c r="B113" s="1">
         <v>11</v>
       </c>
@@ -5868,7 +5874,7 @@
       </c>
     </row>
     <row r="114" spans="1:14">
-      <c r="A114" s="53"/>
+      <c r="A114" s="54"/>
       <c r="B114" s="1">
         <v>12</v>
       </c>
@@ -5910,7 +5916,7 @@
       </c>
     </row>
     <row r="115" spans="1:14">
-      <c r="A115" s="53"/>
+      <c r="A115" s="54"/>
       <c r="B115" s="1">
         <v>13</v>
       </c>
@@ -5952,7 +5958,7 @@
       </c>
     </row>
     <row r="116" spans="1:14">
-      <c r="A116" s="53"/>
+      <c r="A116" s="54"/>
       <c r="B116" s="1">
         <v>14</v>
       </c>
@@ -5994,7 +6000,7 @@
       </c>
     </row>
     <row r="117" spans="1:14">
-      <c r="A117" s="53"/>
+      <c r="A117" s="54"/>
       <c r="B117" s="1">
         <v>15</v>
       </c>
@@ -6036,7 +6042,7 @@
       </c>
     </row>
     <row r="118" spans="1:14">
-      <c r="A118" s="53"/>
+      <c r="A118" s="54"/>
       <c r="B118" s="1">
         <v>16</v>
       </c>
@@ -6078,7 +6084,7 @@
       </c>
     </row>
     <row r="119" spans="1:14">
-      <c r="A119" s="53"/>
+      <c r="A119" s="54"/>
       <c r="B119" s="1">
         <v>17</v>
       </c>
@@ -6120,7 +6126,7 @@
       </c>
     </row>
     <row r="120" spans="1:14">
-      <c r="A120" s="53"/>
+      <c r="A120" s="54"/>
       <c r="B120" s="1">
         <v>18</v>
       </c>
@@ -6162,7 +6168,7 @@
       </c>
     </row>
     <row r="121" spans="1:14">
-      <c r="A121" s="53"/>
+      <c r="A121" s="54"/>
       <c r="B121" s="1">
         <v>19</v>
       </c>
@@ -6204,7 +6210,7 @@
       </c>
     </row>
     <row r="122" spans="1:14">
-      <c r="A122" s="53"/>
+      <c r="A122" s="54"/>
       <c r="B122" s="1">
         <v>20</v>
       </c>
@@ -6246,7 +6252,7 @@
       </c>
     </row>
     <row r="123" spans="1:14">
-      <c r="A123" s="53"/>
+      <c r="A123" s="54"/>
       <c r="B123" s="1">
         <v>21</v>
       </c>
@@ -6288,7 +6294,7 @@
       </c>
     </row>
     <row r="124" spans="1:14">
-      <c r="A124" s="53"/>
+      <c r="A124" s="54"/>
       <c r="B124" s="1">
         <v>22</v>
       </c>
@@ -6330,7 +6336,7 @@
       </c>
     </row>
     <row r="125" spans="1:14">
-      <c r="A125" s="53"/>
+      <c r="A125" s="54"/>
       <c r="B125" s="1">
         <v>23</v>
       </c>
@@ -6372,7 +6378,7 @@
       </c>
     </row>
     <row r="126" spans="1:14">
-      <c r="A126" s="53"/>
+      <c r="A126" s="54"/>
       <c r="B126" s="1">
         <v>24</v>
       </c>
@@ -6414,7 +6420,7 @@
       </c>
     </row>
     <row r="127" spans="1:14">
-      <c r="A127" s="53"/>
+      <c r="A127" s="54"/>
       <c r="B127" s="1">
         <v>25</v>
       </c>
@@ -6456,7 +6462,7 @@
       </c>
     </row>
     <row r="128" spans="1:14">
-      <c r="A128" s="53"/>
+      <c r="A128" s="54"/>
       <c r="B128" s="1">
         <v>26</v>
       </c>
@@ -6498,7 +6504,7 @@
       </c>
     </row>
     <row r="129" spans="1:14">
-      <c r="A129" s="53"/>
+      <c r="A129" s="54"/>
       <c r="B129" s="1">
         <v>27</v>
       </c>
@@ -6540,7 +6546,7 @@
       </c>
     </row>
     <row r="130" spans="1:14">
-      <c r="A130" s="53"/>
+      <c r="A130" s="54"/>
       <c r="B130" s="1">
         <v>28</v>
       </c>
@@ -6582,7 +6588,7 @@
       </c>
     </row>
     <row r="131" spans="1:14">
-      <c r="A131" s="53"/>
+      <c r="A131" s="54"/>
       <c r="B131" s="1">
         <v>29</v>
       </c>
@@ -6624,7 +6630,7 @@
       </c>
     </row>
     <row r="132" spans="1:14">
-      <c r="A132" s="53"/>
+      <c r="A132" s="54"/>
       <c r="B132" s="1">
         <v>30</v>
       </c>
@@ -6666,7 +6672,7 @@
       </c>
     </row>
     <row r="133" spans="1:14">
-      <c r="A133" s="53"/>
+      <c r="A133" s="54"/>
       <c r="B133" s="1">
         <v>31</v>
       </c>
@@ -6708,7 +6714,7 @@
       </c>
     </row>
     <row r="134" spans="1:14">
-      <c r="A134" s="53"/>
+      <c r="A134" s="54"/>
       <c r="B134" s="1">
         <v>32</v>
       </c>
@@ -6750,7 +6756,7 @@
       </c>
     </row>
     <row r="135" spans="1:14">
-      <c r="A135" s="53"/>
+      <c r="A135" s="54"/>
       <c r="B135" s="1">
         <v>33</v>
       </c>
@@ -6792,7 +6798,7 @@
       </c>
     </row>
     <row r="136" spans="1:14">
-      <c r="A136" s="53"/>
+      <c r="A136" s="54"/>
       <c r="B136" s="1">
         <v>34</v>
       </c>
@@ -6834,7 +6840,7 @@
       </c>
     </row>
     <row r="137" spans="1:14">
-      <c r="A137" s="53"/>
+      <c r="A137" s="54"/>
       <c r="B137" s="1">
         <v>35</v>
       </c>
@@ -6876,7 +6882,7 @@
       </c>
     </row>
     <row r="138" spans="1:14">
-      <c r="A138" s="53"/>
+      <c r="A138" s="54"/>
       <c r="B138" s="1">
         <v>36</v>
       </c>
@@ -6918,7 +6924,7 @@
       </c>
     </row>
     <row r="139" spans="1:14">
-      <c r="A139" s="53"/>
+      <c r="A139" s="54"/>
       <c r="B139" s="1">
         <v>37</v>
       </c>
@@ -6960,7 +6966,7 @@
       </c>
     </row>
     <row r="140" spans="1:14">
-      <c r="A140" s="53"/>
+      <c r="A140" s="54"/>
       <c r="B140" s="1">
         <v>38</v>
       </c>
@@ -7002,7 +7008,7 @@
       </c>
     </row>
     <row r="141" spans="1:14">
-      <c r="A141" s="53"/>
+      <c r="A141" s="54"/>
       <c r="B141" s="1">
         <v>39</v>
       </c>
@@ -7044,7 +7050,7 @@
       </c>
     </row>
     <row r="142" spans="1:14">
-      <c r="A142" s="53"/>
+      <c r="A142" s="54"/>
       <c r="B142" s="1">
         <v>40</v>
       </c>
@@ -7086,7 +7092,7 @@
       </c>
     </row>
     <row r="143" spans="1:14">
-      <c r="A143" s="53"/>
+      <c r="A143" s="54"/>
       <c r="B143" s="1">
         <v>41</v>
       </c>
@@ -7128,7 +7134,7 @@
       </c>
     </row>
     <row r="144" spans="1:14">
-      <c r="A144" s="53"/>
+      <c r="A144" s="54"/>
       <c r="B144" s="1">
         <v>42</v>
       </c>
@@ -7170,7 +7176,7 @@
       </c>
     </row>
     <row r="145" spans="1:14">
-      <c r="A145" s="53"/>
+      <c r="A145" s="54"/>
       <c r="B145" s="1">
         <v>43</v>
       </c>
@@ -7212,7 +7218,7 @@
       </c>
     </row>
     <row r="146" spans="1:14">
-      <c r="A146" s="53"/>
+      <c r="A146" s="54"/>
       <c r="B146" s="1">
         <v>44</v>
       </c>
@@ -7254,7 +7260,7 @@
       </c>
     </row>
     <row r="147" spans="1:14">
-      <c r="A147" s="53"/>
+      <c r="A147" s="54"/>
       <c r="B147" s="1">
         <v>45</v>
       </c>
@@ -7296,7 +7302,7 @@
       </c>
     </row>
     <row r="148" spans="1:14">
-      <c r="A148" s="53"/>
+      <c r="A148" s="54"/>
       <c r="B148" s="1">
         <v>46</v>
       </c>
@@ -7338,7 +7344,7 @@
       </c>
     </row>
     <row r="149" spans="1:14">
-      <c r="A149" s="53"/>
+      <c r="A149" s="54"/>
       <c r="B149" s="1">
         <v>47</v>
       </c>
@@ -7380,7 +7386,7 @@
       </c>
     </row>
     <row r="150" spans="1:14">
-      <c r="A150" s="53"/>
+      <c r="A150" s="54"/>
       <c r="B150" s="1">
         <v>48</v>
       </c>
@@ -7422,7 +7428,7 @@
       </c>
     </row>
     <row r="151" spans="1:14">
-      <c r="A151" s="53"/>
+      <c r="A151" s="54"/>
       <c r="B151" s="1">
         <v>49</v>
       </c>
@@ -7464,7 +7470,7 @@
       </c>
     </row>
     <row r="152" spans="1:14">
-      <c r="A152" s="53"/>
+      <c r="A152" s="54"/>
       <c r="B152" s="1">
         <v>50</v>
       </c>
@@ -7506,7 +7512,7 @@
       </c>
     </row>
     <row r="153" spans="1:14">
-      <c r="A153" s="53"/>
+      <c r="A153" s="54"/>
       <c r="B153" s="1">
         <v>51</v>
       </c>
@@ -7548,7 +7554,7 @@
       </c>
     </row>
     <row r="154" spans="1:14">
-      <c r="A154" s="53"/>
+      <c r="A154" s="54"/>
       <c r="B154" s="1">
         <v>52</v>
       </c>
@@ -7590,7 +7596,7 @@
       </c>
     </row>
     <row r="155" spans="1:14">
-      <c r="A155" s="53"/>
+      <c r="A155" s="54"/>
       <c r="B155" s="1">
         <v>53</v>
       </c>
@@ -7632,7 +7638,7 @@
       </c>
     </row>
     <row r="156" spans="1:14">
-      <c r="A156" s="53"/>
+      <c r="A156" s="54"/>
       <c r="B156" s="1">
         <v>54</v>
       </c>
@@ -7674,7 +7680,7 @@
       </c>
     </row>
     <row r="157" spans="1:14">
-      <c r="A157" s="53"/>
+      <c r="A157" s="54"/>
       <c r="B157" s="1">
         <v>55</v>
       </c>
@@ -7716,7 +7722,7 @@
       </c>
     </row>
     <row r="158" spans="1:14">
-      <c r="A158" s="53"/>
+      <c r="A158" s="54"/>
       <c r="B158" s="1">
         <v>56</v>
       </c>
@@ -7758,7 +7764,7 @@
       </c>
     </row>
     <row r="159" spans="1:14">
-      <c r="A159" s="53"/>
+      <c r="A159" s="54"/>
       <c r="B159" s="1">
         <v>57</v>
       </c>
@@ -7800,7 +7806,7 @@
       </c>
     </row>
     <row r="160" spans="1:14">
-      <c r="A160" s="53"/>
+      <c r="A160" s="54"/>
       <c r="B160" s="1">
         <v>58</v>
       </c>
@@ -7842,7 +7848,7 @@
       </c>
     </row>
     <row r="161" spans="1:14">
-      <c r="A161" s="53"/>
+      <c r="A161" s="54"/>
       <c r="B161" s="1">
         <v>59</v>
       </c>
@@ -7884,7 +7890,7 @@
       </c>
     </row>
     <row r="162" spans="1:14">
-      <c r="A162" s="53"/>
+      <c r="A162" s="54"/>
       <c r="B162" s="1">
         <v>60</v>
       </c>
@@ -7926,7 +7932,7 @@
       </c>
     </row>
     <row r="163" spans="1:14">
-      <c r="A163" s="53"/>
+      <c r="A163" s="54"/>
       <c r="B163" s="1">
         <v>61</v>
       </c>
@@ -7968,7 +7974,7 @@
       </c>
     </row>
     <row r="164" spans="1:14">
-      <c r="A164" s="53"/>
+      <c r="A164" s="54"/>
       <c r="B164" s="1">
         <v>62</v>
       </c>
@@ -8010,7 +8016,7 @@
       </c>
     </row>
     <row r="165" spans="1:14">
-      <c r="A165" s="53"/>
+      <c r="A165" s="54"/>
       <c r="B165" s="1">
         <v>63</v>
       </c>
@@ -8052,7 +8058,7 @@
       </c>
     </row>
     <row r="166" spans="1:14">
-      <c r="A166" s="53"/>
+      <c r="A166" s="54"/>
       <c r="B166" s="1">
         <v>64</v>
       </c>
@@ -8094,7 +8100,7 @@
       </c>
     </row>
     <row r="167" spans="1:14">
-      <c r="A167" s="53"/>
+      <c r="A167" s="54"/>
       <c r="B167" s="1">
         <v>65</v>
       </c>
@@ -8136,7 +8142,7 @@
       </c>
     </row>
     <row r="168" spans="1:14">
-      <c r="A168" s="53"/>
+      <c r="A168" s="54"/>
       <c r="B168" s="1">
         <v>66</v>
       </c>
@@ -8178,7 +8184,7 @@
       </c>
     </row>
     <row r="169" spans="1:14">
-      <c r="A169" s="53"/>
+      <c r="A169" s="54"/>
       <c r="B169" s="1">
         <v>67</v>
       </c>
@@ -8220,7 +8226,7 @@
       </c>
     </row>
     <row r="170" spans="1:14">
-      <c r="A170" s="53"/>
+      <c r="A170" s="54"/>
       <c r="B170" s="1">
         <v>68</v>
       </c>
@@ -8262,7 +8268,7 @@
       </c>
     </row>
     <row r="171" spans="1:14">
-      <c r="A171" s="53"/>
+      <c r="A171" s="54"/>
       <c r="B171" s="1">
         <v>69</v>
       </c>
@@ -8304,7 +8310,7 @@
       </c>
     </row>
     <row r="172" spans="1:14">
-      <c r="A172" s="53"/>
+      <c r="A172" s="54"/>
       <c r="B172" s="1">
         <v>70</v>
       </c>
@@ -8346,7 +8352,7 @@
       </c>
     </row>
     <row r="173" spans="1:14">
-      <c r="A173" s="53"/>
+      <c r="A173" s="54"/>
       <c r="B173" s="1">
         <v>71</v>
       </c>
@@ -8388,7 +8394,7 @@
       </c>
     </row>
     <row r="174" spans="1:14">
-      <c r="A174" s="53"/>
+      <c r="A174" s="54"/>
       <c r="B174" s="1">
         <v>72</v>
       </c>
@@ -8430,7 +8436,7 @@
       </c>
     </row>
     <row r="175" spans="1:14">
-      <c r="A175" s="53"/>
+      <c r="A175" s="54"/>
       <c r="B175" s="1">
         <v>73</v>
       </c>
@@ -8472,7 +8478,7 @@
       </c>
     </row>
     <row r="176" spans="1:14">
-      <c r="A176" s="53"/>
+      <c r="A176" s="54"/>
       <c r="B176" s="1">
         <v>74</v>
       </c>
@@ -8514,7 +8520,7 @@
       </c>
     </row>
     <row r="177" spans="1:14">
-      <c r="A177" s="53"/>
+      <c r="A177" s="54"/>
       <c r="B177" s="1">
         <v>75</v>
       </c>
@@ -8556,7 +8562,7 @@
       </c>
     </row>
     <row r="178" spans="1:14">
-      <c r="A178" s="53"/>
+      <c r="A178" s="54"/>
       <c r="B178" s="1">
         <v>76</v>
       </c>
@@ -8598,7 +8604,7 @@
       </c>
     </row>
     <row r="179" spans="1:14">
-      <c r="A179" s="53"/>
+      <c r="A179" s="54"/>
       <c r="B179" s="1">
         <v>77</v>
       </c>
@@ -8640,7 +8646,7 @@
       </c>
     </row>
     <row r="180" spans="1:14">
-      <c r="A180" s="53"/>
+      <c r="A180" s="54"/>
       <c r="B180" s="1">
         <v>78</v>
       </c>
@@ -8682,7 +8688,7 @@
       </c>
     </row>
     <row r="181" spans="1:14">
-      <c r="A181" s="53"/>
+      <c r="A181" s="54"/>
       <c r="B181" s="1">
         <v>79</v>
       </c>
@@ -8724,7 +8730,7 @@
       </c>
     </row>
     <row r="182" spans="1:14">
-      <c r="A182" s="53"/>
+      <c r="A182" s="54"/>
       <c r="B182" s="1">
         <v>80</v>
       </c>
@@ -8766,7 +8772,7 @@
       </c>
     </row>
     <row r="183" spans="1:14">
-      <c r="A183" s="53"/>
+      <c r="A183" s="54"/>
       <c r="B183" s="1">
         <v>81</v>
       </c>
@@ -8808,7 +8814,7 @@
       </c>
     </row>
     <row r="184" spans="1:14">
-      <c r="A184" s="53"/>
+      <c r="A184" s="54"/>
       <c r="B184" s="1">
         <v>82</v>
       </c>
@@ -8850,7 +8856,7 @@
       </c>
     </row>
     <row r="185" spans="1:14">
-      <c r="A185" s="53"/>
+      <c r="A185" s="54"/>
       <c r="B185" s="1">
         <v>83</v>
       </c>
@@ -8892,7 +8898,7 @@
       </c>
     </row>
     <row r="186" spans="1:14">
-      <c r="A186" s="53"/>
+      <c r="A186" s="54"/>
       <c r="B186" s="1">
         <v>84</v>
       </c>
@@ -8934,7 +8940,7 @@
       </c>
     </row>
     <row r="187" spans="1:14">
-      <c r="A187" s="53"/>
+      <c r="A187" s="54"/>
       <c r="B187" s="1">
         <v>85</v>
       </c>
@@ -8976,7 +8982,7 @@
       </c>
     </row>
     <row r="188" spans="1:14">
-      <c r="A188" s="53"/>
+      <c r="A188" s="54"/>
       <c r="B188" s="1">
         <v>86</v>
       </c>
@@ -9018,7 +9024,7 @@
       </c>
     </row>
     <row r="189" spans="1:14">
-      <c r="A189" s="53"/>
+      <c r="A189" s="54"/>
       <c r="B189" s="1">
         <v>87</v>
       </c>
@@ -9060,7 +9066,7 @@
       </c>
     </row>
     <row r="190" spans="1:14">
-      <c r="A190" s="53"/>
+      <c r="A190" s="54"/>
       <c r="B190" s="1">
         <v>88</v>
       </c>
@@ -9102,7 +9108,7 @@
       </c>
     </row>
     <row r="191" spans="1:14">
-      <c r="A191" s="53"/>
+      <c r="A191" s="54"/>
       <c r="B191" s="1">
         <v>89</v>
       </c>
@@ -9144,7 +9150,7 @@
       </c>
     </row>
     <row r="192" spans="1:14">
-      <c r="A192" s="53"/>
+      <c r="A192" s="54"/>
       <c r="B192" s="1">
         <v>90</v>
       </c>
@@ -9186,7 +9192,7 @@
       </c>
     </row>
     <row r="193" spans="1:14">
-      <c r="A193" s="53"/>
+      <c r="A193" s="54"/>
       <c r="B193" s="1">
         <v>91</v>
       </c>
@@ -9228,7 +9234,7 @@
       </c>
     </row>
     <row r="194" spans="1:14">
-      <c r="A194" s="53"/>
+      <c r="A194" s="54"/>
       <c r="B194" s="1">
         <v>92</v>
       </c>
@@ -9270,7 +9276,7 @@
       </c>
     </row>
     <row r="195" spans="1:14">
-      <c r="A195" s="53"/>
+      <c r="A195" s="54"/>
       <c r="B195" s="1">
         <v>93</v>
       </c>
@@ -9312,7 +9318,7 @@
       </c>
     </row>
     <row r="196" spans="1:14">
-      <c r="A196" s="53"/>
+      <c r="A196" s="54"/>
       <c r="B196" s="1">
         <v>94</v>
       </c>
@@ -9354,7 +9360,7 @@
       </c>
     </row>
     <row r="197" spans="1:14">
-      <c r="A197" s="53"/>
+      <c r="A197" s="54"/>
       <c r="B197" s="1">
         <v>95</v>
       </c>
@@ -9396,7 +9402,7 @@
       </c>
     </row>
     <row r="198" spans="1:14">
-      <c r="A198" s="53"/>
+      <c r="A198" s="54"/>
       <c r="B198" s="1">
         <v>96</v>
       </c>
@@ -9438,7 +9444,7 @@
       </c>
     </row>
     <row r="199" spans="1:14">
-      <c r="A199" s="53"/>
+      <c r="A199" s="54"/>
       <c r="B199" s="1">
         <v>97</v>
       </c>
@@ -9480,7 +9486,7 @@
       </c>
     </row>
     <row r="200" spans="1:14">
-      <c r="A200" s="53"/>
+      <c r="A200" s="54"/>
       <c r="B200" s="1">
         <v>98</v>
       </c>
@@ -9522,7 +9528,7 @@
       </c>
     </row>
     <row r="201" spans="1:14">
-      <c r="A201" s="53"/>
+      <c r="A201" s="54"/>
       <c r="B201" s="1">
         <v>99</v>
       </c>
@@ -9564,7 +9570,7 @@
       </c>
     </row>
     <row r="202" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A202" s="54"/>
+      <c r="A202" s="55"/>
       <c r="B202" s="24">
         <v>100</v>
       </c>
@@ -9606,7 +9612,7 @@
       </c>
     </row>
     <row r="203" spans="1:14">
-      <c r="A203" s="59">
+      <c r="A203" s="60">
         <v>0.5</v>
       </c>
       <c r="B203" s="19">
@@ -9650,7 +9656,7 @@
       </c>
     </row>
     <row r="204" spans="1:14">
-      <c r="A204" s="53"/>
+      <c r="A204" s="54"/>
       <c r="B204" s="1">
         <v>2</v>
       </c>
@@ -9692,7 +9698,7 @@
       </c>
     </row>
     <row r="205" spans="1:14">
-      <c r="A205" s="53"/>
+      <c r="A205" s="54"/>
       <c r="B205" s="1">
         <v>3</v>
       </c>
@@ -9734,7 +9740,7 @@
       </c>
     </row>
     <row r="206" spans="1:14">
-      <c r="A206" s="53"/>
+      <c r="A206" s="54"/>
       <c r="B206" s="1">
         <v>4</v>
       </c>
@@ -9776,7 +9782,7 @@
       </c>
     </row>
     <row r="207" spans="1:14">
-      <c r="A207" s="53"/>
+      <c r="A207" s="54"/>
       <c r="B207" s="1">
         <v>5</v>
       </c>
@@ -9818,7 +9824,7 @@
       </c>
     </row>
     <row r="208" spans="1:14">
-      <c r="A208" s="53"/>
+      <c r="A208" s="54"/>
       <c r="B208" s="1">
         <v>6</v>
       </c>
@@ -9860,7 +9866,7 @@
       </c>
     </row>
     <row r="209" spans="1:14">
-      <c r="A209" s="53"/>
+      <c r="A209" s="54"/>
       <c r="B209" s="1">
         <v>7</v>
       </c>
@@ -9902,7 +9908,7 @@
       </c>
     </row>
     <row r="210" spans="1:14">
-      <c r="A210" s="53"/>
+      <c r="A210" s="54"/>
       <c r="B210" s="1">
         <v>8</v>
       </c>
@@ -9944,7 +9950,7 @@
       </c>
     </row>
     <row r="211" spans="1:14">
-      <c r="A211" s="53"/>
+      <c r="A211" s="54"/>
       <c r="B211" s="1">
         <v>9</v>
       </c>
@@ -9986,7 +9992,7 @@
       </c>
     </row>
     <row r="212" spans="1:14">
-      <c r="A212" s="53"/>
+      <c r="A212" s="54"/>
       <c r="B212" s="1">
         <v>10</v>
       </c>
@@ -10028,7 +10034,7 @@
       </c>
     </row>
     <row r="213" spans="1:14">
-      <c r="A213" s="53"/>
+      <c r="A213" s="54"/>
       <c r="B213" s="1">
         <v>11</v>
       </c>
@@ -10070,7 +10076,7 @@
       </c>
     </row>
     <row r="214" spans="1:14">
-      <c r="A214" s="53"/>
+      <c r="A214" s="54"/>
       <c r="B214" s="1">
         <v>12</v>
       </c>
@@ -10112,7 +10118,7 @@
       </c>
     </row>
     <row r="215" spans="1:14">
-      <c r="A215" s="53"/>
+      <c r="A215" s="54"/>
       <c r="B215" s="1">
         <v>13</v>
       </c>
@@ -10154,7 +10160,7 @@
       </c>
     </row>
     <row r="216" spans="1:14">
-      <c r="A216" s="53"/>
+      <c r="A216" s="54"/>
       <c r="B216" s="1">
         <v>14</v>
       </c>
@@ -10196,7 +10202,7 @@
       </c>
     </row>
     <row r="217" spans="1:14">
-      <c r="A217" s="53"/>
+      <c r="A217" s="54"/>
       <c r="B217" s="1">
         <v>15</v>
       </c>
@@ -10238,7 +10244,7 @@
       </c>
     </row>
     <row r="218" spans="1:14">
-      <c r="A218" s="53"/>
+      <c r="A218" s="54"/>
       <c r="B218" s="1">
         <v>16</v>
       </c>
@@ -10280,7 +10286,7 @@
       </c>
     </row>
     <row r="219" spans="1:14">
-      <c r="A219" s="53"/>
+      <c r="A219" s="54"/>
       <c r="B219" s="1">
         <v>17</v>
       </c>
@@ -10322,7 +10328,7 @@
       </c>
     </row>
     <row r="220" spans="1:14">
-      <c r="A220" s="53"/>
+      <c r="A220" s="54"/>
       <c r="B220" s="1">
         <v>18</v>
       </c>
@@ -10364,7 +10370,7 @@
       </c>
     </row>
     <row r="221" spans="1:14">
-      <c r="A221" s="53"/>
+      <c r="A221" s="54"/>
       <c r="B221" s="1">
         <v>19</v>
       </c>
@@ -10406,7 +10412,7 @@
       </c>
     </row>
     <row r="222" spans="1:14">
-      <c r="A222" s="53"/>
+      <c r="A222" s="54"/>
       <c r="B222" s="1">
         <v>20</v>
       </c>
@@ -10448,7 +10454,7 @@
       </c>
     </row>
     <row r="223" spans="1:14">
-      <c r="A223" s="53"/>
+      <c r="A223" s="54"/>
       <c r="B223" s="1">
         <v>21</v>
       </c>
@@ -10490,7 +10496,7 @@
       </c>
     </row>
     <row r="224" spans="1:14">
-      <c r="A224" s="53"/>
+      <c r="A224" s="54"/>
       <c r="B224" s="1">
         <v>22</v>
       </c>
@@ -10532,7 +10538,7 @@
       </c>
     </row>
     <row r="225" spans="1:14">
-      <c r="A225" s="53"/>
+      <c r="A225" s="54"/>
       <c r="B225" s="1">
         <v>23</v>
       </c>
@@ -10574,7 +10580,7 @@
       </c>
     </row>
     <row r="226" spans="1:14">
-      <c r="A226" s="53"/>
+      <c r="A226" s="54"/>
       <c r="B226" s="1">
         <v>24</v>
       </c>
@@ -10616,7 +10622,7 @@
       </c>
     </row>
     <row r="227" spans="1:14">
-      <c r="A227" s="53"/>
+      <c r="A227" s="54"/>
       <c r="B227" s="1">
         <v>25</v>
       </c>
@@ -10658,7 +10664,7 @@
       </c>
     </row>
     <row r="228" spans="1:14">
-      <c r="A228" s="53"/>
+      <c r="A228" s="54"/>
       <c r="B228" s="1">
         <v>26</v>
       </c>
@@ -10700,7 +10706,7 @@
       </c>
     </row>
     <row r="229" spans="1:14">
-      <c r="A229" s="53"/>
+      <c r="A229" s="54"/>
       <c r="B229" s="1">
         <v>27</v>
       </c>
@@ -10742,7 +10748,7 @@
       </c>
     </row>
     <row r="230" spans="1:14">
-      <c r="A230" s="53"/>
+      <c r="A230" s="54"/>
       <c r="B230" s="1">
         <v>28</v>
       </c>
@@ -10784,7 +10790,7 @@
       </c>
     </row>
     <row r="231" spans="1:14">
-      <c r="A231" s="53"/>
+      <c r="A231" s="54"/>
       <c r="B231" s="1">
         <v>29</v>
       </c>
@@ -10826,7 +10832,7 @@
       </c>
     </row>
     <row r="232" spans="1:14">
-      <c r="A232" s="53"/>
+      <c r="A232" s="54"/>
       <c r="B232" s="1">
         <v>30</v>
       </c>
@@ -10868,7 +10874,7 @@
       </c>
     </row>
     <row r="233" spans="1:14">
-      <c r="A233" s="53"/>
+      <c r="A233" s="54"/>
       <c r="B233" s="1">
         <v>31</v>
       </c>
@@ -10910,7 +10916,7 @@
       </c>
     </row>
     <row r="234" spans="1:14">
-      <c r="A234" s="53"/>
+      <c r="A234" s="54"/>
       <c r="B234" s="1">
         <v>32</v>
       </c>
@@ -10952,7 +10958,7 @@
       </c>
     </row>
     <row r="235" spans="1:14">
-      <c r="A235" s="53"/>
+      <c r="A235" s="54"/>
       <c r="B235" s="1">
         <v>33</v>
       </c>
@@ -10994,7 +11000,7 @@
       </c>
     </row>
     <row r="236" spans="1:14">
-      <c r="A236" s="53"/>
+      <c r="A236" s="54"/>
       <c r="B236" s="1">
         <v>34</v>
       </c>
@@ -11036,7 +11042,7 @@
       </c>
     </row>
     <row r="237" spans="1:14">
-      <c r="A237" s="53"/>
+      <c r="A237" s="54"/>
       <c r="B237" s="1">
         <v>35</v>
       </c>
@@ -11078,7 +11084,7 @@
       </c>
     </row>
     <row r="238" spans="1:14">
-      <c r="A238" s="53"/>
+      <c r="A238" s="54"/>
       <c r="B238" s="1">
         <v>36</v>
       </c>
@@ -11120,7 +11126,7 @@
       </c>
     </row>
     <row r="239" spans="1:14">
-      <c r="A239" s="53"/>
+      <c r="A239" s="54"/>
       <c r="B239" s="1">
         <v>37</v>
       </c>
@@ -11162,7 +11168,7 @@
       </c>
     </row>
     <row r="240" spans="1:14">
-      <c r="A240" s="53"/>
+      <c r="A240" s="54"/>
       <c r="B240" s="1">
         <v>38</v>
       </c>
@@ -11204,7 +11210,7 @@
       </c>
     </row>
     <row r="241" spans="1:14">
-      <c r="A241" s="53"/>
+      <c r="A241" s="54"/>
       <c r="B241" s="1">
         <v>39</v>
       </c>
@@ -11246,7 +11252,7 @@
       </c>
     </row>
     <row r="242" spans="1:14">
-      <c r="A242" s="53"/>
+      <c r="A242" s="54"/>
       <c r="B242" s="1">
         <v>40</v>
       </c>
@@ -11288,7 +11294,7 @@
       </c>
     </row>
     <row r="243" spans="1:14">
-      <c r="A243" s="53"/>
+      <c r="A243" s="54"/>
       <c r="B243" s="1">
         <v>41</v>
       </c>
@@ -11330,7 +11336,7 @@
       </c>
     </row>
     <row r="244" spans="1:14">
-      <c r="A244" s="53"/>
+      <c r="A244" s="54"/>
       <c r="B244" s="1">
         <v>42</v>
       </c>
@@ -11372,7 +11378,7 @@
       </c>
     </row>
     <row r="245" spans="1:14">
-      <c r="A245" s="53"/>
+      <c r="A245" s="54"/>
       <c r="B245" s="1">
         <v>43</v>
       </c>
@@ -11414,7 +11420,7 @@
       </c>
     </row>
     <row r="246" spans="1:14">
-      <c r="A246" s="53"/>
+      <c r="A246" s="54"/>
       <c r="B246" s="1">
         <v>44</v>
       </c>
@@ -11456,7 +11462,7 @@
       </c>
     </row>
     <row r="247" spans="1:14">
-      <c r="A247" s="53"/>
+      <c r="A247" s="54"/>
       <c r="B247" s="1">
         <v>45</v>
       </c>
@@ -11498,7 +11504,7 @@
       </c>
     </row>
     <row r="248" spans="1:14">
-      <c r="A248" s="53"/>
+      <c r="A248" s="54"/>
       <c r="B248" s="1">
         <v>46</v>
       </c>
@@ -11540,7 +11546,7 @@
       </c>
     </row>
     <row r="249" spans="1:14">
-      <c r="A249" s="53"/>
+      <c r="A249" s="54"/>
       <c r="B249" s="1">
         <v>47</v>
       </c>
@@ -11582,7 +11588,7 @@
       </c>
     </row>
     <row r="250" spans="1:14">
-      <c r="A250" s="53"/>
+      <c r="A250" s="54"/>
       <c r="B250" s="1">
         <v>48</v>
       </c>
@@ -11624,7 +11630,7 @@
       </c>
     </row>
     <row r="251" spans="1:14">
-      <c r="A251" s="53"/>
+      <c r="A251" s="54"/>
       <c r="B251" s="1">
         <v>49</v>
       </c>
@@ -11666,7 +11672,7 @@
       </c>
     </row>
     <row r="252" spans="1:14">
-      <c r="A252" s="53"/>
+      <c r="A252" s="54"/>
       <c r="B252" s="1">
         <v>50</v>
       </c>
@@ -11708,7 +11714,7 @@
       </c>
     </row>
     <row r="253" spans="1:14">
-      <c r="A253" s="53"/>
+      <c r="A253" s="54"/>
       <c r="B253" s="1">
         <v>51</v>
       </c>
@@ -11750,7 +11756,7 @@
       </c>
     </row>
     <row r="254" spans="1:14">
-      <c r="A254" s="53"/>
+      <c r="A254" s="54"/>
       <c r="B254" s="1">
         <v>52</v>
       </c>
@@ -11792,7 +11798,7 @@
       </c>
     </row>
     <row r="255" spans="1:14">
-      <c r="A255" s="53"/>
+      <c r="A255" s="54"/>
       <c r="B255" s="1">
         <v>53</v>
       </c>
@@ -11834,7 +11840,7 @@
       </c>
     </row>
     <row r="256" spans="1:14">
-      <c r="A256" s="53"/>
+      <c r="A256" s="54"/>
       <c r="B256" s="1">
         <v>54</v>
       </c>
@@ -11876,7 +11882,7 @@
       </c>
     </row>
     <row r="257" spans="1:14">
-      <c r="A257" s="53"/>
+      <c r="A257" s="54"/>
       <c r="B257" s="1">
         <v>55</v>
       </c>
@@ -11918,7 +11924,7 @@
       </c>
     </row>
     <row r="258" spans="1:14">
-      <c r="A258" s="53"/>
+      <c r="A258" s="54"/>
       <c r="B258" s="1">
         <v>56</v>
       </c>
@@ -11960,7 +11966,7 @@
       </c>
     </row>
     <row r="259" spans="1:14">
-      <c r="A259" s="53"/>
+      <c r="A259" s="54"/>
       <c r="B259" s="1">
         <v>57</v>
       </c>
@@ -12002,7 +12008,7 @@
       </c>
     </row>
     <row r="260" spans="1:14">
-      <c r="A260" s="53"/>
+      <c r="A260" s="54"/>
       <c r="B260" s="1">
         <v>58</v>
       </c>
@@ -12044,7 +12050,7 @@
       </c>
     </row>
     <row r="261" spans="1:14">
-      <c r="A261" s="53"/>
+      <c r="A261" s="54"/>
       <c r="B261" s="1">
         <v>59</v>
       </c>
@@ -12086,7 +12092,7 @@
       </c>
     </row>
     <row r="262" spans="1:14">
-      <c r="A262" s="53"/>
+      <c r="A262" s="54"/>
       <c r="B262" s="1">
         <v>60</v>
       </c>
@@ -12128,7 +12134,7 @@
       </c>
     </row>
     <row r="263" spans="1:14">
-      <c r="A263" s="53"/>
+      <c r="A263" s="54"/>
       <c r="B263" s="1">
         <v>61</v>
       </c>
@@ -12170,7 +12176,7 @@
       </c>
     </row>
     <row r="264" spans="1:14">
-      <c r="A264" s="53"/>
+      <c r="A264" s="54"/>
       <c r="B264" s="1">
         <v>62</v>
       </c>
@@ -12212,7 +12218,7 @@
       </c>
     </row>
     <row r="265" spans="1:14">
-      <c r="A265" s="53"/>
+      <c r="A265" s="54"/>
       <c r="B265" s="1">
         <v>63</v>
       </c>
@@ -12254,7 +12260,7 @@
       </c>
     </row>
     <row r="266" spans="1:14">
-      <c r="A266" s="53"/>
+      <c r="A266" s="54"/>
       <c r="B266" s="1">
         <v>64</v>
       </c>
@@ -12296,7 +12302,7 @@
       </c>
     </row>
     <row r="267" spans="1:14">
-      <c r="A267" s="53"/>
+      <c r="A267" s="54"/>
       <c r="B267" s="1">
         <v>65</v>
       </c>
@@ -12338,7 +12344,7 @@
       </c>
     </row>
     <row r="268" spans="1:14">
-      <c r="A268" s="53"/>
+      <c r="A268" s="54"/>
       <c r="B268" s="1">
         <v>66</v>
       </c>
@@ -12380,7 +12386,7 @@
       </c>
     </row>
     <row r="269" spans="1:14">
-      <c r="A269" s="53"/>
+      <c r="A269" s="54"/>
       <c r="B269" s="1">
         <v>67</v>
       </c>
@@ -12422,7 +12428,7 @@
       </c>
     </row>
     <row r="270" spans="1:14">
-      <c r="A270" s="53"/>
+      <c r="A270" s="54"/>
       <c r="B270" s="1">
         <v>68</v>
       </c>
@@ -12464,7 +12470,7 @@
       </c>
     </row>
     <row r="271" spans="1:14">
-      <c r="A271" s="53"/>
+      <c r="A271" s="54"/>
       <c r="B271" s="1">
         <v>69</v>
       </c>
@@ -12506,7 +12512,7 @@
       </c>
     </row>
     <row r="272" spans="1:14">
-      <c r="A272" s="53"/>
+      <c r="A272" s="54"/>
       <c r="B272" s="1">
         <v>70</v>
       </c>
@@ -12548,7 +12554,7 @@
       </c>
     </row>
     <row r="273" spans="1:14">
-      <c r="A273" s="53"/>
+      <c r="A273" s="54"/>
       <c r="B273" s="1">
         <v>71</v>
       </c>
@@ -12590,7 +12596,7 @@
       </c>
     </row>
     <row r="274" spans="1:14">
-      <c r="A274" s="53"/>
+      <c r="A274" s="54"/>
       <c r="B274" s="1">
         <v>72</v>
       </c>
@@ -12632,7 +12638,7 @@
       </c>
     </row>
     <row r="275" spans="1:14">
-      <c r="A275" s="53"/>
+      <c r="A275" s="54"/>
       <c r="B275" s="1">
         <v>73</v>
       </c>
@@ -12674,7 +12680,7 @@
       </c>
     </row>
     <row r="276" spans="1:14">
-      <c r="A276" s="53"/>
+      <c r="A276" s="54"/>
       <c r="B276" s="1">
         <v>74</v>
       </c>
@@ -12716,7 +12722,7 @@
       </c>
     </row>
     <row r="277" spans="1:14">
-      <c r="A277" s="53"/>
+      <c r="A277" s="54"/>
       <c r="B277" s="1">
         <v>75</v>
       </c>
@@ -12758,7 +12764,7 @@
       </c>
     </row>
     <row r="278" spans="1:14">
-      <c r="A278" s="53"/>
+      <c r="A278" s="54"/>
       <c r="B278" s="1">
         <v>76</v>
       </c>
@@ -12800,7 +12806,7 @@
       </c>
     </row>
     <row r="279" spans="1:14">
-      <c r="A279" s="53"/>
+      <c r="A279" s="54"/>
       <c r="B279" s="1">
         <v>77</v>
       </c>
@@ -12842,7 +12848,7 @@
       </c>
     </row>
     <row r="280" spans="1:14">
-      <c r="A280" s="53"/>
+      <c r="A280" s="54"/>
       <c r="B280" s="1">
         <v>78</v>
       </c>
@@ -12884,7 +12890,7 @@
       </c>
     </row>
     <row r="281" spans="1:14">
-      <c r="A281" s="53"/>
+      <c r="A281" s="54"/>
       <c r="B281" s="1">
         <v>79</v>
       </c>
@@ -12926,7 +12932,7 @@
       </c>
     </row>
     <row r="282" spans="1:14">
-      <c r="A282" s="53"/>
+      <c r="A282" s="54"/>
       <c r="B282" s="1">
         <v>80</v>
       </c>
@@ -12968,7 +12974,7 @@
       </c>
     </row>
     <row r="283" spans="1:14">
-      <c r="A283" s="53"/>
+      <c r="A283" s="54"/>
       <c r="B283" s="1">
         <v>81</v>
       </c>
@@ -13010,7 +13016,7 @@
       </c>
     </row>
     <row r="284" spans="1:14">
-      <c r="A284" s="53"/>
+      <c r="A284" s="54"/>
       <c r="B284" s="1">
         <v>82</v>
       </c>
@@ -13052,7 +13058,7 @@
       </c>
     </row>
     <row r="285" spans="1:14">
-      <c r="A285" s="53"/>
+      <c r="A285" s="54"/>
       <c r="B285" s="1">
         <v>83</v>
       </c>
@@ -13094,7 +13100,7 @@
       </c>
     </row>
     <row r="286" spans="1:14">
-      <c r="A286" s="53"/>
+      <c r="A286" s="54"/>
       <c r="B286" s="1">
         <v>84</v>
       </c>
@@ -13136,7 +13142,7 @@
       </c>
     </row>
     <row r="287" spans="1:14">
-      <c r="A287" s="53"/>
+      <c r="A287" s="54"/>
       <c r="B287" s="1">
         <v>85</v>
       </c>
@@ -13178,7 +13184,7 @@
       </c>
     </row>
     <row r="288" spans="1:14">
-      <c r="A288" s="53"/>
+      <c r="A288" s="54"/>
       <c r="B288" s="1">
         <v>86</v>
       </c>
@@ -13220,7 +13226,7 @@
       </c>
     </row>
     <row r="289" spans="1:14">
-      <c r="A289" s="53"/>
+      <c r="A289" s="54"/>
       <c r="B289" s="1">
         <v>87</v>
       </c>
@@ -13262,7 +13268,7 @@
       </c>
     </row>
     <row r="290" spans="1:14">
-      <c r="A290" s="53"/>
+      <c r="A290" s="54"/>
       <c r="B290" s="1">
         <v>88</v>
       </c>
@@ -13304,7 +13310,7 @@
       </c>
     </row>
     <row r="291" spans="1:14">
-      <c r="A291" s="53"/>
+      <c r="A291" s="54"/>
       <c r="B291" s="1">
         <v>89</v>
       </c>
@@ -13346,7 +13352,7 @@
       </c>
     </row>
     <row r="292" spans="1:14">
-      <c r="A292" s="53"/>
+      <c r="A292" s="54"/>
       <c r="B292" s="1">
         <v>90</v>
       </c>
@@ -13388,7 +13394,7 @@
       </c>
     </row>
     <row r="293" spans="1:14">
-      <c r="A293" s="53"/>
+      <c r="A293" s="54"/>
       <c r="B293" s="1">
         <v>91</v>
       </c>
@@ -13430,7 +13436,7 @@
       </c>
     </row>
     <row r="294" spans="1:14">
-      <c r="A294" s="53"/>
+      <c r="A294" s="54"/>
       <c r="B294" s="1">
         <v>92</v>
       </c>
@@ -13472,7 +13478,7 @@
       </c>
     </row>
     <row r="295" spans="1:14">
-      <c r="A295" s="53"/>
+      <c r="A295" s="54"/>
       <c r="B295" s="1">
         <v>93</v>
       </c>
@@ -13514,7 +13520,7 @@
       </c>
     </row>
     <row r="296" spans="1:14">
-      <c r="A296" s="53"/>
+      <c r="A296" s="54"/>
       <c r="B296" s="1">
         <v>94</v>
       </c>
@@ -13556,7 +13562,7 @@
       </c>
     </row>
     <row r="297" spans="1:14">
-      <c r="A297" s="53"/>
+      <c r="A297" s="54"/>
       <c r="B297" s="1">
         <v>95</v>
       </c>
@@ -13598,7 +13604,7 @@
       </c>
     </row>
     <row r="298" spans="1:14">
-      <c r="A298" s="53"/>
+      <c r="A298" s="54"/>
       <c r="B298" s="1">
         <v>96</v>
       </c>
@@ -13640,7 +13646,7 @@
       </c>
     </row>
     <row r="299" spans="1:14">
-      <c r="A299" s="53"/>
+      <c r="A299" s="54"/>
       <c r="B299" s="1">
         <v>97</v>
       </c>
@@ -13682,7 +13688,7 @@
       </c>
     </row>
     <row r="300" spans="1:14">
-      <c r="A300" s="53"/>
+      <c r="A300" s="54"/>
       <c r="B300" s="1">
         <v>98</v>
       </c>
@@ -13724,7 +13730,7 @@
       </c>
     </row>
     <row r="301" spans="1:14">
-      <c r="A301" s="53"/>
+      <c r="A301" s="54"/>
       <c r="B301" s="1">
         <v>99</v>
       </c>
@@ -13766,7 +13772,7 @@
       </c>
     </row>
     <row r="302" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A302" s="54"/>
+      <c r="A302" s="55"/>
       <c r="B302" s="3">
         <v>100</v>
       </c>
@@ -13813,11 +13819,11 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="A103:A202"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A3:A102"/>
+    <mergeCell ref="J1:N1"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A3:A102"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -13829,7 +13835,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13838,26 +13844,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="49" t="s">
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="52"/>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="62"/>
+      <c r="A2" s="63"/>
       <c r="B2" s="32" t="s">
         <v>6</v>
       </c>
@@ -13905,7 +13911,7 @@
         <f>AVERAGEIFS('Tabela 1'!G3:G102,'Tabela 1'!$I$3:$I$102, "Globalne")</f>
         <v>1.2085021872110246E-11</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="43">
         <f>AVERAGEIFS('Tabela 1'!H3:H102,'Tabela 1'!I3:I102, "Globalne")</f>
         <v>30.6</v>
       </c>
@@ -13925,7 +13931,7 @@
         <f>AVERAGEIFS('Tabela 1'!L3:L102,'Tabela 1'!$N$3:$N$102, "Globalne")</f>
         <v>1.6500933952556808E-11</v>
       </c>
-      <c r="J3" s="45">
+      <c r="J3" s="43">
         <f>AVERAGEIFS('Tabela 1'!M3:M102,'Tabela 1'!$N$3:$N$102, "Globalne")</f>
         <v>218.8</v>
       </c>
@@ -13950,7 +13956,7 @@
         <f>AVERAGEIFS('Tabela 1'!G103:G202,'Tabela 1'!$I$103:$I$202, "Globalne")</f>
         <v>8.6994048328651009E-12</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="44">
         <f>AVERAGEIFS('Tabela 1'!H103:H202,'Tabela 1'!I103:I202, "Globalne")</f>
         <v>32.954545454545453</v>
       </c>
@@ -13970,7 +13976,7 @@
         <f>AVERAGEIFS('Tabela 1'!L103:L202,'Tabela 1'!$N$103:$N$202, "Globalne")</f>
         <v>1.7149948128292181E-11</v>
       </c>
-      <c r="J4" s="46">
+      <c r="J4" s="44">
         <f>AVERAGEIFS('Tabela 1'!M103:M202,'Tabela 1'!$N$103:$N$202, "Globalne")</f>
         <v>233.11111111111111</v>
       </c>
@@ -13995,7 +14001,7 @@
         <f>AVERAGEIFS('Tabela 1'!G203:G302,'Tabela 1'!$I$203:$I$302, "Globalne")</f>
         <v>1.7919045557713115E-11</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="45">
         <f>AVERAGEIFS('Tabela 1'!H203:H302,'Tabela 1'!I203:I302, "Globalne")</f>
         <v>33.620689655172413</v>
       </c>
@@ -14015,7 +14021,7 @@
         <f>AVERAGEIFS('Tabela 1'!L203:L302,'Tabela 1'!$N$203:$N$302, "Globalne")</f>
         <v>2.6865341492650932E-11</v>
       </c>
-      <c r="J5" s="47">
+      <c r="J5" s="45">
         <f>AVERAGEIFS('Tabela 1'!M203:M302,'Tabela 1'!$N$203:$N$302, "Globalne")</f>
         <v>247.09677419354838</v>
       </c>
@@ -14039,31 +14045,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E1140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A84" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="69" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="65" t="s">
+      <c r="C1" s="65"/>
+      <c r="D1" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="64"/>
+      <c r="E1" s="65"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A2" s="67"/>
+      <c r="A2" s="68"/>
       <c r="B2" s="32" t="s">
         <v>6</v>
       </c>
@@ -14078,7 +14084,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="48">
+      <c r="A3" s="46">
         <v>0</v>
       </c>
       <c r="B3" s="23">
@@ -15250,7 +15256,7 @@
         <v>5.2492202199179188</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15.75" thickBot="1">
+    <row r="72" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A72" s="29">
         <v>69</v>
       </c>
@@ -20184,7 +20190,7 @@
         <v>5.2790610707479946</v>
       </c>
     </row>
-    <row r="520" spans="1:5" ht="15.75" thickBot="1">
+    <row r="520" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A520" s="30">
         <v>517</v>
       </c>
@@ -20211,7 +20217,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20220,24 +20226,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="49" t="s">
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:9" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A2" s="62"/>
+      <c r="A2" s="63"/>
       <c r="B2" s="32" t="s">
         <v>15</v>
       </c>
@@ -20264,15 +20270,33 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="41"/>
+      <c r="A3" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="B3" s="35">
+        <v>2.9220959814036398</v>
+      </c>
+      <c r="C3" s="36">
+        <v>5.2790633349792202</v>
+      </c>
+      <c r="D3" s="36">
+        <v>191.78404687883599</v>
+      </c>
+      <c r="E3" s="37">
+        <v>56</v>
+      </c>
+      <c r="F3" s="38">
+        <v>2.9220955999339102</v>
+      </c>
+      <c r="G3" s="35">
+        <v>5.2790618091003099</v>
+      </c>
+      <c r="H3" s="36">
+        <v>191.78404687883599</v>
+      </c>
+      <c r="I3" s="39">
+        <v>666</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -20286,10 +20310,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20298,214 +20322,1735 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="59" t="s">
+      <c r="C1" s="52"/>
+      <c r="D1" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="51"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="62"/>
-      <c r="B2" s="42" t="s">
+      <c r="A2" s="70"/>
+      <c r="B2" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="41" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="34"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="6"/>
+      <c r="A3" s="47">
+        <v>0</v>
+      </c>
+      <c r="B3" s="23">
+        <v>0</v>
+      </c>
+      <c r="C3" s="20">
+        <v>0</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="20">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="35"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="2"/>
+      <c r="A4" s="48">
+        <v>0.1</v>
+      </c>
+      <c r="B4" s="72">
+        <v>1.530006607017455E-2</v>
+      </c>
+      <c r="C4" s="73">
+        <v>0.15300066070174551</v>
+      </c>
+      <c r="D4" s="72">
+        <v>1.530005208857884E-2</v>
+      </c>
+      <c r="E4" s="73">
+        <v>0.15300052088578839</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="35"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="2"/>
+      <c r="A5" s="48">
+        <v>0.2</v>
+      </c>
+      <c r="B5" s="72">
+        <v>4.4352016234939173E-2</v>
+      </c>
+      <c r="C5" s="73">
+        <v>0.29051950164764623</v>
+      </c>
+      <c r="D5" s="72">
+        <v>4.4351977134864877E-2</v>
+      </c>
+      <c r="E5" s="73">
+        <v>0.29051925046286042</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="35"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="2"/>
+      <c r="A6" s="48">
+        <v>0.3</v>
+      </c>
+      <c r="B6" s="72">
+        <v>8.568981203934356E-2</v>
+      </c>
+      <c r="C6" s="73">
+        <v>0.41337795804404392</v>
+      </c>
+      <c r="D6" s="72">
+        <v>8.5689739232262307E-2</v>
+      </c>
+      <c r="E6" s="73">
+        <v>0.41337762097397429</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="35"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="2"/>
+      <c r="A7" s="48">
+        <v>0.4</v>
+      </c>
+      <c r="B7" s="72">
+        <v>0.13792878651393931</v>
+      </c>
+      <c r="C7" s="73">
+        <v>0.52238974474595745</v>
+      </c>
+      <c r="D7" s="72">
+        <v>0.13792867368023951</v>
+      </c>
+      <c r="E7" s="73">
+        <v>0.52238934447977226</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="35"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="2"/>
+      <c r="A8" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="B8" s="72">
+        <v>0.19976455020800599</v>
+      </c>
+      <c r="C8" s="73">
+        <v>0.61835763694066681</v>
+      </c>
+      <c r="D8" s="72">
+        <v>0.1997643930345005</v>
+      </c>
+      <c r="E8" s="73">
+        <v>0.61835719354260954</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="35"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="2"/>
+      <c r="A9" s="48">
+        <v>0.6</v>
+      </c>
+      <c r="B9" s="72">
+        <v>0.26997161162666777</v>
+      </c>
+      <c r="C9" s="73">
+        <v>0.70207061418661787</v>
+      </c>
+      <c r="D9" s="72">
+        <v>0.26997140756095261</v>
+      </c>
+      <c r="E9" s="73">
+        <v>0.70207014526452105</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="35"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="2"/>
+      <c r="A10" s="48">
+        <v>0.7</v>
+      </c>
+      <c r="B10" s="72">
+        <v>0.34740174629857462</v>
+      </c>
+      <c r="C10" s="73">
+        <v>0.77430134671906792</v>
+      </c>
+      <c r="D10" s="72">
+        <v>0.34740149432004092</v>
+      </c>
+      <c r="E10" s="73">
+        <v>0.77430086759088257</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="35"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="2"/>
+      <c r="A11" s="48">
+        <v>0.8</v>
+      </c>
+      <c r="B11" s="72">
+        <v>0.43098214662839512</v>
+      </c>
+      <c r="C11" s="73">
+        <v>0.8358040032982047</v>
+      </c>
+      <c r="D11" s="72">
+        <v>0.43098184703560383</v>
+      </c>
+      <c r="E11" s="73">
+        <v>0.835803527155629</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="35"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="2"/>
+      <c r="A12" s="48">
+        <v>0.9</v>
+      </c>
+      <c r="B12" s="72">
+        <v>0.51971338265895728</v>
+      </c>
+      <c r="C12" s="73">
+        <v>0.88731236030562166</v>
+      </c>
+      <c r="D12" s="72">
+        <v>0.51971303687300718</v>
+      </c>
+      <c r="E12" s="73">
+        <v>0.88731189837403424</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="35"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="2"/>
+      <c r="A13" s="48">
+        <v>1</v>
+      </c>
+      <c r="B13" s="72">
+        <v>0.61266720188721613</v>
+      </c>
+      <c r="C13" s="73">
+        <v>0.92953819228258816</v>
+      </c>
+      <c r="D13" s="72">
+        <v>0.61266681227066755</v>
+      </c>
+      <c r="E13" s="73">
+        <v>0.92953775397660388</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="35"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="2"/>
+      <c r="A14" s="48">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B14" s="72">
+        <v>0.70898419435127713</v>
+      </c>
+      <c r="C14" s="73">
+        <v>0.96316992464060958</v>
+      </c>
+      <c r="D14" s="72">
+        <v>0.70898376404213559</v>
+      </c>
+      <c r="E14" s="73">
+        <v>0.9631695177146804</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="35"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="2"/>
+      <c r="A15" s="48">
+        <v>1.2</v>
+      </c>
+      <c r="B15" s="72">
+        <v>0.80787134733667176</v>
+      </c>
+      <c r="C15" s="73">
+        <v>0.98887152985394655</v>
+      </c>
+      <c r="D15" s="72">
+        <v>0.80787088009688834</v>
+      </c>
+      <c r="E15" s="73">
+        <v>0.98887116054752777</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="35"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="2"/>
+      <c r="A16" s="48">
+        <v>1.3</v>
+      </c>
+      <c r="B16" s="72">
+        <v>0.90859951224248947</v>
+      </c>
+      <c r="C16" s="73">
+        <v>1.0072816490581771</v>
+      </c>
+      <c r="D16" s="72">
+        <v>0.90859901232039519</v>
+      </c>
+      <c r="E16" s="73">
+        <v>1.0072813222350681</v>
+      </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="35"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="2"/>
+      <c r="A17" s="48">
+        <v>1.4</v>
+      </c>
+      <c r="B17" s="72">
+        <v>1.010500804404705</v>
+      </c>
+      <c r="C17" s="73">
+        <v>1.0190129216221511</v>
+      </c>
+      <c r="D17" s="72">
+        <v>1.010500276410766</v>
+      </c>
+      <c r="E17" s="73">
+        <v>1.019012640903703</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="35"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="2"/>
+      <c r="A18" s="48">
+        <v>1.5</v>
+      </c>
+      <c r="B18" s="72">
+        <v>1.1129659549973949</v>
+      </c>
+      <c r="C18" s="73">
+        <v>1.024651505926903</v>
+      </c>
+      <c r="D18" s="72">
+        <v>1.1129654037926511</v>
+      </c>
+      <c r="E18" s="73">
+        <v>1.024651273818858</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="35"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="2"/>
+      <c r="A19" s="48">
+        <v>1.6</v>
+      </c>
+      <c r="B19" s="72">
+        <v>1.2154416325242721</v>
+      </c>
+      <c r="C19" s="73">
+        <v>1.024756775268773</v>
+      </c>
+      <c r="D19" s="72">
+        <v>1.2154410631208079</v>
+      </c>
+      <c r="E19" s="73">
+        <v>1.024756593281571</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="35"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="2"/>
+      <c r="A20" s="48">
+        <v>1.7</v>
+      </c>
+      <c r="B20" s="72">
+        <v>1.317427749874289</v>
+      </c>
+      <c r="C20" s="73">
+        <v>1.0198611735001699</v>
+      </c>
+      <c r="D20" s="72">
+        <v>1.317427167347071</v>
+      </c>
+      <c r="E20" s="73">
+        <v>1.0198610422626251</v>
+      </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="35"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="2"/>
+      <c r="A21" s="48">
+        <v>1.8</v>
+      </c>
+      <c r="B21" s="72">
+        <v>1.4184747714468351</v>
+      </c>
+      <c r="C21" s="73">
+        <v>1.0104702157254599</v>
+      </c>
+      <c r="D21" s="72">
+        <v>1.418474180856246</v>
+      </c>
+      <c r="E21" s="73">
+        <v>1.0104701350917471</v>
+      </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="35"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="2"/>
+      <c r="A22" s="48">
+        <v>1.9</v>
+      </c>
+      <c r="B22" s="72">
+        <v>1.5181810334545549</v>
+      </c>
+      <c r="C22" s="73">
+        <v>0.99706262007719659</v>
+      </c>
+      <c r="D22" s="72">
+        <v>1.518180439778962</v>
+      </c>
+      <c r="E22" s="73">
+        <v>0.99706258922716284</v>
+      </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="35"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="2"/>
+      <c r="A23" s="48">
+        <v>2</v>
+      </c>
+      <c r="B23" s="72">
+        <v>1.6161900891851111</v>
+      </c>
+      <c r="C23" s="73">
+        <v>0.9800905573055626</v>
+      </c>
+      <c r="D23" s="72">
+        <v>1.6161894972628019</v>
+      </c>
+      <c r="E23" s="73">
+        <v>0.98009057483840689</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="35"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="2"/>
+      <c r="A24" s="48">
+        <v>2.1</v>
+      </c>
+      <c r="B24" s="72">
+        <v>1.7121880897469091</v>
+      </c>
+      <c r="C24" s="73">
+        <v>0.95998000561797536</v>
+      </c>
+      <c r="D24" s="72">
+        <v>1.71218750422674</v>
+      </c>
+      <c r="E24" s="73">
+        <v>0.95998006963938065</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="35"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="2"/>
+      <c r="A25" s="48">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B25" s="72">
+        <v>1.805901209637236</v>
+      </c>
+      <c r="C25" s="73">
+        <v>0.93713119890326835</v>
+      </c>
+      <c r="D25" s="72">
+        <v>1.805900634937351</v>
+      </c>
+      <c r="E25" s="73">
+        <v>0.93713130710610981</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="35"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="2"/>
+      <c r="A26" s="48">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B26" s="72">
+        <v>1.897093125353529</v>
+      </c>
+      <c r="C26" s="73">
+        <v>0.91191915716293037</v>
+      </c>
+      <c r="D26" s="72">
+        <v>1.8970925656275219</v>
+      </c>
+      <c r="E26" s="73">
+        <v>0.91191930690171041</v>
+      </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="35"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="2"/>
+      <c r="A27" s="48">
+        <v>2.4</v>
+      </c>
+      <c r="B27" s="72">
+        <v>1.9855625542183399</v>
+      </c>
+      <c r="C27" s="73">
+        <v>0.88469428864811683</v>
+      </c>
+      <c r="D27" s="72">
+        <v>1.985562013328253</v>
+      </c>
+      <c r="E27" s="73">
+        <v>0.88469447700730319</v>
+      </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="35"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="2"/>
+      <c r="A28" s="48">
+        <v>2.5</v>
+      </c>
+      <c r="B28" s="72">
+        <v>2.0711408596046792</v>
+      </c>
+      <c r="C28" s="73">
+        <v>0.85578305386338793</v>
+      </c>
+      <c r="D28" s="72">
+        <v>2.071140341100238</v>
+      </c>
+      <c r="E28" s="73">
+        <v>0.85578327771985352</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="48">
+        <v>2.6</v>
+      </c>
+      <c r="B29" s="72">
+        <v>2.1536897278291289</v>
+      </c>
+      <c r="C29" s="73">
+        <v>0.82548868224450334</v>
+      </c>
+      <c r="D29" s="72">
+        <v>2.1536892349326671</v>
+      </c>
+      <c r="E29" s="73">
+        <v>0.82548893832428427</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="48">
+        <v>2.7</v>
+      </c>
+      <c r="B30" s="72">
+        <v>2.2330989211237782</v>
+      </c>
+      <c r="C30" s="73">
+        <v>0.79409193294648817</v>
+      </c>
+      <c r="D30" s="72">
+        <v>2.2330984567202758</v>
+      </c>
+      <c r="E30" s="73">
+        <v>0.79409221787609174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="48">
+        <v>2.8</v>
+      </c>
+      <c r="B31" s="72">
+        <v>2.3092841103025989</v>
+      </c>
+      <c r="C31" s="73">
+        <v>0.76185189178820722</v>
+      </c>
+      <c r="D31" s="72">
+        <v>2.309283676934347</v>
+      </c>
+      <c r="E31" s="73">
+        <v>0.76185220214071148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="48">
+        <v>2.9</v>
+      </c>
+      <c r="B32" s="72">
+        <v>2.3821847900015669</v>
+      </c>
+      <c r="C32" s="73">
+        <v>0.7290067969896824</v>
+      </c>
+      <c r="D32" s="72">
+        <v>2.3821843898669348</v>
+      </c>
+      <c r="E32" s="73">
+        <v>0.72900712932588041</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="48">
+        <v>3</v>
+      </c>
+      <c r="B33" s="72">
+        <v>2.4517622786923101</v>
+      </c>
+      <c r="C33" s="73">
+        <v>0.69577488690742761</v>
+      </c>
+      <c r="D33" s="72">
+        <v>2.4517619136481619</v>
+      </c>
+      <c r="E33" s="73">
+        <v>0.6957752378122728</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="48">
+        <v>3.1</v>
+      </c>
+      <c r="B34" s="72">
+        <v>2.5179978050443488</v>
+      </c>
+      <c r="C34" s="73">
+        <v>0.66235526352039165</v>
+      </c>
+      <c r="D34" s="72">
+        <v>2.517997476611662</v>
+      </c>
+      <c r="E34" s="73">
+        <v>0.66235562963500627</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="48">
+        <v>3.2</v>
+      </c>
+      <c r="B35" s="72">
+        <v>2.580890681638762</v>
+      </c>
+      <c r="C35" s="73">
+        <v>0.6289287659441285</v>
+      </c>
+      <c r="D35" s="72">
+        <v>2.5808903910110259</v>
+      </c>
+      <c r="E35" s="73">
+        <v>0.62892914399363853</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="48">
+        <v>3.3</v>
+      </c>
+      <c r="B36" s="72">
+        <v>2.640456566514076</v>
+      </c>
+      <c r="C36" s="73">
+        <v>0.59565884875314468</v>
+      </c>
+      <c r="D36" s="72">
+        <v>2.640456314568087</v>
+      </c>
+      <c r="E36" s="73">
+        <v>0.59565923557060363</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="48">
+        <v>3.4</v>
+      </c>
+      <c r="B37" s="72">
+        <v>2.6967258125511502</v>
+      </c>
+      <c r="C37" s="73">
+        <v>0.56269246037073606</v>
+      </c>
+      <c r="D37" s="72">
+        <v>2.696725599859827</v>
+      </c>
+      <c r="E37" s="73">
+        <v>0.56269285291739923</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="48">
+        <v>3.5</v>
+      </c>
+      <c r="B38" s="72">
+        <v>2.749741904275341</v>
+      </c>
+      <c r="C38" s="73">
+        <v>0.53016091724191483</v>
+      </c>
+      <c r="D38" s="72">
+        <v>2.749741731122239</v>
+      </c>
+      <c r="E38" s="73">
+        <v>0.53016131262412081</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="48">
+        <v>3.6</v>
+      </c>
+      <c r="B39" s="72">
+        <v>2.7995599812691641</v>
+      </c>
+      <c r="C39" s="73">
+        <v>0.49818076993822402</v>
+      </c>
+      <c r="D39" s="72">
+        <v>2.799559847664352</v>
+      </c>
+      <c r="E39" s="73">
+        <v>0.498181165421137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="48">
+        <v>3.7</v>
+      </c>
+      <c r="B40" s="72">
+        <v>2.8462454470445109</v>
+      </c>
+      <c r="C40" s="73">
+        <v>0.46685465775347262</v>
+      </c>
+      <c r="D40" s="72">
+        <v>2.846245352741545</v>
+      </c>
+      <c r="E40" s="73">
+        <v>0.46685505077193201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="48">
+        <v>3.8</v>
+      </c>
+      <c r="B41" s="72">
+        <v>2.8898726619182011</v>
+      </c>
+      <c r="C41" s="73">
+        <v>0.43627214873689951</v>
+      </c>
+      <c r="D41" s="72">
+        <v>2.8898726064319069</v>
+      </c>
+      <c r="E41" s="73">
+        <v>0.43627253690361639</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="48">
+        <v>3.9</v>
+      </c>
+      <c r="B42" s="72">
+        <v>2.9305237181657309</v>
+      </c>
+      <c r="C42" s="73">
+        <v>0.40651056247530271</v>
+      </c>
+      <c r="D42" s="72">
+        <v>2.93052370079057</v>
+      </c>
+      <c r="E42" s="73">
+        <v>0.40651094358663609</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="48">
+        <v>4</v>
+      </c>
+      <c r="B43" s="72">
+        <v>2.968287295493595</v>
+      </c>
+      <c r="C43" s="73">
+        <v>0.37763577327863218</v>
+      </c>
+      <c r="D43" s="72">
+        <v>2.968287315322387</v>
+      </c>
+      <c r="E43" s="73">
+        <v>0.37763614531816803</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="48">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B44" s="72">
+        <v>3.0032575946680842</v>
+      </c>
+      <c r="C44" s="73">
+        <v>0.34970299174489788</v>
+      </c>
+      <c r="D44" s="72">
+        <v>3.0032576506108919</v>
+      </c>
+      <c r="E44" s="73">
+        <v>0.34970335288504628</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="48">
+        <v>4.2</v>
+      </c>
+      <c r="B45" s="72">
+        <v>3.0355333469661341</v>
+      </c>
+      <c r="C45" s="73">
+        <v>0.32275752298049942</v>
+      </c>
+      <c r="D45" s="72">
+        <v>3.0355334377691232</v>
+      </c>
+      <c r="E45" s="73">
+        <v>0.322757871582315</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="48">
+        <v>4.3</v>
+      </c>
+      <c r="B46" s="72">
+        <v>3.0652168969693161</v>
+      </c>
+      <c r="C46" s="73">
+        <v>0.29683550003182019</v>
+      </c>
+      <c r="D46" s="72">
+        <v>3.0652170212334471</v>
+      </c>
+      <c r="E46" s="73">
+        <v>0.2968358346432407</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="48">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B47" s="72">
+        <v>3.0924133561036911</v>
+      </c>
+      <c r="C47" s="73">
+        <v>0.27196459134375062</v>
+      </c>
+      <c r="D47" s="72">
+        <v>3.0924135123030911</v>
+      </c>
+      <c r="E47" s="73">
+        <v>0.27196491069643941</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="48">
+        <v>4.5</v>
+      </c>
+      <c r="B48" s="72">
+        <v>3.1172298242338279</v>
+      </c>
+      <c r="C48" s="73">
+        <v>0.2481646813013694</v>
+      </c>
+      <c r="D48" s="72">
+        <v>3.1172300107337252</v>
+      </c>
+      <c r="E48" s="73">
+        <v>0.24816498430633741</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="48">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B49" s="72">
+        <v>3.1397746765471291</v>
+      </c>
+      <c r="C49" s="73">
+        <v>0.22544852313300681</v>
+      </c>
+      <c r="D49" s="72">
+        <v>3.1397748916212431</v>
+      </c>
+      <c r="E49" s="73">
+        <v>0.2254488088751779</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="48">
+        <v>4.7</v>
+      </c>
+      <c r="B50" s="72">
+        <v>3.1601569129128322</v>
+      </c>
+      <c r="C50" s="73">
+        <v>0.2038223636570336</v>
+      </c>
+      <c r="D50" s="72">
+        <v>3.160157154760133</v>
+      </c>
+      <c r="E50" s="73">
+        <v>0.2038226313889088</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="48">
+        <v>4.8</v>
+      </c>
+      <c r="B51" s="72">
+        <v>3.1784855668670029</v>
+      </c>
+      <c r="C51" s="73">
+        <v>0.18328653954170851</v>
+      </c>
+      <c r="D51" s="72">
+        <v>3.1784858336277608</v>
+      </c>
+      <c r="E51" s="73">
+        <v>0.1832867886762726</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="48">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B52" s="72">
+        <v>3.1948691713588029</v>
+      </c>
+      <c r="C52" s="73">
+        <v>0.16383604491799969</v>
+      </c>
+      <c r="D52" s="72">
+        <v>3.194869461129862</v>
+      </c>
+      <c r="E52" s="73">
+        <v>0.16383627502100551</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="48">
+        <v>5</v>
+      </c>
+      <c r="B53" s="72">
+        <v>3.209415278392826</v>
+      </c>
+      <c r="C53" s="73">
+        <v>0.14546107034023181</v>
+      </c>
+      <c r="D53" s="72">
+        <v>3.2094155892420599</v>
+      </c>
+      <c r="E53" s="73">
+        <v>0.145461281121985</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="48">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B54" s="72">
+        <v>3.22223002971577</v>
+      </c>
+      <c r="C54" s="73">
+        <v>0.1281475132294449</v>
+      </c>
+      <c r="D54" s="72">
+        <v>3.2222303596956809</v>
+      </c>
+      <c r="E54" s="73">
+        <v>0.12814770453620569</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="48">
+        <v>5.2</v>
+      </c>
+      <c r="B55" s="72">
+        <v>3.233417775721795</v>
+      </c>
+      <c r="C55" s="73">
+        <v>0.11187746006024681</v>
+      </c>
+      <c r="D55" s="72">
+        <v>3.2334181228822159</v>
+      </c>
+      <c r="E55" s="73">
+        <v>0.1118776318653521</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="48">
+        <v>5.3</v>
+      </c>
+      <c r="B56" s="72">
+        <v>3.2430807397882382</v>
+      </c>
+      <c r="C56" s="73">
+        <v>9.6629640664431943E-2</v>
+      </c>
+      <c r="D56" s="72">
+        <v>3.2430811021881389</v>
+      </c>
+      <c r="E56" s="73">
+        <v>9.6629793059235455E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="48">
+        <v>5.4</v>
+      </c>
+      <c r="B57" s="72">
+        <v>3.251318725300687</v>
+      </c>
+      <c r="C57" s="73">
+        <v>8.2379855124487186E-2</v>
+      </c>
+      <c r="D57" s="72">
+        <v>3.2513191010190599</v>
+      </c>
+      <c r="E57" s="73">
+        <v>8.237998830920322E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="48">
+        <v>5.5</v>
+      </c>
+      <c r="B58" s="72">
+        <v>3.2582288626824889</v>
+      </c>
+      <c r="C58" s="73">
+        <v>6.9101373818022949E-2</v>
+      </c>
+      <c r="D58" s="72">
+        <v>3.258229249828315</v>
+      </c>
+      <c r="E58" s="73">
+        <v>6.9101488092554064E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="48">
+        <v>5.6</v>
+      </c>
+      <c r="B59" s="72">
+        <v>3.2639053938075788</v>
+      </c>
+      <c r="C59" s="73">
+        <v>5.6765311250892569E-2</v>
+      </c>
+      <c r="D59" s="72">
+        <v>3.2639057905288871</v>
+      </c>
+      <c r="E59" s="73">
+        <v>5.6765407005710769E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="48">
+        <v>5.7</v>
+      </c>
+      <c r="B60" s="72">
+        <v>3.2684394912458781</v>
+      </c>
+      <c r="C60" s="73">
+        <v>4.5340974382986197E-2</v>
+      </c>
+      <c r="D60" s="72">
+        <v>3.2684398957379002</v>
+      </c>
+      <c r="E60" s="73">
+        <v>4.5341052090130979E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="48">
+        <v>5.8</v>
+      </c>
+      <c r="B61" s="72">
+        <v>3.2719191098665878</v>
+      </c>
+      <c r="C61" s="73">
+        <v>3.4796186207104909E-2</v>
+      </c>
+      <c r="D61" s="72">
+        <v>3.271919520379035</v>
+      </c>
+      <c r="E61" s="73">
+        <v>3.47962464113536E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="48">
+        <v>5.9</v>
+      </c>
+      <c r="B62" s="72">
+        <v>3.2744288684054479</v>
+      </c>
+      <c r="C62" s="73">
+        <v>2.5097585388601341E-2</v>
+      </c>
+      <c r="D62" s="72">
+        <v>3.2744292832489208</v>
+      </c>
+      <c r="E62" s="73">
+        <v>2.5097628698860359E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="48">
+        <v>6</v>
+      </c>
+      <c r="B63" s="72">
+        <v>3.2760499586866749</v>
+      </c>
+      <c r="C63" s="73">
+        <v>1.621090281226668E-2</v>
+      </c>
+      <c r="D63" s="72">
+        <v>3.2760503762382438</v>
+      </c>
+      <c r="E63" s="73">
+        <v>1.6210929893225749E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="48">
+        <v>6.1</v>
+      </c>
+      <c r="B64" s="72">
+        <v>3.276860080278063</v>
+      </c>
+      <c r="C64" s="73">
+        <v>8.101215913878192E-3</v>
+      </c>
+      <c r="D64" s="72">
+        <v>3.2768604989860401</v>
+      </c>
+      <c r="E64" s="73">
+        <v>8.1012274779634335E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="48">
+        <v>6.2</v>
+      </c>
+      <c r="B65" s="72">
+        <v>3.2769333984478131</v>
+      </c>
+      <c r="C65" s="73">
+        <v>7.3318169750319351E-4</v>
+      </c>
+      <c r="D65" s="72">
+        <v>3.276933816835756</v>
+      </c>
+      <c r="E65" s="73">
+        <v>7.3317849715919502E-4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="48">
+        <v>6.3</v>
+      </c>
+      <c r="B66" s="72">
+        <v>3.2763405233834799</v>
+      </c>
+      <c r="C66" s="73">
+        <v>-5.928750643332252E-3</v>
+      </c>
+      <c r="D66" s="72">
+        <v>3.2763409400534549</v>
+      </c>
+      <c r="E66" s="73">
+        <v>-5.9287678230065723E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="48">
+        <v>6.4</v>
+      </c>
+      <c r="B67" s="72">
+        <v>3.2751485087263199</v>
+      </c>
+      <c r="C67" s="73">
+        <v>-1.192014657159934E-2</v>
+      </c>
+      <c r="D67" s="72">
+        <v>3.2751489223614709</v>
+      </c>
+      <c r="E67" s="73">
+        <v>-1.1920176919841379E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="48">
+        <v>6.5</v>
+      </c>
+      <c r="B68" s="72">
+        <v>3.273420867567769</v>
+      </c>
+      <c r="C68" s="73">
+        <v>-1.72764115855089E-2</v>
+      </c>
+      <c r="D68" s="72">
+        <v>3.2734212769342221</v>
+      </c>
+      <c r="E68" s="73">
+        <v>-1.727645427249425E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="48">
+        <v>6.6</v>
+      </c>
+      <c r="B69" s="72">
+        <v>3.2712176041482248</v>
+      </c>
+      <c r="C69" s="73">
+        <v>-2.203263419543745E-2</v>
+      </c>
+      <c r="D69" s="72">
+        <v>3.271218008096374</v>
+      </c>
+      <c r="E69" s="73">
+        <v>-2.2032688378482029E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="48">
+        <v>6.7</v>
+      </c>
+      <c r="B70" s="72">
+        <v>3.268595259591351</v>
+      </c>
+      <c r="C70" s="73">
+        <v>-2.6223445568746909E-2</v>
+      </c>
+      <c r="D70" s="72">
+        <v>3.2685956570565642</v>
+      </c>
+      <c r="E70" s="73">
+        <v>-2.622351039810231E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="48">
+        <v>6.8</v>
+      </c>
+      <c r="B71" s="72">
+        <v>3.2656069700992871</v>
+      </c>
+      <c r="C71" s="73">
+        <v>-2.9882894920636349E-2</v>
+      </c>
+      <c r="D71" s="72">
+        <v>3.2656073601020759</v>
+      </c>
+      <c r="E71" s="73">
+        <v>-2.9882969544874839E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="48">
+        <v>6.9</v>
+      </c>
+      <c r="B72" s="72">
+        <v>3.2623025361251599</v>
+      </c>
+      <c r="C72" s="73">
+        <v>-3.3044339741269933E-2</v>
+      </c>
+      <c r="D72" s="72">
+        <v>3.26230291777085</v>
+      </c>
+      <c r="E72" s="73">
+        <v>-3.3044423312258681E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="48">
+        <v>7</v>
+      </c>
+      <c r="B73" s="72">
+        <v>3.2587285011286808</v>
+      </c>
+      <c r="C73" s="73">
+        <v>-3.574034996479572E-2</v>
+      </c>
+      <c r="D73" s="72">
+        <v>3.258728873606624</v>
+      </c>
+      <c r="E73" s="73">
+        <v>-3.5740441642262741E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="48">
+        <v>7.1</v>
+      </c>
+      <c r="B74" s="72">
+        <v>3.2549282386082692</v>
+      </c>
+      <c r="C74" s="73">
+        <v>-3.8002625204115993E-2</v>
+      </c>
+      <c r="D74" s="72">
+        <v>3.2549286011906431</v>
+      </c>
+      <c r="E74" s="73">
+        <v>-3.8002724159812908E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="48">
+        <v>7.2</v>
+      </c>
+      <c r="B75" s="72">
+        <v>3.250942046188666</v>
+      </c>
+      <c r="C75" s="73">
+        <v>-3.9861924196025307E-2</v>
+      </c>
+      <c r="D75" s="72">
+        <v>3.2509423982288932</v>
+      </c>
+      <c r="E75" s="73">
+        <v>-3.9862029617494223E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="48">
+        <v>7.3</v>
+      </c>
+      <c r="B76" s="72">
+        <v>3.2468072456262411</v>
+      </c>
+      <c r="C76" s="73">
+        <v>-4.1348005624254502E-2</v>
+      </c>
+      <c r="D76" s="72">
+        <v>3.2468075865570718</v>
+      </c>
+      <c r="E76" s="73">
+        <v>-4.1348116718208233E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="48">
+        <v>7.4</v>
+      </c>
+      <c r="B77" s="72">
+        <v>3.242558287674969</v>
+      </c>
+      <c r="C77" s="73">
+        <v>-4.2489579512727492E-2</v>
+      </c>
+      <c r="D77" s="72">
+        <v>3.2425586170062668</v>
+      </c>
+      <c r="E77" s="73">
+        <v>-4.2489695508054398E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="48">
+        <v>7.5</v>
+      </c>
+      <c r="B78" s="72">
+        <v>3.2382268608342031</v>
+      </c>
+      <c r="C78" s="73">
+        <v>-4.3314268407654538E-2</v>
+      </c>
+      <c r="D78" s="72">
+        <v>3.2382271781504608</v>
+      </c>
+      <c r="E78" s="73">
+        <v>-4.3314388558060253E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="48">
+        <v>7.6</v>
+      </c>
+      <c r="B79" s="72">
+        <v>3.2338420030747361</v>
+      </c>
+      <c r="C79" s="73">
+        <v>-4.3848577594672318E-2</v>
+      </c>
+      <c r="D79" s="72">
+        <v>3.2338423080323642</v>
+      </c>
+      <c r="E79" s="73">
+        <v>-4.3848701180972387E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="48">
+        <v>7.7</v>
+      </c>
+      <c r="B80" s="72">
+        <v>3.2294302157121511</v>
+      </c>
+      <c r="C80" s="73">
+        <v>-4.4117873625842949E-2</v>
+      </c>
+      <c r="D80" s="72">
+        <v>3.2294305080365722</v>
+      </c>
+      <c r="E80" s="73">
+        <v>-4.4117999957921122E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="48">
+        <v>7.8</v>
+      </c>
+      <c r="B81" s="72">
+        <v>3.2250155786660808</v>
+      </c>
+      <c r="C81" s="73">
+        <v>-4.4146370460701759E-2</v>
+      </c>
+      <c r="D81" s="72">
+        <v>3.225015858148657</v>
+      </c>
+      <c r="E81" s="73">
+        <v>-4.4146498879149558E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="48">
+        <v>7.9</v>
+      </c>
+      <c r="B82" s="72">
+        <v>3.2206198664105332</v>
+      </c>
+      <c r="C82" s="73">
+        <v>-4.3957122555480968E-2</v>
+      </c>
+      <c r="D82" s="72">
+        <v>3.220620132905363</v>
+      </c>
+      <c r="E82" s="73">
+        <v>-4.3957252432935058E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="48">
+        <v>8</v>
+      </c>
+      <c r="B83" s="72">
+        <v>3.2162626639840401</v>
+      </c>
+      <c r="C83" s="73">
+        <v>-4.3572024264933243E-2</v>
+      </c>
+      <c r="D83" s="72">
+        <v>3.2162629174046509</v>
+      </c>
+      <c r="E83" s="73">
+        <v>-4.3572155007127238E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="48">
+        <v>8.1</v>
+      </c>
+      <c r="B84" s="72">
+        <v>3.2119614824888738</v>
+      </c>
+      <c r="C84" s="73">
+        <v>-4.3011814951652648E-2</v>
+      </c>
+      <c r="D84" s="72">
+        <v>3.2119617228048312</v>
+      </c>
+      <c r="E84" s="73">
+        <v>-4.3011945998200699E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="48">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B85" s="72">
+        <v>3.2077318735660461</v>
+      </c>
+      <c r="C85" s="73">
+        <v>-4.2296089228276622E-2</v>
+      </c>
+      <c r="D85" s="72">
+        <v>3.2077321007995101</v>
+      </c>
+      <c r="E85" s="73">
+        <v>-4.22962200532059E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="48">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="B86" s="72">
+        <v>3.2035875423872171</v>
+      </c>
+      <c r="C86" s="73">
+        <v>-4.1443311788299873E-2</v>
+      </c>
+      <c r="D86" s="72">
+        <v>3.2035877566094748</v>
+      </c>
+      <c r="E86" s="73">
+        <v>-4.1443441900349563E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="48">
+        <v>8.4</v>
+      </c>
+      <c r="B87" s="72">
+        <v>3.1995404587560858</v>
+      </c>
+      <c r="C87" s="73">
+        <v>-4.0470836311307067E-2</v>
+      </c>
+      <c r="D87" s="72">
+        <v>3.1995406600840739</v>
+      </c>
+      <c r="E87" s="73">
+        <v>-4.0470965254011143E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="48">
+        <v>8.5</v>
+      </c>
+      <c r="B88" s="72">
+        <v>3.1956009659602751</v>
+      </c>
+      <c r="C88" s="73">
+        <v>-3.9394927958113897E-2</v>
+      </c>
+      <c r="D88" s="72">
+        <v>3.1956011545531058</v>
+      </c>
+      <c r="E88" s="73">
+        <v>-3.9395055309684672E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="48">
+        <v>8.6</v>
+      </c>
+      <c r="B89" s="72">
+        <v>3.1917778870602258</v>
+      </c>
+      <c r="C89" s="73">
+        <v>-3.8230789000489318E-2</v>
+      </c>
+      <c r="D89" s="72">
+        <v>3.1917780631157542</v>
+      </c>
+      <c r="E89" s="73">
+        <v>-3.8230914373518957E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="48">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="B90" s="72">
+        <v>3.188078628344353</v>
+      </c>
+      <c r="C90" s="73">
+        <v>-3.6992587158722549E-2</v>
+      </c>
+      <c r="D90" s="72">
+        <v>3.1880787920957818</v>
+      </c>
+      <c r="E90" s="73">
+        <v>-3.6992710199718913E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="48">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="B91" s="72">
+        <v>3.1845092797195318</v>
+      </c>
+      <c r="C91" s="73">
+        <v>-3.5693486248212378E-2</v>
+      </c>
+      <c r="D91" s="72">
+        <v>3.1845094314320832</v>
+      </c>
+      <c r="E91" s="73">
+        <v>-3.5693606636985349E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="48">
+        <v>8.9</v>
+      </c>
+      <c r="B92" s="72">
+        <v>3.1810747118431899</v>
+      </c>
+      <c r="C92" s="73">
+        <v>-3.4345678763425438E-2</v>
+      </c>
+      <c r="D92" s="72">
+        <v>3.1810748518108491</v>
+      </c>
+      <c r="E92" s="73">
+        <v>-3.4345796212339373E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="48">
+        <v>9</v>
+      </c>
+      <c r="B93" s="72">
+        <v>3.1777786698377972</v>
+      </c>
+      <c r="C93" s="73">
+        <v>-3.2960420053930781E-2</v>
+      </c>
+      <c r="D93" s="72">
+        <v>3.177778798380146</v>
+      </c>
+      <c r="E93" s="73">
+        <v>-3.2960534307038242E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="48">
+        <v>9.1</v>
+      </c>
+      <c r="B94" s="72">
+        <v>3.1746238634605239</v>
+      </c>
+      <c r="C94" s="73">
+        <v>-3.1548063772723053E-2</v>
+      </c>
+      <c r="D94" s="72">
+        <v>3.1746239809196659</v>
+      </c>
+      <c r="E94" s="73">
+        <v>-3.1548174604794407E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="48">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="B95" s="72">
+        <v>3.1716120536303589</v>
+      </c>
+      <c r="C95" s="73">
+        <v>-3.011809830165102E-2</v>
+      </c>
+      <c r="D95" s="72">
+        <v>3.171612160367955</v>
+      </c>
+      <c r="E95" s="73">
+        <v>-3.0118205517113611E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="48">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="B96" s="72">
+        <v>3.1687441352421151</v>
+      </c>
+      <c r="C96" s="73">
+        <v>-2.8679183882441211E-2</v>
+      </c>
+      <c r="D96" s="72">
+        <v>3.1687442316365311</v>
+      </c>
+      <c r="E96" s="73">
+        <v>-2.8679287314241481E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="48">
+        <v>9.4</v>
+      </c>
+      <c r="B97" s="72">
+        <v>3.1660202162216629</v>
+      </c>
+      <c r="C97" s="73">
+        <v>-2.7239190204520931E-2</v>
+      </c>
+      <c r="D97" s="72">
+        <v>3.1660203026652378</v>
+      </c>
+      <c r="E97" s="73">
+        <v>-2.7239289712922211E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="48">
+        <v>9.5</v>
+      </c>
+      <c r="B98" s="72">
+        <v>3.163439692799404</v>
+      </c>
+      <c r="C98" s="73">
+        <v>-2.5805234222584399E-2</v>
+      </c>
+      <c r="D98" s="72">
+        <v>3.1634397696958469</v>
+      </c>
+      <c r="E98" s="73">
+        <v>-2.5805329693911951E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="48">
+        <v>9.6</v>
+      </c>
+      <c r="B99" s="72">
+        <v>3.1610013209996448</v>
+      </c>
+      <c r="C99" s="73">
+        <v>-2.4383717997595599E-2</v>
+      </c>
+      <c r="D99" s="72">
+        <v>3.1610013887615529</v>
+      </c>
+      <c r="E99" s="73">
+        <v>-2.438380934294038E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="48">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="B100" s="72">
+        <v>3.158703284362177</v>
+      </c>
+      <c r="C100" s="73">
+        <v>-2.2980366374678821E-2</v>
+      </c>
+      <c r="D100" s="72">
+        <v>3.1587033434086962</v>
+      </c>
+      <c r="E100" s="73">
+        <v>-2.298045352857031E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="48">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="B101" s="72">
+        <v>3.1565432579291661</v>
+      </c>
+      <c r="C101" s="73">
+        <v>-2.1600264330110051E-2</v>
+      </c>
+      <c r="D101" s="72">
+        <v>3.1565433086837791</v>
+      </c>
+      <c r="E101" s="73">
+        <v>-2.1600347249167959E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A102" s="49">
+        <v>9.9</v>
+      </c>
+      <c r="B102" s="74">
+        <v>3.1545184685454268</v>
+      </c>
+      <c r="C102" s="75">
+        <v>-2.0247893837394719E-2</v>
+      </c>
+      <c r="D102" s="74">
+        <v>3.1545185114338818</v>
+      </c>
+      <c r="E102" s="75">
+        <v>-2.0247972498968699E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A103" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="3">
